--- a/data_clean/Orkla 15.12.2020.xlsx
+++ b/data_clean/Orkla 15.12.2020.xlsx
@@ -1323,7 +1323,7 @@
         <v>0.966439684037153</v>
       </c>
       <c r="K2">
-        <v>48.17860825846492</v>
+        <v>-0.0182139174153505</v>
       </c>
       <c r="L2">
         <v>-0.001006458205220368</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.003737688255658171</v>
@@ -1424,13 +1424,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1465,7 +1465,7 @@
         <v>4.210526315787229</v>
       </c>
       <c r="K4">
-        <v>80.80808080807253</v>
+        <v>0.3080808080807254</v>
       </c>
       <c r="L4">
         <v>0.002828621053497365</v>
@@ -1495,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.000274412952291</v>
+        <v>0.0002744129522913585</v>
       </c>
       <c r="V4">
-        <v>1.000274412952291</v>
+        <v>0.0002744129522913585</v>
       </c>
       <c r="W4">
-        <v>1.000940955069396</v>
+        <v>0.0009409550693955104</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1536,7 +1536,7 @@
         <v>1.99737187910612</v>
       </c>
       <c r="K5">
-        <v>66.63743971941776</v>
+        <v>0.1663743971941776</v>
       </c>
       <c r="L5">
         <v>0.003872689941700861</v>
@@ -1566,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000078382191566</v>
+        <v>7.83821915661953E-05</v>
       </c>
       <c r="V5">
-        <v>1.000078382191566</v>
+        <v>7.83821915661953E-05</v>
       </c>
       <c r="W5">
-        <v>0.9997649823736781</v>
+        <v>-0.0002350176263219428</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1607,7 +1607,7 @@
         <v>0.621623366839548</v>
       </c>
       <c r="K6">
-        <v>38.33339970002139</v>
+        <v>-0.1166660029997861</v>
       </c>
       <c r="L6">
         <v>0.00202476957993952</v>
@@ -1637,13 +1637,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.9998589231130967</v>
+        <v>-0.0001410768869033463</v>
       </c>
       <c r="V6">
-        <v>0.9998589231130967</v>
+        <v>-0.0001410768869033463</v>
       </c>
       <c r="W6">
-        <v>0.999059708509638</v>
+        <v>-0.0009402914903620108</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1678,7 +1678,7 @@
         <v>0.1852081245584637</v>
       </c>
       <c r="K7">
-        <v>15.62663305463425</v>
+        <v>-0.3437336694536575</v>
       </c>
       <c r="L7">
         <v>-0.004008419605802583</v>
@@ -1708,13 +1708,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9993964192769573</v>
+        <v>-0.0006035807230426737</v>
       </c>
       <c r="V7">
-        <v>0.9993964192769573</v>
+        <v>-0.0006035807230426737</v>
       </c>
       <c r="W7">
-        <v>0.9969411764705882</v>
+        <v>-0.00305882352941178</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1749,7 +1749,7 @@
         <v>0.6399821046438963</v>
       </c>
       <c r="K8">
-        <v>39.02372488283103</v>
+        <v>-0.1097627511716897</v>
       </c>
       <c r="L8">
         <v>-0.007127959813416729</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.9998375286425798</v>
+        <v>-0.0001624713574202019</v>
       </c>
       <c r="V8">
-        <v>0.9998375286425798</v>
+        <v>-0.0001624713574202019</v>
       </c>
       <c r="W8">
-        <v>1.001888128392731</v>
+        <v>0.001888128392730781</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1820,7 +1820,7 @@
         <v>0.9391755125948014</v>
       </c>
       <c r="K9">
-        <v>48.43169205133449</v>
+        <v>-0.01568307948665504</v>
       </c>
       <c r="L9">
         <v>-0.007659646078656857</v>
@@ -1850,13 +1850,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000025215169446</v>
+        <v>2.521516944598012E-05</v>
       </c>
       <c r="V9">
-        <v>1.000025215169446</v>
+        <v>2.521516944598012E-05</v>
       </c>
       <c r="W9">
-        <v>1.001177856301531</v>
+        <v>0.001177856301531222</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1891,7 +1891,7 @@
         <v>1.06515168436363</v>
       </c>
       <c r="K10">
-        <v>51.57740675556494</v>
+        <v>0.01577406755564947</v>
       </c>
       <c r="L10">
         <v>-0.006830029007486164</v>
@@ -1921,13 +1921,13 @@
         <v>-0.00611111111111029</v>
       </c>
       <c r="U10">
-        <v>1.000071908114504</v>
+        <v>7.190811450374923E-05</v>
       </c>
       <c r="V10">
-        <v>1.000071908114504</v>
+        <v>7.190811450374923E-05</v>
       </c>
       <c r="W10">
-        <v>1.000470588235294</v>
+        <v>0.0004705882352942226</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1962,7 +1962,7 @@
         <v>0.9404428524490148</v>
       </c>
       <c r="K11">
-        <v>48.46537228664533</v>
+        <v>-0.01534627713354675</v>
       </c>
       <c r="L11">
         <v>-0.005885903505764712</v>
@@ -1992,13 +1992,13 @@
         <v>-0.009500000000002728</v>
       </c>
       <c r="U11">
-        <v>1.000010458610051</v>
+        <v>1.045861005066762E-05</v>
       </c>
       <c r="V11">
-        <v>1.000010458610051</v>
+        <v>1.045861005066762E-05</v>
       </c>
       <c r="W11">
-        <v>0.9995296331138287</v>
+        <v>-0.0004703668861713028</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2033,7 +2033,7 @@
         <v>1.12530730402059</v>
       </c>
       <c r="K12">
-        <v>52.94798083513706</v>
+        <v>0.02947980835137054</v>
       </c>
       <c r="L12">
         <v>-0.004539378305317747</v>
@@ -2063,13 +2063,13 @@
         <v>-0.02068181818181358</v>
       </c>
       <c r="U12">
-        <v>1.000072734118292</v>
+        <v>7.273411829156196E-05</v>
       </c>
       <c r="V12">
-        <v>1.000072734118292</v>
+        <v>7.273411829156196E-05</v>
       </c>
       <c r="W12">
-        <v>1.000705882352941</v>
+        <v>0.0007058823529411118</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2104,7 +2104,7 @@
         <v>1.12530730402059</v>
       </c>
       <c r="K13">
-        <v>52.94798083513706</v>
+        <v>0.02947980835137054</v>
       </c>
       <c r="L13">
         <v>-0.003140574430699954</v>
@@ -2134,13 +2134,13 @@
         <v>-0.02833333333333599</v>
       </c>
       <c r="U13">
-        <v>1.00006060735702</v>
+        <v>6.060735701995945E-05</v>
       </c>
       <c r="V13">
-        <v>1.00006060735702</v>
+        <v>6.060735701995945E-05</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2175,7 +2175,7 @@
         <v>0.9339921315348717</v>
       </c>
       <c r="K14">
-        <v>48.29348146280351</v>
+        <v>-0.01706518537196489</v>
       </c>
       <c r="L14">
         <v>-0.002212767893901459</v>
@@ -2205,13 +2205,13 @@
         <v>-0.02807692307692378</v>
       </c>
       <c r="U14">
-        <v>0.9999969835270411</v>
+        <v>-3.016472958861094E-06</v>
       </c>
       <c r="V14">
-        <v>0.9999969835270411</v>
+        <v>-3.016472958861094E-06</v>
       </c>
       <c r="W14">
-        <v>0.9992946155654832</v>
+        <v>-0.0007053844345168425</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2246,7 +2246,7 @@
         <v>0.6077202569768664</v>
       </c>
       <c r="K15">
-        <v>37.80012438977504</v>
+        <v>-0.1219987561022496</v>
       </c>
       <c r="L15">
         <v>-0.002635006064429088</v>
@@ -2276,13 +2276,13 @@
         <v>-0.004999999999995453</v>
       </c>
       <c r="U15">
-        <v>0.9998461594150438</v>
+        <v>-0.0001538405849561553</v>
       </c>
       <c r="V15">
-        <v>0.9998461594150438</v>
+        <v>-0.0001538405849561553</v>
       </c>
       <c r="W15">
-        <v>0.9978823529411764</v>
+        <v>-0.002117647058823557</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2317,7 +2317,7 @@
         <v>0.6485776174152098</v>
       </c>
       <c r="K16">
-        <v>39.34164885922137</v>
+        <v>-0.1065835114077863</v>
       </c>
       <c r="L16">
         <v>-0.003576009466141141</v>
@@ -2347,13 +2347,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U16">
-        <v>0.9998823390987176</v>
+        <v>-0.0001176609012824015</v>
       </c>
       <c r="V16">
-        <v>0.9998823390987176</v>
+        <v>-0.0001176609012824015</v>
       </c>
       <c r="W16">
-        <v>1.000235793444942</v>
+        <v>0.0002357934449424004</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2388,7 +2388,7 @@
         <v>1.121662843543154</v>
       </c>
       <c r="K17">
-        <v>52.8671578029801</v>
+        <v>0.02867157802980103</v>
       </c>
       <c r="L17">
         <v>-0.003521792226131069</v>
@@ -2418,13 +2418,13 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>1.0000588373735</v>
+        <v>5.883737349954288E-05</v>
       </c>
       <c r="V17">
-        <v>1.000015689966267</v>
+        <v>1.568996626666319E-05</v>
       </c>
       <c r="W17">
-        <v>1.002593116454503</v>
+        <v>0.002593116454502553</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2459,7 +2459,7 @@
         <v>0.8234379153874499</v>
       </c>
       <c r="K18">
-        <v>45.15853862852705</v>
+        <v>-0.04841461371472944</v>
       </c>
       <c r="L18">
         <v>-0.003745517786812678</v>
@@ -2489,13 +2489,13 @@
         <v>-0.008750000000006253</v>
       </c>
       <c r="U18">
-        <v>0.9999411660881332</v>
+        <v>-5.883391186678466E-05</v>
       </c>
       <c r="V18">
-        <v>0.9999058616794277</v>
+        <v>-9.41383205722568E-05</v>
       </c>
       <c r="W18">
-        <v>0.9981189748412885</v>
+        <v>-0.001881025158711469</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2530,7 +2530,7 @@
         <v>1.068325099144548</v>
       </c>
       <c r="K19">
-        <v>51.65170115599348</v>
+        <v>0.01651701155993479</v>
       </c>
       <c r="L19">
         <v>-0.003388224454794649</v>
@@ -2560,13 +2560,13 @@
         <v>-0.004999999999995453</v>
       </c>
       <c r="U19">
-        <v>1.000039224915666</v>
+        <v>3.922491566643593E-05</v>
       </c>
       <c r="V19">
-        <v>0.9999529264082847</v>
+        <v>-4.707359171529646E-05</v>
       </c>
       <c r="W19">
-        <v>1.001648998822144</v>
+        <v>0.001648998822143755</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2601,7 +2601,7 @@
         <v>1.068325099144547</v>
       </c>
       <c r="K20">
-        <v>51.65170115599348</v>
+        <v>0.01651701155993479</v>
       </c>
       <c r="L20">
         <v>-0.002720950641201315</v>
@@ -2631,13 +2631,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U20">
-        <v>1.000035094600592</v>
+        <v>3.509460059247793E-05</v>
       </c>
       <c r="V20">
-        <v>0.9999686161281719</v>
+        <v>-3.138387182810565E-05</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2672,7 +2672,7 @@
         <v>0.8403121593365017</v>
       </c>
       <c r="K21">
-        <v>45.66139255632937</v>
+        <v>-0.04338607443670628</v>
       </c>
       <c r="L21">
         <v>-0.002585031681540422</v>
@@ -2702,13 +2702,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U21">
-        <v>0.9999492178307344</v>
+        <v>-5.0782169265573E-05</v>
       </c>
       <c r="V21">
-        <v>0.9999215378579835</v>
+        <v>-7.846214201645552E-05</v>
       </c>
       <c r="W21">
-        <v>0.9983537158984007</v>
+        <v>-0.001646284101599282</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2743,7 +2743,7 @@
         <v>1.097070407543646</v>
       </c>
       <c r="K22">
-        <v>52.31442890983683</v>
+        <v>0.0231442890983683</v>
       </c>
       <c r="L22">
         <v>-0.001999665066616333</v>
@@ -2773,13 +2773,13 @@
         <v>-0.008749999999992042</v>
       </c>
       <c r="U22">
-        <v>1.000043706734536</v>
+        <v>4.370673453557572E-05</v>
       </c>
       <c r="V22">
-        <v>1.000251098556183</v>
+        <v>0.0002510985561832157</v>
       </c>
       <c r="W22">
-        <v>1.00188457008245</v>
+        <v>0.00188457008244991</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2814,7 +2814,7 @@
         <v>1.164638367598146</v>
       </c>
       <c r="K23">
-        <v>53.80290699043709</v>
+        <v>0.03802906990437094</v>
       </c>
       <c r="L23">
         <v>-0.001003903695792834</v>
@@ -2844,13 +2844,13 @@
         <v>0.0037500000000108</v>
       </c>
       <c r="U23">
-        <v>1.000061125628448</v>
+        <v>6.11256284477335E-05</v>
       </c>
       <c r="V23">
-        <v>1.000156897200954</v>
+        <v>0.0001568972009540204</v>
       </c>
       <c r="W23">
-        <v>1.000470256289678</v>
+        <v>0.000470256289677673</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2885,7 +2885,7 @@
         <v>1.200200451837382</v>
       </c>
       <c r="K24">
-        <v>54.54959573502031</v>
+        <v>0.04549595735020306</v>
       </c>
       <c r="L24">
         <v>0.0002562087123544481</v>
@@ -2915,13 +2915,13 @@
         <v>0.02499999999999147</v>
       </c>
       <c r="U24">
-        <v>1.000066038218457</v>
+        <v>6.603821845652114E-05</v>
       </c>
       <c r="V24">
-        <v>1.00009412355285</v>
+        <v>9.412355285043361E-05</v>
       </c>
       <c r="W24">
-        <v>1.000235017626322</v>
+        <v>0.0002350176263221648</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2956,7 +2956,7 @@
         <v>1.010977029309838</v>
       </c>
       <c r="K25">
-        <v>50.27292776470961</v>
+        <v>0.002729277647096073</v>
       </c>
       <c r="L25">
         <v>0.001130771364016709</v>
@@ -2986,13 +2986,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U25">
-        <v>1.00001150942238</v>
+        <v>1.150942238048458E-05</v>
       </c>
       <c r="V25">
-        <v>0.999984314217593</v>
+        <v>-1.568578240696006E-05</v>
       </c>
       <c r="W25">
-        <v>0.9988251879699247</v>
+        <v>-0.001174812030075301</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3027,7 +3027,7 @@
         <v>0.9784991292286498</v>
       </c>
       <c r="K26">
-        <v>49.4566368401756</v>
+        <v>-0.005433631598244004</v>
       </c>
       <c r="L26">
         <v>0.001625636334553543</v>
@@ -3057,13 +3057,13 @@
         <v>0.03375000000001194</v>
       </c>
       <c r="U26">
-        <v>1.000001176505191</v>
+        <v>1.176505191269328E-06</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>0.9997647612326512</v>
+        <v>-0.0002352387673487666</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3098,7 +3098,7 @@
         <v>0.9784991292286497</v>
       </c>
       <c r="K27">
-        <v>49.4566368401756</v>
+        <v>-0.005433631598244004</v>
       </c>
       <c r="L27">
         <v>0.001857053664557529</v>
@@ -3128,13 +3128,13 @@
         <v>0.02875000000000227</v>
       </c>
       <c r="U27">
-        <v>1.000001086003514</v>
+        <v>1.08600351422794E-06</v>
       </c>
       <c r="V27">
-        <v>0.9999529419146366</v>
+        <v>-4.705808536342726E-05</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3169,7 +3169,7 @@
         <v>1.049690841492029</v>
       </c>
       <c r="K28">
-        <v>51.21215454755746</v>
+        <v>0.01212154547557465</v>
       </c>
       <c r="L28">
         <v>0.00208707443571317</v>
@@ -3199,13 +3199,13 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="U28">
-        <v>1.000018435224821</v>
+        <v>1.843522482092297E-05</v>
       </c>
       <c r="V28">
-        <v>0.9999843132333565</v>
+        <v>-1.568676664354118E-05</v>
       </c>
       <c r="W28">
-        <v>1.000470588235294</v>
+        <v>0.0004705882352942226</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3240,7 +3240,7 @@
         <v>1.274506774955279</v>
       </c>
       <c r="K29">
-        <v>56.03442420963278</v>
+        <v>0.06034424209632783</v>
       </c>
       <c r="L29">
         <v>0.002821889354097146</v>
@@ -3270,13 +3270,13 @@
         <v>0.05624999999999147</v>
       </c>
       <c r="U29">
-        <v>1.000067538714934</v>
+        <v>6.753871493425656E-05</v>
       </c>
       <c r="V29">
-        <v>1.000125496101777</v>
+        <v>0.000125496101777367</v>
       </c>
       <c r="W29">
-        <v>1.001411100658514</v>
+        <v>0.001411100658513575</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3311,7 +3311,7 @@
         <v>1.392830950462266</v>
       </c>
       <c r="K30">
-        <v>58.20849777094315</v>
+        <v>0.08208497770943157</v>
       </c>
       <c r="L30">
         <v>0.004061969320125927</v>
@@ -3341,13 +3341,13 @@
         <v>0.06249999999998579</v>
       </c>
       <c r="U30">
-        <v>1.000087215964984</v>
+        <v>8.721596498384443E-05</v>
       </c>
       <c r="V30">
-        <v>1.000313700886205</v>
+        <v>0.0003137008862050816</v>
       </c>
       <c r="W30">
-        <v>1.000704556129638</v>
+        <v>0.0007045561296383784</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3382,7 +3382,7 @@
         <v>1.337309530263653</v>
       </c>
       <c r="K31">
-        <v>57.21576509007782</v>
+        <v>0.07215765090077819</v>
       </c>
       <c r="L31">
         <v>0.005420260068784075</v>
@@ -3412,13 +3412,13 @@
         <v>0.05124999999999602</v>
       </c>
       <c r="U31">
-        <v>1.000073552476447</v>
+        <v>7.355247644702523E-05</v>
       </c>
       <c r="V31">
-        <v>1.000282242257938</v>
+        <v>0.0002822422579378259</v>
       </c>
       <c r="W31">
-        <v>0.9997653133067356</v>
+        <v>-0.0002346866932644298</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3453,7 +3453,7 @@
         <v>1.105395841724829</v>
       </c>
       <c r="K32">
-        <v>52.50299349025227</v>
+        <v>0.0250299349025227</v>
       </c>
       <c r="L32">
         <v>0.006304877231167832</v>
@@ -3483,13 +3483,13 @@
         <v>0.03249999999999886</v>
       </c>
       <c r="U32">
-        <v>1.000023524245656</v>
+        <v>2.352424565588151E-05</v>
       </c>
       <c r="V32">
-        <v>1.000031351402191</v>
+        <v>3.13514021914596E-05</v>
       </c>
       <c r="W32">
-        <v>0.9988262910798121</v>
+        <v>-0.001173708920187866</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3524,7 +3524,7 @@
         <v>1.178413992458569</v>
       </c>
       <c r="K33">
-        <v>54.09504329930443</v>
+        <v>0.04095043299304424</v>
       </c>
       <c r="L33">
         <v>0.006998216539028114</v>
@@ -3554,13 +3554,13 @@
         <v>0.04250000000000398</v>
       </c>
       <c r="U33">
-        <v>1.000047047384558</v>
+        <v>4.704738455774127E-05</v>
       </c>
       <c r="V33">
-        <v>1.000188102515871</v>
+        <v>0.0001881025158709804</v>
       </c>
       <c r="W33">
-        <v>1.000470035252644</v>
+        <v>0.0004700352526441076</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3595,7 +3595,7 @@
         <v>1.216844598107893</v>
       </c>
       <c r="K34">
-        <v>54.89083894949093</v>
+        <v>0.04890838949490928</v>
       </c>
       <c r="L34">
         <v>0.007592474485611908</v>
@@ -3625,13 +3625,13 @@
         <v>0.04625000000000057</v>
       </c>
       <c r="U34">
-        <v>1.000023522585602</v>
+        <v>2.352258560245346E-05</v>
       </c>
       <c r="V34">
-        <v>1.000094033569985</v>
+        <v>9.403356998460843E-05</v>
       </c>
       <c r="W34">
-        <v>1.000234907211651</v>
+        <v>0.000234907211651425</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3666,7 +3666,7 @@
         <v>1.125763010115583</v>
       </c>
       <c r="K35">
-        <v>52.95806751545518</v>
+        <v>0.02958067515455187</v>
       </c>
       <c r="L35">
         <v>0.007887557263408422</v>
@@ -3696,13 +3696,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U35">
-        <v>1.000015681354869</v>
+        <v>1.568135486906819E-05</v>
       </c>
       <c r="V35">
-        <v>1.000062683152336</v>
+        <v>6.26831523355964E-05</v>
       </c>
       <c r="W35">
-        <v>0.9995302959135746</v>
+        <v>-0.0004697040864254376</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3737,7 +3737,7 @@
         <v>1.283343289356623</v>
       </c>
       <c r="K36">
-        <v>56.20457052335</v>
+        <v>0.06204570523349995</v>
       </c>
       <c r="L36">
         <v>0.008299932591462758</v>
@@ -3767,13 +3767,13 @@
         <v>0.06624999999999659</v>
       </c>
       <c r="U36">
-        <v>1.00007840554484</v>
+        <v>7.840554484017659E-05</v>
       </c>
       <c r="V36">
-        <v>1.000235047087767</v>
+        <v>0.00023504708776656</v>
       </c>
       <c r="W36">
-        <v>1.00093984962406</v>
+        <v>0.0009398496240602405</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3808,7 +3808,7 @@
         <v>1.18505813570344</v>
       </c>
       <c r="K37">
-        <v>54.23462727786562</v>
+        <v>0.04234627277865621</v>
       </c>
       <c r="L37">
         <v>0.008553313620695982</v>
@@ -3838,13 +3838,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U37">
-        <v>1.000164638735574</v>
+        <v>0.0001646387355742629</v>
       </c>
       <c r="V37">
-        <v>1.000078330617872</v>
+        <v>7.833061787199114E-05</v>
       </c>
       <c r="W37">
-        <v>0.9995305164319248</v>
+        <v>-0.0004694835680751908</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3879,7 +3879,7 @@
         <v>1.18505813570344</v>
       </c>
       <c r="K38">
-        <v>54.23462727786561</v>
+        <v>0.0423462727786561</v>
       </c>
       <c r="L38">
         <v>0.008663044308073478</v>
@@ -3909,13 +3909,13 @@
         <v>0.03624999999999545</v>
       </c>
       <c r="U38">
-        <v>1.000101902440172</v>
+        <v>0.0001019024401716084</v>
       </c>
       <c r="V38">
-        <v>1.0000469946896</v>
+        <v>4.699468960023268E-05</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3950,7 +3950,7 @@
         <v>1.18505813570344</v>
       </c>
       <c r="K39">
-        <v>54.23462727786561</v>
+        <v>0.0423462727786561</v>
       </c>
       <c r="L39">
         <v>0.008647210748893637</v>
@@ -3980,13 +3980,13 @@
         <v>0.0274999999999892</v>
       </c>
       <c r="U39">
-        <v>1.000062702804383</v>
+        <v>6.27028043829192E-05</v>
       </c>
       <c r="V39">
-        <v>1.000031328320802</v>
+        <v>3.132832080177117E-05</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4021,7 +4021,7 @@
         <v>1.134393157108317</v>
       </c>
       <c r="K40">
-        <v>53.148275580362</v>
+        <v>0.03148275580361992</v>
       </c>
       <c r="L40">
         <v>0.008438844487447212</v>
@@ -4051,13 +4051,13 @@
         <v>0.03124999999998579</v>
       </c>
       <c r="U40">
-        <v>1.000039186795617</v>
+        <v>3.918679561731864E-05</v>
       </c>
       <c r="V40">
-        <v>1.000093982018107</v>
+        <v>9.398201810739693E-05</v>
       </c>
       <c r="W40">
-        <v>0.9997651479567873</v>
+        <v>-0.0002348520432127188</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4092,7 +4092,7 @@
         <v>1.179396482100691</v>
       </c>
       <c r="K41">
-        <v>54.11573762677117</v>
+        <v>0.04115737626771176</v>
       </c>
       <c r="L41">
         <v>0.008182530325683141</v>
@@ -4122,13 +4122,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U41">
-        <v>1.000062696416116</v>
+        <v>6.269641611611476E-05</v>
       </c>
       <c r="V41">
-        <v>1.000125297581757</v>
+        <v>0.0001252975817565005</v>
       </c>
       <c r="W41">
-        <v>1.000234907211651</v>
+        <v>0.000234907211651425</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4163,7 +4163,7 @@
         <v>1.179396482100691</v>
       </c>
       <c r="K42">
-        <v>54.11573762677117</v>
+        <v>0.04115737626771176</v>
       </c>
       <c r="L42">
         <v>0.007883690648526962</v>
@@ -4193,13 +4193,13 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="U42">
-        <v>1.000039182803451</v>
+        <v>3.918280345116543E-05</v>
       </c>
       <c r="V42">
-        <v>1.00012528188424</v>
+        <v>0.0001252818842396586</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4234,7 +4234,7 @@
         <v>1.179396482100691</v>
       </c>
       <c r="K43">
-        <v>54.11573762677117</v>
+        <v>0.04115737626771176</v>
       </c>
       <c r="L43">
         <v>0.007549420497615697</v>
@@ -4264,13 +4264,13 @@
         <v>0.009999999999990905</v>
       </c>
       <c r="U43">
-        <v>1.000039181268219</v>
+        <v>3.91812682194459E-05</v>
       </c>
       <c r="V43">
-        <v>1.000093949642991</v>
+        <v>9.394964299147546E-05</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4305,7 +4305,7 @@
         <v>1.067347102255316</v>
       </c>
       <c r="K44">
-        <v>51.62882909652292</v>
+        <v>0.01628829096522921</v>
       </c>
       <c r="L44">
         <v>0.00701592296583301</v>
@@ -4335,13 +4335,13 @@
         <v>-0.005000000000009663</v>
       </c>
       <c r="U44">
-        <v>1.000047015679729</v>
+        <v>4.701567972920095E-05</v>
       </c>
       <c r="V44">
-        <v>0.9999686863942381</v>
+        <v>-3.131360576191788E-05</v>
       </c>
       <c r="W44">
-        <v>0.9995302959135746</v>
+        <v>-0.0004697040864254376</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4376,7 +4376,7 @@
         <v>0.8894470353405854</v>
       </c>
       <c r="K45">
-        <v>47.07446245934365</v>
+        <v>-0.02925537540656348</v>
       </c>
       <c r="L45">
         <v>0.006027378585191607</v>
@@ -4406,13 +4406,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U45">
-        <v>1.000086191360491</v>
+        <v>8.619136049126119E-05</v>
       </c>
       <c r="V45">
-        <v>0.9998590843614956</v>
+        <v>-0.0001409156385043797</v>
       </c>
       <c r="W45">
-        <v>0.9990601503759399</v>
+        <v>-0.0009398496240601295</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4447,7 +4447,7 @@
         <v>1.064894392564497</v>
       </c>
       <c r="K46">
-        <v>51.57137316073345</v>
+        <v>0.01571373160733447</v>
       </c>
       <c r="L46">
         <v>0.005147568174385153</v>
@@ -4477,13 +4477,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U46">
-        <v>1.000109688640958</v>
+        <v>0.0001096886409579501</v>
       </c>
       <c r="V46">
-        <v>0.999937362000658</v>
+        <v>-6.263799934203007E-05</v>
       </c>
       <c r="W46">
-        <v>1.000940733772342</v>
+        <v>0.0009407337723423836</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4518,7 +4518,7 @@
         <v>1.017897692543152</v>
       </c>
       <c r="K47">
-        <v>50.44347373529616</v>
+        <v>0.004434737352961626</v>
       </c>
       <c r="L47">
         <v>0.004285259252590289</v>
@@ -4548,13 +4548,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U47">
-        <v>1.00001566808724</v>
+        <v>1.566808723985069E-05</v>
       </c>
       <c r="V47">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W47">
-        <v>0.9997650375939848</v>
+        <v>-0.0002349624060151712</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4589,7 +4589,7 @@
         <v>1.064353201083909</v>
       </c>
       <c r="K48">
-        <v>51.55867709678071</v>
+        <v>0.01558677096780714</v>
       </c>
       <c r="L48">
         <v>0.003558632205860254</v>
@@ -4619,13 +4619,13 @@
         <v>-0.01624999999999943</v>
       </c>
       <c r="U48">
-        <v>1.000086173129652</v>
+        <v>8.617312965153445E-05</v>
       </c>
       <c r="V48">
-        <v>0.9999843395192234</v>
+        <v>-1.566048077661364E-05</v>
       </c>
       <c r="W48">
-        <v>1.000235017626322</v>
+        <v>0.0002350176263221648</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4660,7 +4660,7 @@
         <v>0.9281867188384484</v>
       </c>
       <c r="K49">
-        <v>48.13780272263227</v>
+        <v>-0.01862197277367728</v>
       </c>
       <c r="L49">
         <v>0.002690565555220868</v>
@@ -4690,13 +4690,13 @@
         <v>-0.02375000000000682</v>
       </c>
       <c r="U49">
-        <v>1.000007833245862</v>
+        <v>7.833245861954552E-06</v>
       </c>
       <c r="V49">
-        <v>0.9999216963698436</v>
+        <v>-7.830363015637332E-05</v>
       </c>
       <c r="W49">
-        <v>0.9992951127819548</v>
+        <v>-0.0007048872180451804</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4731,7 +4731,7 @@
         <v>0.9281867188384484</v>
       </c>
       <c r="K50">
-        <v>48.13780272263227</v>
+        <v>-0.01862197277367728</v>
       </c>
       <c r="L50">
         <v>0.001782445401847718</v>
@@ -4761,13 +4761,13 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="U50">
-        <v>1.000007833184503</v>
+        <v>7.833184502814561E-06</v>
       </c>
       <c r="V50">
-        <v>0.999953014142743</v>
+        <v>-4.698585725704252E-05</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4802,7 +4802,7 @@
         <v>0.7806407948956672</v>
       </c>
       <c r="K51">
-        <v>43.8404419989382</v>
+        <v>-0.06159558001061799</v>
       </c>
       <c r="L51">
         <v>0.0005589899334443939</v>
@@ -4832,13 +4832,13 @@
         <v>-0.04375000000000284</v>
       </c>
       <c r="U51">
-        <v>1.000031332492578</v>
+        <v>3.133249257825099E-05</v>
       </c>
       <c r="V51">
-        <v>0.9998277104282178</v>
+        <v>-0.0001722895717821693</v>
       </c>
       <c r="W51">
-        <v>0.9990594874206443</v>
+        <v>-0.000940512579355679</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4873,7 +4873,7 @@
         <v>0.9061366911428473</v>
       </c>
       <c r="K52">
-        <v>47.53786521991569</v>
+        <v>-0.02462134780084313</v>
       </c>
       <c r="L52">
         <v>-0.0005225905931973562</v>
@@ -4903,13 +4903,13 @@
         <v>-0.04375000000000284</v>
       </c>
       <c r="U52">
-        <v>0.9999921671222791</v>
+        <v>-7.83287772088137E-06</v>
       </c>
       <c r="V52">
-        <v>0.9999060076760399</v>
+        <v>-9.399232396012369E-05</v>
       </c>
       <c r="W52">
-        <v>1.000706048481996</v>
+        <v>0.0007060484819958468</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4944,7 +4944,7 @@
         <v>0.8679190493975163</v>
       </c>
       <c r="K53">
-        <v>46.46448943691951</v>
+        <v>-0.03535510563080485</v>
       </c>
       <c r="L53">
         <v>-0.001533014384623158</v>
@@ -4974,13 +4974,13 @@
         <v>-0.0374999999999801</v>
       </c>
       <c r="U53">
-        <v>0.9999686682436982</v>
+        <v>-3.133175630176677E-05</v>
       </c>
       <c r="V53">
-        <v>0.9998903319807612</v>
+        <v>-0.00010966801923884</v>
       </c>
       <c r="W53">
-        <v>0.9997648165569143</v>
+        <v>-0.0002351834430857069</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5015,7 +5015,7 @@
         <v>0.8679190493975164</v>
       </c>
       <c r="K54">
-        <v>46.46448943691951</v>
+        <v>-0.03535510563080485</v>
       </c>
       <c r="L54">
         <v>-0.002430365286342943</v>
@@ -5045,13 +5045,13 @@
         <v>-0.04124999999999091</v>
       </c>
       <c r="U54">
-        <v>0.9999608340774859</v>
+        <v>-3.91659225140728E-05</v>
       </c>
       <c r="V54">
-        <v>0.9998903199523674</v>
+        <v>-0.0001096800476325654</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5086,7 +5086,7 @@
         <v>0.9146519737568</v>
       </c>
       <c r="K55">
-        <v>47.7711869464262</v>
+        <v>-0.02228813053573803</v>
       </c>
       <c r="L55">
         <v>-0.003107599932732957</v>
@@ -5116,13 +5116,13 @@
         <v>-0.04125000000000512</v>
       </c>
       <c r="U55">
-        <v>1.000007833491309</v>
+        <v>7.833491308728568E-06</v>
       </c>
       <c r="V55">
-        <v>0.9999216485152395</v>
+        <v>-7.835148476054155E-05</v>
       </c>
       <c r="W55">
-        <v>1.000235238767349</v>
+        <v>0.0002352387673489886</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5157,7 +5157,7 @@
         <v>0.8717675054503851</v>
       </c>
       <c r="K56">
-        <v>46.57456136576216</v>
+        <v>-0.03425438634237843</v>
       </c>
       <c r="L56">
         <v>-0.003682637433987323</v>
@@ -5187,13 +5187,13 @@
         <v>-0.04625000000000057</v>
       </c>
       <c r="U56">
-        <v>1.000007833429946</v>
+        <v>7.833429945591774E-06</v>
       </c>
       <c r="V56">
-        <v>0.9998902993261246</v>
+        <v>-0.0001097006738753903</v>
       </c>
       <c r="W56">
-        <v>0.9997648165569143</v>
+        <v>-0.0002351834430857069</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5228,7 +5228,7 @@
         <v>0.8717675054503851</v>
       </c>
       <c r="K57">
-        <v>46.57456136576216</v>
+        <v>-0.03425438634237843</v>
       </c>
       <c r="L57">
         <v>-0.004145728830672701</v>
@@ -5258,13 +5258,13 @@
         <v>-0.04250000000001819</v>
       </c>
       <c r="U57">
-        <v>1.000007833368583</v>
+        <v>7.833368583343159E-06</v>
       </c>
       <c r="V57">
-        <v>0.9998902872905662</v>
+        <v>-0.000109712709433829</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5299,7 +5299,7 @@
         <v>0.8717675054503849</v>
       </c>
       <c r="K58">
-        <v>46.57456136576215</v>
+        <v>-0.03425438634237848</v>
       </c>
       <c r="L58">
         <v>-0.00449641471281092</v>
@@ -5329,13 +5329,13 @@
         <v>-0.03874999999999318</v>
       </c>
       <c r="U58">
-        <v>0.9999921666927778</v>
+        <v>-7.833307222204766E-06</v>
       </c>
       <c r="V58">
-        <v>0.9998902752523667</v>
+        <v>-0.0001097247476332663</v>
       </c>
       <c r="W58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5370,7 +5370,7 @@
         <v>0.8717675054503852</v>
       </c>
       <c r="K59">
-        <v>46.57456136576216</v>
+        <v>-0.03425438634237843</v>
       </c>
       <c r="L59">
         <v>-0.004740300168667944</v>
@@ -5400,13 +5400,13 @@
         <v>-0.02499999999999147</v>
       </c>
       <c r="U59">
-        <v>0.9999451664199156</v>
+        <v>-5.483358008440131E-05</v>
       </c>
       <c r="V59">
-        <v>0.9999216165796612</v>
+        <v>-7.83834203388345E-05</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5441,7 +5441,7 @@
         <v>0.9293313422044887</v>
       </c>
       <c r="K60">
-        <v>48.16857124928153</v>
+        <v>-0.01831428750718472</v>
       </c>
       <c r="L60">
         <v>-0.004801094371174773</v>
@@ -5471,13 +5471,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U60">
-        <v>0.9999294958167518</v>
+        <v>-7.050418324816565E-05</v>
       </c>
       <c r="V60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>1.000235238767349</v>
+        <v>0.0002352387673489886</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5512,7 +5512,7 @@
         <v>0.8762370610069125</v>
       </c>
       <c r="K61">
-        <v>46.70183097953869</v>
+        <v>-0.03298169020461311</v>
       </c>
       <c r="L61">
         <v>-0.004815215666869</v>
@@ -5542,13 +5542,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U61">
-        <v>0.9999294908455616</v>
+        <v>-7.050915443840289E-05</v>
       </c>
       <c r="V61">
-        <v>0.9999216104352188</v>
+        <v>-7.838956478123382E-05</v>
       </c>
       <c r="W61">
-        <v>0.9997648165569143</v>
+        <v>-0.0002351834430857069</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5583,7 +5583,7 @@
         <v>0.8762370610069123</v>
       </c>
       <c r="K62">
-        <v>46.70183097953868</v>
+        <v>-0.03298169020461317</v>
       </c>
       <c r="L62">
         <v>-0.004782636089566319</v>
@@ -5613,13 +5613,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U62">
-        <v>0.9999686603882978</v>
+        <v>-3.1339611702208E-05</v>
       </c>
       <c r="V62">
-        <v>0.9999372834318507</v>
+        <v>-6.271656814926807E-05</v>
       </c>
       <c r="W62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5654,7 +5654,7 @@
         <v>0.8240702615423234</v>
       </c>
       <c r="K63">
-        <v>45.17755038917961</v>
+        <v>-0.0482244961082039</v>
       </c>
       <c r="L63">
         <v>-0.004792039268944564</v>
@@ -5684,13 +5684,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U63">
-        <v>0.9999451539606675</v>
+        <v>-5.4846039332479E-05</v>
       </c>
       <c r="V63">
-        <v>0.9999059192473538</v>
+        <v>-9.4080752646164E-05</v>
       </c>
       <c r="W63">
-        <v>0.9997647612326512</v>
+        <v>-0.0002352387673487666</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5725,7 +5725,7 @@
         <v>0.8867387138740923</v>
       </c>
       <c r="K64">
-        <v>46.99849042972821</v>
+        <v>-0.03001509570271793</v>
       </c>
       <c r="L64">
         <v>-0.004723233047895556</v>
@@ -5755,13 +5755,13 @@
         <v>-0.004999999999995453</v>
       </c>
       <c r="U64">
-        <v>0.9999451509524145</v>
+        <v>-5.484904758545905E-05</v>
       </c>
       <c r="V64">
-        <v>0.9999686367984445</v>
+        <v>-3.136320155550099E-05</v>
       </c>
       <c r="W64">
-        <v>1.000235294117647</v>
+        <v>0.0002352941176471113</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5796,7 +5796,7 @@
         <v>1.018672297730495</v>
       </c>
       <c r="K65">
-        <v>50.46248957177168</v>
+        <v>0.004624895717716737</v>
       </c>
       <c r="L65">
         <v>-0.004423005769410662</v>
@@ -5826,13 +5826,13 @@
         <v>1.4210854715202E-14</v>
       </c>
       <c r="U65">
-        <v>0.9999764919759279</v>
+        <v>-2.350802407213859E-05</v>
       </c>
       <c r="V65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>1.000470477534698</v>
+        <v>0.0004704775346977552</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5867,7 +5867,7 @@
         <v>0.894452947282216</v>
       </c>
       <c r="K66">
-        <v>47.21431316440976</v>
+        <v>-0.0278568683559024</v>
       </c>
       <c r="L66">
         <v>-0.004156815564307892</v>
@@ -5897,13 +5897,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U66">
-        <v>0.9999294742698627</v>
+        <v>-7.052573013732744E-05</v>
       </c>
       <c r="V66">
-        <v>1.000031364185237</v>
+        <v>3.13641852369706E-05</v>
       </c>
       <c r="W66">
-        <v>0.9995297437103221</v>
+        <v>-0.000470256289677895</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5938,7 +5938,7 @@
         <v>1.022813374172691</v>
       </c>
       <c r="K67">
-        <v>50.56390209952072</v>
+        <v>0.005639020995207189</v>
       </c>
       <c r="L67">
         <v>-0.003741836694370161</v>
@@ -5968,13 +5968,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U67">
-        <v>0.9999608162753519</v>
+        <v>-3.918372464806197E-05</v>
       </c>
       <c r="V67">
-        <v>1.000015681600778</v>
+        <v>1.568160077791703E-05</v>
       </c>
       <c r="W67">
-        <v>1.000470477534698</v>
+        <v>0.0004704775346977552</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6009,7 +6009,7 @@
         <v>1.090371493588707</v>
       </c>
       <c r="K68">
-        <v>52.16161323156869</v>
+        <v>0.02161613231568682</v>
       </c>
       <c r="L68">
         <v>-0.003163897728568819</v>
@@ -6039,13 +6039,13 @@
         <v>0.004999999999995453</v>
       </c>
       <c r="U68">
-        <v>0.9999686517919419</v>
+        <v>-3.134820805805738E-05</v>
       </c>
       <c r="V68">
-        <v>1.000047044064607</v>
+        <v>4.704406460720456E-05</v>
       </c>
       <c r="W68">
-        <v>1.000235128144839</v>
+        <v>0.0002351281448389475</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6080,7 +6080,7 @@
         <v>1.232599113411948</v>
       </c>
       <c r="K69">
-        <v>55.20915537443893</v>
+        <v>0.05209155374438934</v>
       </c>
       <c r="L69">
         <v>-0.002341273317514991</v>
@@ -6110,13 +6110,13 @@
         <v>0.01124999999998977</v>
       </c>
       <c r="U69">
-        <v>0.9999843254046004</v>
+        <v>-1.567459539963956E-05</v>
       </c>
       <c r="V69">
-        <v>1.000078403085946</v>
+        <v>7.840308594553314E-05</v>
       </c>
       <c r="W69">
-        <v>1.000470145745181</v>
+        <v>0.0004701457451810054</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6151,7 +6151,7 @@
         <v>1.38231239743636</v>
       </c>
       <c r="K70">
-        <v>58.02397699495187</v>
+        <v>0.08023976994951876</v>
       </c>
       <c r="L70">
         <v>-0.001243034766677227</v>
@@ -6181,13 +6181,13 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="U70">
-        <v>1.000007837420548</v>
+        <v>7.837420548328922E-06</v>
       </c>
       <c r="V70">
-        <v>1.00009407632726</v>
+        <v>9.407632725988435E-05</v>
       </c>
       <c r="W70">
-        <v>1.00046992481203</v>
+        <v>0.0004699248120298982</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6222,7 +6222,7 @@
         <v>1.539905327988428</v>
       </c>
       <c r="K71">
-        <v>60.62845378603197</v>
+        <v>0.1062845378603197</v>
       </c>
       <c r="L71">
         <v>0.0001279806189090927</v>
@@ -6252,13 +6252,13 @@
         <v>0.0350000000000108</v>
       </c>
       <c r="U71">
-        <v>1.000015674718247</v>
+        <v>1.567471824692745E-05</v>
       </c>
       <c r="V71">
-        <v>1.000141101216606</v>
+        <v>0.0001411012166061543</v>
       </c>
       <c r="W71">
-        <v>1.000469704086426</v>
+        <v>0.0004697040864256596</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6293,7 +6293,7 @@
         <v>1.320801190794739</v>
       </c>
       <c r="K72">
-        <v>56.91143196726997</v>
+        <v>0.06911431967269965</v>
       </c>
       <c r="L72">
         <v>0.001405143461192419</v>
@@ -6323,13 +6323,13 @@
         <v>0.04375000000000284</v>
       </c>
       <c r="U72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V72">
-        <v>1.00010972990767</v>
+        <v>0.0001097299076699976</v>
       </c>
       <c r="W72">
-        <v>0.9995305164319248</v>
+        <v>-0.0004694835680751908</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6364,7 +6364,7 @@
         <v>1.320801190794739</v>
       </c>
       <c r="K73">
-        <v>56.91143196726997</v>
+        <v>0.06911431967269965</v>
       </c>
       <c r="L73">
         <v>0.00253890138985999</v>
@@ -6394,13 +6394,13 @@
         <v>0.04750000000001364</v>
       </c>
       <c r="U73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V73">
-        <v>1.000109717868338</v>
+        <v>0.0001097178683384659</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6435,7 +6435,7 @@
         <v>1.320801190794739</v>
       </c>
       <c r="K74">
-        <v>56.91143196726997</v>
+        <v>0.06911431967269965</v>
       </c>
       <c r="L74">
         <v>0.0035042406905063</v>
@@ -6465,13 +6465,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U74">
-        <v>1.000015674472554</v>
+        <v>1.567447255390597E-05</v>
       </c>
       <c r="V74">
-        <v>1.000109705831649</v>
+        <v>0.0001097058316485988</v>
       </c>
       <c r="W74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6506,7 +6506,7 @@
         <v>1.21960268142146</v>
       </c>
       <c r="K75">
-        <v>54.94689169506734</v>
+        <v>0.04946891695067335</v>
       </c>
       <c r="L75">
         <v>0.004207608131867067</v>
@@ -6536,13 +6536,13 @@
         <v>0.05875000000000341</v>
       </c>
       <c r="U75">
-        <v>1.000039185567172</v>
+        <v>3.918556717197319E-05</v>
       </c>
       <c r="V75">
-        <v>1.000078352712571</v>
+        <v>7.83527125707284E-05</v>
       </c>
       <c r="W75">
-        <v>0.9997651479567873</v>
+        <v>-0.0002348520432127188</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6577,7 +6577,7 @@
         <v>1.21960268142146</v>
       </c>
       <c r="K76">
-        <v>54.94689169506734</v>
+        <v>0.04946891695067335</v>
       </c>
       <c r="L76">
         <v>0.004692097699820815</v>
@@ -6607,13 +6607,13 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="U76">
-        <v>1.000007836806345</v>
+        <v>7.836806344752034E-06</v>
       </c>
       <c r="V76">
-        <v>1.000094015888685</v>
+        <v>9.401588868507282E-05</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6648,7 +6648,7 @@
         <v>1.042580026673033</v>
       </c>
       <c r="K77">
-        <v>51.042309875672</v>
+        <v>0.01042309875671998</v>
       </c>
       <c r="L77">
         <v>0.004824787089287365</v>
@@ -6678,13 +6678,13 @@
         <v>0.05250000000000909</v>
       </c>
       <c r="U77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V77">
-        <v>1.000062671367019</v>
+        <v>6.267136701931797E-05</v>
       </c>
       <c r="W77">
-        <v>0.9995301855766971</v>
+        <v>-0.0004698144233028501</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6719,7 +6719,7 @@
         <v>1.195367192047342</v>
       </c>
       <c r="K78">
-        <v>54.449533379998</v>
+        <v>0.04449533379998005</v>
       </c>
       <c r="L78">
         <v>0.00488955526915288</v>
@@ -6749,13 +6749,13 @@
         <v>0.04250000000000398</v>
       </c>
       <c r="U78">
-        <v>1.00000783674493</v>
+        <v>7.836744929656803E-06</v>
       </c>
       <c r="V78">
-        <v>1.000109668019239</v>
+        <v>0.000109668019238951</v>
       </c>
       <c r="W78">
-        <v>1.000470035252644</v>
+        <v>0.0004700352526441076</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6790,7 +6790,7 @@
         <v>1.10639705041018</v>
       </c>
       <c r="K79">
-        <v>52.52556967807806</v>
+        <v>0.02525569678078066</v>
       </c>
       <c r="L79">
         <v>0.004805631186703459</v>
@@ -6820,13 +6820,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U79">
-        <v>1.000023510050547</v>
+        <v>2.351005054657129E-05</v>
       </c>
       <c r="V79">
-        <v>1.000078325709631</v>
+        <v>7.832570963084429E-05</v>
       </c>
       <c r="W79">
-        <v>0.9997650927883487</v>
+        <v>-0.000234907211651314</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6861,7 +6861,7 @@
         <v>1.341436412274338</v>
       </c>
       <c r="K80">
-        <v>57.291174137475</v>
+        <v>0.07291174137474998</v>
       </c>
       <c r="L80">
         <v>0.004876276881781455</v>
@@ -6891,13 +6891,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U80">
-        <v>1.000047018995674</v>
+        <v>4.701899567449708E-05</v>
       </c>
       <c r="V80">
-        <v>1.000093983490234</v>
+        <v>9.398349023359565E-05</v>
       </c>
       <c r="W80">
-        <v>1.000704887218045</v>
+        <v>0.0007048872180450694</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6932,7 +6932,7 @@
         <v>1.341436412274338</v>
       </c>
       <c r="K81">
-        <v>57.29117413747499</v>
+        <v>0.07291174137474987</v>
       </c>
       <c r="L81">
         <v>0.005018270790493703</v>
@@ -6962,13 +6962,13 @@
         <v>0.01250000000000284</v>
       </c>
       <c r="U81">
-        <v>1.00007836130832</v>
+        <v>7.836130832039601E-05</v>
       </c>
       <c r="V81">
-        <v>1.000125299544223</v>
+        <v>0.0001252995442231342</v>
       </c>
       <c r="W81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7003,7 +7003,7 @@
         <v>1.23428734150619</v>
       </c>
       <c r="K82">
-        <v>55.24299934824521</v>
+        <v>0.05242999348245214</v>
       </c>
       <c r="L82">
         <v>0.005090547067468552</v>
@@ -7033,13 +7033,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U82">
-        <v>1.000047013100984</v>
+        <v>4.701310098398359E-05</v>
       </c>
       <c r="V82">
-        <v>1.000078302403884</v>
+        <v>7.830240388373433E-05</v>
       </c>
       <c r="W82">
-        <v>0.9997652030993189</v>
+        <v>-0.0002347969006810668</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7074,7 +7074,7 @@
         <v>1.138557023884371</v>
       </c>
       <c r="K83">
-        <v>53.23949799647387</v>
+        <v>0.03239497996473861</v>
       </c>
       <c r="L83">
         <v>0.005011848466786879</v>
@@ -7104,13 +7104,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U83">
-        <v>1.000047010890857</v>
+        <v>4.701089085656918E-05</v>
       </c>
       <c r="V83">
-        <v>1.000046977763858</v>
+        <v>4.697776385831354E-05</v>
       </c>
       <c r="W83">
-        <v>0.9997651479567873</v>
+        <v>-0.0002348520432127188</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7145,7 +7145,7 @@
         <v>0.6887280799421063</v>
       </c>
       <c r="K84">
-        <v>40.78383536831564</v>
+        <v>-0.09216164631684365</v>
       </c>
       <c r="L84">
         <v>0.00414381107299931</v>
@@ -7175,13 +7175,13 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="U84">
-        <v>0.9999843304396878</v>
+        <v>-1.566956031218147E-05</v>
       </c>
       <c r="V84">
-        <v>0.999890390366879</v>
+        <v>-0.0001096096331210106</v>
       </c>
       <c r="W84">
-        <v>0.9981207423067888</v>
+        <v>-0.001879257693211178</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7216,7 +7216,7 @@
         <v>0.6887280799421063</v>
       </c>
       <c r="K85">
-        <v>40.78383536831564</v>
+        <v>-0.09216164631684365</v>
       </c>
       <c r="L85">
         <v>0.002837908068181706</v>
@@ -7246,13 +7246,13 @@
         <v>-0.02124999999999488</v>
       </c>
       <c r="U85">
-        <v>0.9999764952912232</v>
+        <v>-2.350470877676702E-05</v>
       </c>
       <c r="V85">
-        <v>0.9998590578802307</v>
+        <v>-0.0001409421197693383</v>
       </c>
       <c r="W85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7287,7 +7287,7 @@
         <v>0.743449254660936</v>
       </c>
       <c r="K86">
-        <v>42.64243726471529</v>
+        <v>-0.07357562735284712</v>
       </c>
       <c r="L86">
         <v>0.001425245444686366</v>
@@ -7317,13 +7317,13 @@
         <v>-0.02875000000000227</v>
       </c>
       <c r="U86">
-        <v>0.9999921649129131</v>
+        <v>-7.835087086904835E-06</v>
       </c>
       <c r="V86">
-        <v>0.9998433755697214</v>
+        <v>-0.0001566244302786401</v>
       </c>
       <c r="W86">
-        <v>1.000235349493999</v>
+        <v>0.0002353494939986156</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7358,7 +7358,7 @@
         <v>0.7434492546609359</v>
       </c>
       <c r="K87">
-        <v>42.64243726471529</v>
+        <v>-0.07357562735284712</v>
       </c>
       <c r="L87">
         <v>3.273224816835347E-05</v>
@@ -7388,13 +7388,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U87">
-        <v>0.9999921648515239</v>
+        <v>-7.83514847613187E-06</v>
       </c>
       <c r="V87">
-        <v>0.9998746808277331</v>
+        <v>-0.0001253191722668801</v>
       </c>
       <c r="W87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7429,7 +7429,7 @@
         <v>0.8040821352358164</v>
       </c>
       <c r="K88">
-        <v>44.57015118830567</v>
+        <v>-0.05429848811694332</v>
       </c>
       <c r="L88">
         <v>-0.001173413196680621</v>
@@ -7459,13 +7459,13 @@
         <v>-0.04249999999998977</v>
       </c>
       <c r="U88">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V88">
-        <v>0.9998903319807612</v>
+        <v>-0.00010966801923884</v>
       </c>
       <c r="W88">
-        <v>1.000235294117647</v>
+        <v>0.0002352941176471113</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7500,7 +7500,7 @@
         <v>0.9317303048671894</v>
       </c>
       <c r="K89">
-        <v>48.23293927312736</v>
+        <v>-0.01767060726872643</v>
       </c>
       <c r="L89">
         <v>-0.002014409073442083</v>
@@ -7530,13 +7530,13 @@
         <v>-0.05124999999999602</v>
       </c>
       <c r="U89">
-        <v>1.000015670419732</v>
+        <v>1.567041973227212E-05</v>
       </c>
       <c r="V89">
-        <v>0.9999216571088339</v>
+        <v>-7.83428911661499E-05</v>
       </c>
       <c r="W89">
-        <v>1.000470477534698</v>
+        <v>0.0004704775346977552</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7571,7 +7571,7 @@
         <v>0.7754404771341726</v>
       </c>
       <c r="K90">
-        <v>43.67594898961919</v>
+        <v>-0.06324051010380816</v>
       </c>
       <c r="L90">
         <v>-0.002830012390965383</v>
@@ -7601,13 +7601,13 @@
         <v>-0.06124999999998693</v>
       </c>
       <c r="U90">
-        <v>0.9999843298258259</v>
+        <v>-1.567017417414274E-05</v>
       </c>
       <c r="V90">
-        <v>0.9998903113590423</v>
+        <v>-0.000109688640957728</v>
       </c>
       <c r="W90">
-        <v>0.9992946155654832</v>
+        <v>-0.0007053844345168425</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7642,7 +7642,7 @@
         <v>0.7754404771341727</v>
       </c>
       <c r="K91">
-        <v>43.67594898961919</v>
+        <v>-0.06324051010380816</v>
       </c>
       <c r="L91">
         <v>-0.003567990738199705</v>
@@ -7672,13 +7672,13 @@
         <v>-0.06999999999999318</v>
       </c>
       <c r="U91">
-        <v>0.999992164790134</v>
+        <v>-7.835209866025039E-06</v>
       </c>
       <c r="V91">
-        <v>0.9998902993261245</v>
+        <v>-0.0001097006738755013</v>
       </c>
       <c r="W91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7713,7 +7713,7 @@
         <v>0.7754404771341729</v>
       </c>
       <c r="K92">
-        <v>43.67594898961919</v>
+        <v>-0.06324051010380816</v>
       </c>
       <c r="L92">
         <v>-0.004198960110933999</v>
@@ -7743,13 +7743,13 @@
         <v>-0.0587499999999892</v>
       </c>
       <c r="U92">
-        <v>0.9999921647287429</v>
+        <v>-7.835271257139453E-06</v>
       </c>
       <c r="V92">
-        <v>0.999921633778976</v>
+        <v>-7.836622102397328E-05</v>
       </c>
       <c r="W92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7784,7 +7784,7 @@
         <v>0.7279660691497413</v>
       </c>
       <c r="K93">
-        <v>42.12849327000631</v>
+        <v>-0.07871506729993688</v>
       </c>
       <c r="L93">
         <v>-0.004795222649599856</v>
@@ -7814,13 +7814,13 @@
         <v>-0.05125000000001023</v>
       </c>
       <c r="U93">
-        <v>0.9999921646673511</v>
+        <v>-7.835332648920001E-06</v>
       </c>
       <c r="V93">
-        <v>0.9998746042195679</v>
+        <v>-0.000125395780432136</v>
       </c>
       <c r="W93">
-        <v>0.999764705882353</v>
+        <v>-0.0002352941176470003</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7855,7 +7855,7 @@
         <v>0.6448514936263898</v>
       </c>
       <c r="K94">
-        <v>39.20423795857043</v>
+        <v>-0.1079576204142957</v>
       </c>
       <c r="L94">
         <v>-0.005486224781627625</v>
@@ -7885,13 +7885,13 @@
         <v>-0.04625000000000057</v>
       </c>
       <c r="U94">
-        <v>0.999968658423832</v>
+        <v>-3.134157616802025E-05</v>
       </c>
       <c r="V94">
-        <v>0.9998589120551812</v>
+        <v>-0.0001410879448188185</v>
       </c>
       <c r="W94">
-        <v>0.9995293010120028</v>
+        <v>-0.0004706989879972312</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7926,7 +7926,7 @@
         <v>0.4739643529895418</v>
       </c>
       <c r="K95">
-        <v>32.15575410817989</v>
+        <v>-0.1784424589182011</v>
       </c>
       <c r="L95">
         <v>-0.006684250073236159</v>
@@ -7956,13 +7956,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U95">
-        <v>0.9999059723245209</v>
+        <v>-9.40276754790581E-05</v>
       </c>
       <c r="V95">
-        <v>0.9997177842931279</v>
+        <v>-0.0002822157068721465</v>
       </c>
       <c r="W95">
-        <v>0.9985872380503884</v>
+        <v>-0.001412761949611596</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7997,7 +7997,7 @@
         <v>0.4739643529895416</v>
       </c>
       <c r="K96">
-        <v>32.15575410817989</v>
+        <v>-0.1784424589182011</v>
       </c>
       <c r="L96">
         <v>-0.008088954341619017</v>
@@ -8027,13 +8027,13 @@
         <v>-0.05249999999999488</v>
       </c>
       <c r="U96">
-        <v>0.9999216362354049</v>
+        <v>-7.836376459513517E-05</v>
       </c>
       <c r="V96">
-        <v>0.9997177046249394</v>
+        <v>-0.0002822953750606372</v>
       </c>
       <c r="W96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8068,7 +8068,7 @@
         <v>0.7186571674800317</v>
       </c>
       <c r="K97">
-        <v>41.8150391525587</v>
+        <v>-0.08184960847441297</v>
       </c>
       <c r="L97">
         <v>-0.009072083164082855</v>
@@ -8098,13 +8098,13 @@
         <v>-0.05375000000000796</v>
       </c>
       <c r="U97">
-        <v>0.9999451410658308</v>
+        <v>-5.485893416923293E-05</v>
       </c>
       <c r="V97">
-        <v>0.9998117499411716</v>
+        <v>-0.0001882500588283875</v>
       </c>
       <c r="W97">
-        <v>1.001178967224711</v>
+        <v>0.001178967224711336</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8139,7 +8139,7 @@
         <v>0.7186571674800316</v>
       </c>
       <c r="K98">
-        <v>41.8150391525587</v>
+        <v>-0.08184960847441303</v>
       </c>
       <c r="L98">
         <v>-0.009704201117126195</v>
@@ -8169,13 +8169,13 @@
         <v>-0.04874999999999829</v>
       </c>
       <c r="U98">
-        <v>0.9999373006356147</v>
+        <v>-6.269936438529911E-05</v>
       </c>
       <c r="V98">
-        <v>0.999827404955047</v>
+        <v>-0.0001725950449530389</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8210,7 +8210,7 @@
         <v>0.7728827219377427</v>
       </c>
       <c r="K99">
-        <v>43.59468973181654</v>
+        <v>-0.06405310268183462</v>
       </c>
       <c r="L99">
         <v>-0.009962476203617097</v>
@@ -8240,13 +8240,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U99">
-        <v>0.999929458792178</v>
+        <v>-7.054120782201689E-05</v>
       </c>
       <c r="V99">
-        <v>0.9999686136656101</v>
+        <v>-3.138633438992677E-05</v>
       </c>
       <c r="W99">
-        <v>1.000235515779557</v>
+        <v>0.0002355157795572715</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8281,7 +8281,7 @@
         <v>0.7311490756051807</v>
       </c>
       <c r="K100">
-        <v>42.23489969225113</v>
+        <v>-0.07765100307748873</v>
       </c>
       <c r="L100">
         <v>-0.01002716359604222</v>
@@ -8311,13 +8311,13 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="U100">
-        <v>0.9999059384210195</v>
+        <v>-9.406157898050882E-05</v>
       </c>
       <c r="V100">
-        <v>0.9999529190207154</v>
+        <v>-4.708097928463051E-05</v>
       </c>
       <c r="W100">
-        <v>0.9997645396750648</v>
+        <v>-0.000235460324935155</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8352,7 +8352,7 @@
         <v>0.6246371592137695</v>
       </c>
       <c r="K101">
-        <v>38.44779467656999</v>
+        <v>-0.1155220532343001</v>
       </c>
       <c r="L101">
         <v>-0.01019087615321154</v>
@@ -8382,13 +8382,13 @@
         <v>-0.05750000000001876</v>
       </c>
       <c r="U101">
-        <v>0.9998667335611929</v>
+        <v>-0.000133266438807067</v>
       </c>
       <c r="V101">
-        <v>0.9998901392093164</v>
+        <v>-0.0001098607906836468</v>
       </c>
       <c r="W101">
-        <v>0.9992934526613283</v>
+        <v>-0.0007065473386717036</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8423,7 +8423,7 @@
         <v>0.7268669328387204</v>
       </c>
       <c r="K102">
-        <v>42.09165854162578</v>
+        <v>-0.07908341458374224</v>
       </c>
       <c r="L102">
         <v>-0.0101958463042702</v>
@@ -8453,13 +8453,13 @@
         <v>-0.05624999999999147</v>
       </c>
       <c r="U102">
-        <v>0.9998980767873805</v>
+        <v>-0.0001019232126194813</v>
       </c>
       <c r="V102">
-        <v>0.9999215193847119</v>
+        <v>-7.848061528814565E-05</v>
       </c>
       <c r="W102">
-        <v>1.000471364600519</v>
+        <v>0.0004713646005185534</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8494,7 +8494,7 @@
         <v>0.7268669328387203</v>
       </c>
       <c r="K103">
-        <v>42.09165854162578</v>
+        <v>-0.07908341458374224</v>
       </c>
       <c r="L103">
         <v>-0.01006722689138444</v>
@@ -8524,13 +8524,13 @@
         <v>-0.04000000000000625</v>
       </c>
       <c r="U103">
-        <v>0.99989806639798</v>
+        <v>-0.0001019336020200434</v>
       </c>
       <c r="V103">
-        <v>0.9999058158700259</v>
+        <v>-9.418412997408421E-05</v>
       </c>
       <c r="W103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8565,7 +8565,7 @@
         <v>0.896777913932761</v>
       </c>
       <c r="K104">
-        <v>47.27901497299651</v>
+        <v>-0.02720985027003486</v>
       </c>
       <c r="L104">
         <v>-0.009572230908692808</v>
@@ -8595,13 +8595,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U104">
-        <v>0.9999215815434319</v>
+        <v>-7.841845656808566E-05</v>
       </c>
       <c r="V104">
-        <v>0.9999215058321167</v>
+        <v>-7.849416788330288E-05</v>
       </c>
       <c r="W104">
-        <v>1.000706713780919</v>
+        <v>0.0007067137809186885</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8636,7 +8636,7 @@
         <v>0.9563958020359757</v>
       </c>
       <c r="K105">
-        <v>48.88559876486531</v>
+        <v>-0.01114401235134693</v>
       </c>
       <c r="L105">
         <v>-0.008766209457518917</v>
@@ -8666,13 +8666,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U105">
-        <v>0.9999372603147965</v>
+        <v>-6.27396852035389E-05</v>
       </c>
       <c r="V105">
-        <v>0.9999842999340597</v>
+        <v>-1.570006594031614E-05</v>
       </c>
       <c r="W105">
-        <v>1.000235404896422</v>
+        <v>0.0002354048964219313</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8707,7 +8707,7 @@
         <v>0.9563958020359756</v>
       </c>
       <c r="K106">
-        <v>48.88559876486531</v>
+        <v>-0.01114401235134693</v>
       </c>
       <c r="L106">
         <v>-0.007791115008358487</v>
@@ -8737,13 +8737,13 @@
         <v>0.002499999999983515</v>
       </c>
       <c r="U106">
-        <v>0.9999372563782813</v>
+        <v>-6.274362171865278E-05</v>
       </c>
       <c r="V106">
-        <v>0.9999842996875637</v>
+        <v>-1.570031243625092E-05</v>
       </c>
       <c r="W106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8778,7 +8778,7 @@
         <v>0.8971324845015985</v>
       </c>
       <c r="K107">
-        <v>47.28886842804165</v>
+        <v>-0.02711131571958353</v>
       </c>
       <c r="L107">
         <v>-0.006832984760717929</v>
@@ -8808,13 +8808,13 @@
         <v>0.007499999999993179</v>
       </c>
       <c r="U107">
-        <v>0.999945095886113</v>
+        <v>-5.490411388697769E-05</v>
       </c>
       <c r="V107">
-        <v>0.9999685988821203</v>
+        <v>-3.140111787969246E-05</v>
       </c>
       <c r="W107">
-        <v>0.9997646505060013</v>
+        <v>-0.0002353494939987266</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8849,7 +8849,7 @@
         <v>0.8971324845015985</v>
       </c>
       <c r="K108">
-        <v>47.28886842804165</v>
+        <v>-0.02711131571958353</v>
       </c>
       <c r="L108">
         <v>-0.005921286017175207</v>
@@ -8879,13 +8879,13 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="U108">
-        <v>0.9999294051204821</v>
+        <v>-7.059487951788235E-05</v>
       </c>
       <c r="V108">
-        <v>0.9999842989480293</v>
+        <v>-1.570105197068461E-05</v>
       </c>
       <c r="W108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8920,7 +8920,7 @@
         <v>0.7888133161871383</v>
       </c>
       <c r="K109">
-        <v>44.0970172263977</v>
+        <v>-0.05902982773602294</v>
       </c>
       <c r="L109">
         <v>-0.005245638089878392</v>
@@ -8950,13 +8950,13 @@
         <v>0.02625000000000455</v>
       </c>
       <c r="U109">
-        <v>0.9999215557072146</v>
+        <v>-7.844429278536236E-05</v>
       </c>
       <c r="V109">
-        <v>0.9999842987015026</v>
+        <v>-1.570129849737256E-05</v>
       </c>
       <c r="W109">
-        <v>0.9995291902071564</v>
+        <v>-0.0004708097928436406</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8991,7 +8991,7 @@
         <v>1.043001363421834</v>
       </c>
       <c r="K110">
-        <v>51.05240662565714</v>
+        <v>0.01052406625657143</v>
       </c>
       <c r="L110">
         <v>-0.00439415777209036</v>
@@ -9021,13 +9021,13 @@
         <v>0.03499999999999659</v>
       </c>
       <c r="U110">
-        <v>0.9999293945979021</v>
+        <v>-7.060540209791188E-05</v>
       </c>
       <c r="V110">
-        <v>1.000141313905288</v>
+        <v>0.0001413139052883761</v>
       </c>
       <c r="W110">
-        <v>1.000942063118229</v>
+        <v>0.0009420631182288641</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9062,7 +9062,7 @@
         <v>1.043001363421834</v>
       </c>
       <c r="K111">
-        <v>51.05240662565714</v>
+        <v>0.01052406625657143</v>
       </c>
       <c r="L111">
         <v>-0.003474374348434961</v>
@@ -9092,13 +9092,13 @@
         <v>0.03624999999999545</v>
       </c>
       <c r="U111">
-        <v>0.9999293896124274</v>
+        <v>-7.061038757261162E-05</v>
       </c>
       <c r="V111">
-        <v>1.00014129393849</v>
+        <v>0.0001412939384899392</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9133,7 +9133,7 @@
         <v>1.043001363421834</v>
       </c>
       <c r="K112">
-        <v>51.05240662565714</v>
+        <v>0.01052406625657143</v>
       </c>
       <c r="L112">
         <v>-0.002559151908278852</v>
@@ -9163,13 +9163,13 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="U112">
-        <v>0.9999372307788876</v>
+        <v>-6.276922111236871E-05</v>
       </c>
       <c r="V112">
-        <v>1.00006278843437</v>
+        <v>6.278843437046433E-05</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9204,7 +9204,7 @@
         <v>1.043001363421835</v>
       </c>
       <c r="K113">
-        <v>51.05240662565716</v>
+        <v>0.01052406625657154</v>
       </c>
       <c r="L113">
         <v>-0.001695688458754717</v>
@@ -9234,13 +9234,13 @@
         <v>0.0274999999999892</v>
       </c>
       <c r="U113">
-        <v>0.9999450734838319</v>
+        <v>-5.492651616811894E-05</v>
       </c>
       <c r="V113">
-        <v>1.00006278449223</v>
+        <v>6.278449223029448E-05</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9275,7 +9275,7 @@
         <v>0.9675166259455541</v>
       </c>
       <c r="K114">
-        <v>49.17450827032186</v>
+        <v>-0.008254917296781406</v>
       </c>
       <c r="L114">
         <v>-0.0009981460171497732</v>
@@ -9305,13 +9305,13 @@
         <v>0.02375000000000682</v>
       </c>
       <c r="U114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V114">
-        <v>1.000031390275293</v>
+        <v>3.139027529264204E-05</v>
       </c>
       <c r="W114">
-        <v>0.999764705882353</v>
+        <v>-0.0002352941176470003</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9346,7 +9346,7 @@
         <v>0.8395933293664323</v>
       </c>
       <c r="K115">
-        <v>45.64015948326979</v>
+        <v>-0.04359840516730207</v>
       </c>
       <c r="L115">
         <v>-0.0006133765148658472</v>
@@ -9376,13 +9376,13 @@
         <v>0.02124999999999488</v>
       </c>
       <c r="U115">
-        <v>0.9999843058476412</v>
+        <v>-1.569415235880278E-05</v>
       </c>
       <c r="V115">
-        <v>1.000015694644987</v>
+        <v>1.569464498718531E-05</v>
       </c>
       <c r="W115">
-        <v>0.9995293010120028</v>
+        <v>-0.0004706989879972312</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9417,7 +9417,7 @@
         <v>0.9091818501479675</v>
       </c>
       <c r="K116">
-        <v>47.62154270833357</v>
+        <v>-0.0237845729166643</v>
       </c>
       <c r="L116">
         <v>-0.0003546717704838142</v>
@@ -9447,13 +9447,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U116">
-        <v>0.9999843056013312</v>
+        <v>-1.56943986687752E-05</v>
       </c>
       <c r="V116">
-        <v>1.000078471993346</v>
+        <v>7.847199334554134E-05</v>
       </c>
       <c r="W116">
-        <v>1.000235460324935</v>
+        <v>0.000235460324935266</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9488,7 +9488,7 @@
         <v>1.055683999161778</v>
       </c>
       <c r="K117">
-        <v>51.35439102470232</v>
+        <v>0.01354391024702317</v>
       </c>
       <c r="L117">
         <v>-1.610511300665837E-05</v>
@@ -9518,13 +9518,13 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="U117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V117">
-        <v>1.000078465835975</v>
+        <v>7.846583597492796E-05</v>
       </c>
       <c r="W117">
-        <v>1.000470809792844</v>
+        <v>0.0004708097928438626</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9559,7 +9559,7 @@
         <v>1.132790393379545</v>
       </c>
       <c r="K118">
-        <v>53.11306713007859</v>
+        <v>0.03113067130078595</v>
       </c>
       <c r="L118">
         <v>0.0004350430244007152</v>
@@ -9589,13 +9589,13 @@
         <v>0.01499999999998636</v>
       </c>
       <c r="U118">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V118">
-        <v>1.000094151615485</v>
+        <v>9.415161548487205E-05</v>
       </c>
       <c r="W118">
-        <v>1.000235294117647</v>
+        <v>0.0002352941176471113</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9630,7 +9630,7 @@
         <v>1.213955018871989</v>
       </c>
       <c r="K119">
-        <v>54.83196399764707</v>
+        <v>0.04831963997647071</v>
       </c>
       <c r="L119">
         <v>0.001009773827292179</v>
@@ -9660,13 +9660,13 @@
         <v>0.01125000000000398</v>
       </c>
       <c r="U119">
-        <v>0.9999921526775063</v>
+        <v>-7.847322493703679E-06</v>
       </c>
       <c r="V119">
-        <v>1.000062761834529</v>
+        <v>6.276183452857964E-05</v>
       </c>
       <c r="W119">
-        <v>1.000235238767349</v>
+        <v>0.0002352387673489886</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9701,7 +9701,7 @@
         <v>0.9662867071697155</v>
       </c>
       <c r="K120">
-        <v>49.1427167587678</v>
+        <v>-0.008572832412321985</v>
       </c>
       <c r="L120">
         <v>0.001361917632933686</v>
@@ -9731,13 +9731,13 @@
         <v>0.007499999999993179</v>
       </c>
       <c r="U120">
-        <v>0.9999921526159256</v>
+        <v>-7.847384074444186E-06</v>
       </c>
       <c r="V120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W120">
-        <v>0.9992944496707431</v>
+        <v>-0.0007055503292568988</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9772,7 +9772,7 @@
         <v>1.037871865309698</v>
       </c>
       <c r="K121">
-        <v>50.92920133876874</v>
+        <v>0.00929201338768737</v>
       </c>
       <c r="L121">
         <v>0.001637523844770409</v>
@@ -9802,13 +9802,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V121">
-        <v>1.000015689473932</v>
+        <v>1.568947393182363E-05</v>
       </c>
       <c r="W121">
-        <v>1.000235349493999</v>
+        <v>0.0002353494939986156</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9843,7 +9843,7 @@
         <v>0.9651454547748135</v>
       </c>
       <c r="K122">
-        <v>49.11318154235101</v>
+        <v>-0.008868184576489913</v>
       </c>
       <c r="L122">
         <v>0.00175751943806951</v>
@@ -9873,13 +9873,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U122">
-        <v>0.9999921525543435</v>
+        <v>-7.84744565651696E-06</v>
       </c>
       <c r="V122">
-        <v>1.000015689227777</v>
+        <v>1.568922777650528E-05</v>
       </c>
       <c r="W122">
-        <v>0.999764705882353</v>
+        <v>-0.0002352941176470003</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9914,7 +9914,7 @@
         <v>0.8988459798363586</v>
       </c>
       <c r="K123">
-        <v>47.33643430700054</v>
+        <v>-0.02663565692999464</v>
       </c>
       <c r="L123">
         <v>0.001683487093679879</v>
@@ -9944,13 +9944,13 @@
         <v>0.008750000000006253</v>
       </c>
       <c r="U123">
-        <v>0.9999921524927607</v>
+        <v>-7.847507239255869E-06</v>
       </c>
       <c r="V123">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W123">
-        <v>0.9997646505060013</v>
+        <v>-0.0002353494939987266</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9985,7 +9985,7 @@
         <v>0.8988459798363586</v>
       </c>
       <c r="K124">
-        <v>47.33643430700054</v>
+        <v>-0.02663565692999464</v>
       </c>
       <c r="L124">
         <v>0.001490502580810764</v>
@@ -10015,13 +10015,13 @@
         <v>0.008750000000006253</v>
       </c>
       <c r="U124">
-        <v>1.000007847568823</v>
+        <v>7.847568822993978E-06</v>
       </c>
       <c r="V124">
-        <v>1.000031377963256</v>
+        <v>3.137796325636266E-05</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10056,7 +10056,7 @@
         <v>0.9749609547647863</v>
       </c>
       <c r="K125">
-        <v>49.36608758834435</v>
+        <v>-0.006339124116556516</v>
       </c>
       <c r="L125">
         <v>0.001318037573511286</v>
@@ -10086,13 +10086,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U125">
-        <v>1.000062780057915</v>
+        <v>6.278005791493513E-05</v>
       </c>
       <c r="V125">
-        <v>0.9999843115106446</v>
+        <v>-1.568848935540323E-05</v>
       </c>
       <c r="W125">
-        <v>1.000235404896422</v>
+        <v>0.0002354048964219313</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10127,7 +10127,7 @@
         <v>1.05508198100518</v>
       </c>
       <c r="K126">
-        <v>51.34014072222651</v>
+        <v>0.01340140722226513</v>
       </c>
       <c r="L126">
         <v>0.001249901091421999</v>
@@ -10157,13 +10157,13 @@
         <v>0</v>
       </c>
       <c r="U126">
-        <v>1.00007062313143</v>
+        <v>7.062313142958132E-05</v>
       </c>
       <c r="V126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W126">
-        <v>1.000235349493999</v>
+        <v>0.0002353494939986156</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10198,7 +10198,7 @@
         <v>1.05508198100518</v>
       </c>
       <c r="K127">
-        <v>51.34014072222651</v>
+        <v>0.01340140722226513</v>
       </c>
       <c r="L127">
         <v>0.001244756528506659</v>
@@ -10228,13 +10228,13 @@
         <v>-0.005000000000009663</v>
       </c>
       <c r="U127">
-        <v>1.000031385841847</v>
+        <v>3.138584184680937E-05</v>
       </c>
       <c r="V127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10269,7 +10269,7 @@
         <v>0.9690526280517641</v>
       </c>
       <c r="K128">
-        <v>49.21415579483885</v>
+        <v>-0.007858442051611458</v>
       </c>
       <c r="L128">
         <v>0.001187862065857688</v>
@@ -10299,13 +10299,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U128">
-        <v>1.000023538642605</v>
+        <v>2.353864260506988E-05</v>
       </c>
       <c r="V128">
-        <v>0.999984311264512</v>
+        <v>-1.568873548796201E-05</v>
       </c>
       <c r="W128">
-        <v>0.999764705882353</v>
+        <v>-0.0002352941176470003</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10340,7 +10340,7 @@
         <v>1.05488217994014</v>
       </c>
       <c r="K129">
-        <v>51.33540940877054</v>
+        <v>0.01335409408770549</v>
       </c>
       <c r="L129">
         <v>0.001184621092864093</v>
@@ -10370,13 +10370,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U129">
-        <v>1.00002353808855</v>
+        <v>2.353808855026784E-05</v>
       </c>
       <c r="V129">
-        <v>1.000015688981628</v>
+        <v>1.568898162829235E-05</v>
       </c>
       <c r="W129">
-        <v>1.000235349493999</v>
+        <v>0.0002353494939986156</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10411,7 +10411,7 @@
         <v>0.7748580860380632</v>
       </c>
       <c r="K130">
-        <v>43.65746715940227</v>
+        <v>-0.06342532840597725</v>
       </c>
       <c r="L130">
         <v>0.0008669654670957443</v>
@@ -10441,13 +10441,13 @@
         <v>-0.007499999999993179</v>
       </c>
       <c r="U130">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V130">
-        <v>0.999984311264512</v>
+        <v>-1.568873548796201E-05</v>
       </c>
       <c r="W130">
-        <v>0.9990588235294118</v>
+        <v>-0.0009411764705882231</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10482,7 +10482,7 @@
         <v>0.9844280809479635</v>
       </c>
       <c r="K131">
-        <v>49.60764718052675</v>
+        <v>-0.003923528194732517</v>
       </c>
       <c r="L131">
         <v>0.0006330293816932654</v>
@@ -10512,13 +10512,13 @@
         <v>-0.00750000000000739</v>
       </c>
       <c r="U131">
-        <v>1.000047075069044</v>
+        <v>4.707506904355618E-05</v>
       </c>
       <c r="V131">
-        <v>1.000015688981628</v>
+        <v>1.568898162829235E-05</v>
       </c>
       <c r="W131">
-        <v>1.000706547338672</v>
+        <v>0.0007065473386718146</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10553,7 +10553,7 @@
         <v>0.8065116215543603</v>
       </c>
       <c r="K132">
-        <v>44.64469599483788</v>
+        <v>-0.0535530400516212</v>
       </c>
       <c r="L132">
         <v>0.0002053098075496469</v>
@@ -10583,13 +10583,13 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="U132">
-        <v>1.000007845475514</v>
+        <v>7.845475514134392E-06</v>
       </c>
       <c r="V132">
-        <v>0.9999372450580483</v>
+        <v>-6.275494195173703E-05</v>
       </c>
       <c r="W132">
-        <v>0.9992939515180043</v>
+        <v>-0.0007060484819957358</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10624,7 +10624,7 @@
         <v>0.8065116215543604</v>
       </c>
       <c r="K133">
-        <v>44.64469599483788</v>
+        <v>-0.0535530400516212</v>
       </c>
       <c r="L133">
         <v>-0.0003132994101253958</v>
@@ -10654,13 +10654,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U133">
-        <v>1.000007845413963</v>
+        <v>7.845413963147863E-06</v>
       </c>
       <c r="V133">
-        <v>0.999921551399523</v>
+        <v>-7.844860047701019E-05</v>
       </c>
       <c r="W133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10695,7 +10695,7 @@
         <v>0.7115208731701484</v>
       </c>
       <c r="K134">
-        <v>41.57243328573846</v>
+        <v>-0.08427566714261536</v>
       </c>
       <c r="L134">
         <v>-0.001024191198250107</v>
@@ -10725,13 +10725,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U134">
-        <v>0.9999686185903474</v>
+        <v>-3.138140965264213E-05</v>
       </c>
       <c r="V134">
-        <v>0.9998744723917716</v>
+        <v>-0.0001255276082283707</v>
       </c>
       <c r="W134">
-        <v>0.9995289684408855</v>
+        <v>-0.0004710315591145431</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10766,7 +10766,7 @@
         <v>0.6699887089748332</v>
       </c>
       <c r="K135">
-        <v>40.1193556204415</v>
+        <v>-0.09880644379558506</v>
       </c>
       <c r="L135">
         <v>-0.001888261411286023</v>
@@ -10796,13 +10796,13 @@
         <v>-0.02499999999999147</v>
       </c>
       <c r="U135">
-        <v>0.999952926408285</v>
+        <v>-4.707359171496339E-05</v>
       </c>
       <c r="V135">
-        <v>0.9999058424744597</v>
+        <v>-9.415752554031709E-05</v>
       </c>
       <c r="W135">
-        <v>0.9997643732327993</v>
+        <v>-0.0002356267672006807</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10837,7 +10837,7 @@
         <v>0.7314318362568654</v>
       </c>
       <c r="K136">
-        <v>42.24433332808108</v>
+        <v>-0.07755666671918915</v>
       </c>
       <c r="L136">
         <v>-0.002697522748699103</v>
@@ -10867,13 +10867,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U136">
-        <v>0.9999607701602143</v>
+        <v>-3.922983978565941E-05</v>
       </c>
       <c r="V136">
-        <v>0.9999058336079856</v>
+        <v>-9.416639201442756E-05</v>
       </c>
       <c r="W136">
-        <v>1.000235682300259</v>
+        <v>0.0002356823002591657</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10908,7 +10908,7 @@
         <v>0.6476550906380641</v>
       </c>
       <c r="K137">
-        <v>39.30768607568564</v>
+        <v>-0.1069231392431436</v>
       </c>
       <c r="L137">
         <v>-0.003583633810168567</v>
@@ -10938,13 +10938,13 @@
         <v>-0.04124999999999091</v>
       </c>
       <c r="U137">
-        <v>0.9999529223454089</v>
+        <v>-4.707765459111002E-05</v>
       </c>
       <c r="V137">
-        <v>0.9998901288631475</v>
+        <v>-0.0001098711368524574</v>
       </c>
       <c r="W137">
-        <v>0.9995287464655986</v>
+        <v>-0.0004712535344013613</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10979,7 +10979,7 @@
         <v>0.7079382528197152</v>
       </c>
       <c r="K138">
-        <v>41.44987394309759</v>
+        <v>-0.08550126056902413</v>
       </c>
       <c r="L138">
         <v>-0.004361133724777377</v>
@@ -11009,13 +11009,13 @@
         <v>-0.04124999999999091</v>
       </c>
       <c r="U138">
-        <v>0.9999607667741658</v>
+        <v>-3.923322583421207E-05</v>
       </c>
       <c r="V138">
-        <v>0.9999215119929675</v>
+        <v>-7.848800703247338E-05</v>
       </c>
       <c r="W138">
-        <v>1.0002357378595</v>
+        <v>0.0002357378595001514</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11050,7 +11050,7 @@
         <v>0.7713942130109268</v>
       </c>
       <c r="K139">
-        <v>43.54729214677459</v>
+        <v>-0.06452707853225415</v>
       </c>
       <c r="L139">
         <v>-0.004921741296850565</v>
@@ -11080,13 +11080,13 @@
         <v>-0.04874999999999829</v>
       </c>
       <c r="U139">
-        <v>0.9999843060939435</v>
+        <v>-1.56939060564909E-05</v>
       </c>
       <c r="V139">
-        <v>0.9999372046656935</v>
+        <v>-6.279533430653128E-05</v>
       </c>
       <c r="W139">
-        <v>1.000235682300259</v>
+        <v>0.0002356823002591657</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11121,7 +11121,7 @@
         <v>0.8381899605806706</v>
       </c>
       <c r="K140">
-        <v>45.59865838435395</v>
+        <v>-0.04401341615646048</v>
       </c>
       <c r="L140">
         <v>-0.005211611955367582</v>
@@ -11151,13 +11151,13 @@
         <v>-0.04750000000001364</v>
       </c>
       <c r="U140">
-        <v>0.999960764619103</v>
+        <v>-3.923538089700696E-05</v>
       </c>
       <c r="V140">
-        <v>0.9999372007221918</v>
+        <v>-6.279927780816763E-05</v>
       </c>
       <c r="W140">
-        <v>1.000235626767201</v>
+        <v>0.0002356267672007917</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11192,7 +11192,7 @@
         <v>0.9085012738119301</v>
       </c>
       <c r="K141">
-        <v>47.60286441922788</v>
+        <v>-0.02397135580772114</v>
       </c>
       <c r="L141">
         <v>-0.005214294000283538</v>
@@ -11222,13 +11222,13 @@
         <v>-0.04375000000000284</v>
       </c>
       <c r="U141">
-        <v>0.999968610463702</v>
+        <v>-3.138953629799879E-05</v>
       </c>
       <c r="V141">
-        <v>0.9999371967781945</v>
+        <v>-6.280322180551856E-05</v>
       </c>
       <c r="W141">
-        <v>1.000235571260306</v>
+        <v>0.0002355712603061555</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11263,7 +11263,7 @@
         <v>0.90850127381193</v>
       </c>
       <c r="K142">
-        <v>47.60286441922788</v>
+        <v>-0.02397135580772125</v>
       </c>
       <c r="L142">
         <v>-0.005023812511078693</v>
@@ -11293,13 +11293,13 @@
         <v>-0.03374999999999773</v>
       </c>
       <c r="U142">
-        <v>0.999968609478368</v>
+        <v>-3.139052163203537E-05</v>
       </c>
       <c r="V142">
-        <v>0.9999371928337024</v>
+        <v>-6.280716629758487E-05</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11334,7 +11334,7 @@
         <v>0.7860268570683611</v>
       </c>
       <c r="K143">
-        <v>44.00980052218081</v>
+        <v>-0.05990199477819191</v>
       </c>
       <c r="L143">
         <v>-0.004881594784934933</v>
@@ -11364,13 +11364,13 @@
         <v>-0.02374999999999261</v>
       </c>
       <c r="U143">
-        <v>0.9999529127394584</v>
+        <v>-4.708726054158952E-05</v>
       </c>
       <c r="V143">
-        <v>0.9999214861108929</v>
+        <v>-7.851388910706802E-05</v>
       </c>
       <c r="W143">
-        <v>0.9995289684408855</v>
+        <v>-0.0004710315591145431</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11405,7 +11405,7 @@
         <v>0.6480788733074704</v>
       </c>
       <c r="K144">
-        <v>39.32329233775469</v>
+        <v>-0.1067670766224531</v>
       </c>
       <c r="L144">
         <v>-0.005017120900891179</v>
@@ -11435,13 +11435,13 @@
         <v>-0.02125000000000909</v>
       </c>
       <c r="U144">
-        <v>0.9999372140295248</v>
+        <v>-6.278597047515433E-05</v>
       </c>
       <c r="V144">
-        <v>0.9998586639027609</v>
+        <v>-0.0001413360972390976</v>
       </c>
       <c r="W144">
-        <v>0.9992931196983977</v>
+        <v>-0.000706880301602264</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11476,7 +11476,7 @@
         <v>0.709657941356317</v>
       </c>
       <c r="K145">
-        <v>41.50876758384349</v>
+        <v>-0.08491232416156508</v>
       </c>
       <c r="L145">
         <v>-0.005208322721996536</v>
@@ -11506,13 +11506,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U145">
-        <v>0.9999607563044998</v>
+        <v>-3.92436955002351E-05</v>
       </c>
       <c r="V145">
-        <v>0.9999371750773531</v>
+        <v>-6.282492264686468E-05</v>
       </c>
       <c r="W145">
-        <v>1.000235793444942</v>
+        <v>0.0002357934449424004</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11547,7 +11547,7 @@
         <v>0.709657941356317</v>
       </c>
       <c r="K146">
-        <v>41.50876758384349</v>
+        <v>-0.08491232416156508</v>
       </c>
       <c r="L146">
         <v>-0.005402138553482107</v>
@@ -11577,13 +11577,13 @@
         <v>-0.008749999999992042</v>
       </c>
       <c r="U146">
-        <v>0.999952905717246</v>
+        <v>-4.709428275395666E-05</v>
       </c>
       <c r="V146">
-        <v>0.9998900494777349</v>
+        <v>-0.0001099505222651453</v>
       </c>
       <c r="W146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11618,7 +11618,7 @@
         <v>0.7778895957040211</v>
       </c>
       <c r="K147">
-        <v>43.75353776655557</v>
+        <v>-0.06246462233444428</v>
       </c>
       <c r="L147">
         <v>-0.005479797326460361</v>
@@ -11648,13 +11648,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U147">
-        <v>0.9999450540824815</v>
+        <v>-5.494591751853406E-05</v>
       </c>
       <c r="V147">
-        <v>0.999952873165981</v>
+        <v>-4.712683401897344E-05</v>
       </c>
       <c r="W147">
-        <v>1.0002357378595</v>
+        <v>0.0002357378595001514</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11689,7 +11689,7 @@
         <v>0.6801841442820096</v>
       </c>
       <c r="K148">
-        <v>40.48271414754194</v>
+        <v>-0.09517285852458057</v>
       </c>
       <c r="L148">
         <v>-0.005633695269858643</v>
@@ -11719,13 +11719,13 @@
         <v>-0.00750000000000739</v>
       </c>
       <c r="U148">
-        <v>0.9999215015189457</v>
+        <v>-7.849848105434543E-05</v>
       </c>
       <c r="V148">
-        <v>0.9999214515748956</v>
+        <v>-7.854842510435223E-05</v>
       </c>
       <c r="W148">
-        <v>0.9995286353994814</v>
+        <v>-0.0004713646005185534</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11760,7 +11760,7 @@
         <v>0.8123980782002744</v>
       </c>
       <c r="K149">
-        <v>44.82448353768903</v>
+        <v>-0.05175516462310964</v>
       </c>
       <c r="L149">
         <v>-0.005631983022002864</v>
@@ -11790,13 +11790,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U149">
-        <v>0.9999293458208053</v>
+        <v>-7.065417919471795E-05</v>
       </c>
       <c r="V149">
-        <v>0.9999842890809114</v>
+        <v>-1.571091908858513E-05</v>
       </c>
       <c r="W149">
-        <v>1.000471586889885</v>
+        <v>0.0004715868898845788</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11831,7 +11831,7 @@
         <v>0.7595442206246769</v>
       </c>
       <c r="K150">
-        <v>43.16710041848348</v>
+        <v>-0.06832899581516522</v>
       </c>
       <c r="L150">
         <v>-0.005601359424461418</v>
@@ -11861,13 +11861,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U150">
-        <v>0.999945042866564</v>
+        <v>-5.49571334359511E-05</v>
       </c>
       <c r="V150">
-        <v>0.9999842888340743</v>
+        <v>-1.571116592569144E-05</v>
       </c>
       <c r="W150">
-        <v>0.9997643176997408</v>
+        <v>-0.0002356823002591657</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11902,7 +11902,7 @@
         <v>0.8280274446083076</v>
       </c>
       <c r="K151">
-        <v>45.29622610702814</v>
+        <v>-0.04703773892971858</v>
       </c>
       <c r="L151">
         <v>-0.005449021719087069</v>
@@ -11932,13 +11932,13 @@
         <v>-0.02124999999999488</v>
       </c>
       <c r="U151">
-        <v>0.9999450398461116</v>
+        <v>-5.496015388839481E-05</v>
       </c>
       <c r="V151">
-        <v>0.9999842885872295</v>
+        <v>-1.571141277045829E-05</v>
       </c>
       <c r="W151">
-        <v>1.0002357378595</v>
+        <v>0.0002357378595001514</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11973,7 +11973,7 @@
         <v>0.9001150488016032</v>
       </c>
       <c r="K152">
-        <v>47.37160780708005</v>
+        <v>-0.02628392192919948</v>
       </c>
       <c r="L152">
         <v>-0.005127033820821793</v>
@@ -12003,13 +12003,13 @@
         <v>-0.01374999999998749</v>
       </c>
       <c r="U152">
-        <v>0.9999607405895193</v>
+        <v>-3.925941048066317E-05</v>
       </c>
       <c r="V152">
-        <v>1.000031423319245</v>
+        <v>3.142331924532726E-05</v>
       </c>
       <c r="W152">
-        <v>1.000235682300259</v>
+        <v>0.0002356823002591657</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12044,7 +12044,7 @@
         <v>0.7815103923094902</v>
       </c>
       <c r="K153">
-        <v>43.86785480921986</v>
+        <v>-0.06132145190780142</v>
       </c>
       <c r="L153">
         <v>-0.004875647078126296</v>
@@ -12074,13 +12074,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U153">
-        <v>0.9999528868577889</v>
+        <v>-4.711314221106377E-05</v>
       </c>
       <c r="V153">
-        <v>0.9999842888340743</v>
+        <v>-1.571116592569144E-05</v>
       </c>
       <c r="W153">
-        <v>0.9995287464655986</v>
+        <v>-0.0004712535344013613</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12115,7 +12115,7 @@
         <v>0.9202115583437901</v>
       </c>
       <c r="K154">
-        <v>47.92240492175173</v>
+        <v>-0.02077595078248273</v>
       </c>
       <c r="L154">
         <v>-0.004493748955217471</v>
@@ -12145,13 +12145,13 @@
         <v>-0.01000000000001933</v>
       </c>
       <c r="U154">
-        <v>0.9999685897586907</v>
+        <v>-3.141024130925985E-05</v>
       </c>
       <c r="V154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W154">
-        <v>1.000471475719</v>
+        <v>0.0004714757190003027</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12186,7 +12186,7 @@
         <v>0.8029760669871998</v>
       </c>
       <c r="K155">
-        <v>44.53614674591799</v>
+        <v>-0.05463853254082013</v>
       </c>
       <c r="L155">
         <v>-0.004212306311839623</v>
@@ -12216,13 +12216,13 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="U155">
-        <v>0.9999450303510991</v>
+        <v>-5.49696489009488E-05</v>
       </c>
       <c r="V155">
-        <v>0.9999528657616891</v>
+        <v>-4.713423831093078E-05</v>
       </c>
       <c r="W155">
-        <v>0.9995287464655986</v>
+        <v>-0.0004712535344013613</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12257,7 +12257,7 @@
         <v>0.870029006746762</v>
       </c>
       <c r="K156">
-        <v>46.52489365714853</v>
+        <v>-0.03475106342851469</v>
       </c>
       <c r="L156">
         <v>-0.003908541694786616</v>
@@ -12287,13 +12287,13 @@
         <v>-0.002500000000011937</v>
       </c>
       <c r="U156">
-        <v>0.9999450273292706</v>
+        <v>-5.497267072940293E-05</v>
       </c>
       <c r="V156">
-        <v>0.9999528635399484</v>
+        <v>-4.71364600516111E-05</v>
       </c>
       <c r="W156">
-        <v>1.0002357378595</v>
+        <v>0.0002357378595001514</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12328,7 +12328,7 @@
         <v>0.870029006746762</v>
       </c>
       <c r="K157">
-        <v>46.52489365714853</v>
+        <v>-0.03475106342851469</v>
       </c>
       <c r="L157">
         <v>-0.003596374890947326</v>
@@ -12358,13 +12358,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U157">
-        <v>0.9999450243071097</v>
+        <v>-5.497569289025783E-05</v>
       </c>
       <c r="V157">
-        <v>0.9999528613179975</v>
+        <v>-4.713868200245663E-05</v>
       </c>
       <c r="W157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12399,7 +12399,7 @@
         <v>0.8700290067467619</v>
       </c>
       <c r="K158">
-        <v>46.52489365714853</v>
+        <v>-0.03475106342851469</v>
       </c>
       <c r="L158">
         <v>-0.003285911803269047</v>
@@ -12429,13 +12429,13 @@
         <v>0.00750000000000739</v>
       </c>
       <c r="U158">
-        <v>0.9999528753868147</v>
+        <v>-4.712461318534533E-05</v>
       </c>
       <c r="V158">
-        <v>0.9999842863652791</v>
+        <v>-1.571363472085974E-05</v>
       </c>
       <c r="W158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12470,7 +12470,7 @@
         <v>0.806921867650949</v>
       </c>
       <c r="K159">
-        <v>44.65726394135518</v>
+        <v>-0.05342736058644815</v>
       </c>
       <c r="L159">
         <v>-0.003070094556247803</v>
@@ -12500,13 +12500,13 @@
         <v>0.007499999999978968</v>
       </c>
       <c r="U159">
-        <v>0.9999371642213077</v>
+        <v>-6.283577869226065E-05</v>
       </c>
       <c r="V159">
-        <v>1.000015713881643</v>
+        <v>1.571388164300913E-05</v>
       </c>
       <c r="W159">
-        <v>0.9997643176997408</v>
+        <v>-0.0002356823002591657</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12541,7 +12541,7 @@
         <v>0.806921867650949</v>
       </c>
       <c r="K160">
-        <v>44.65726394135518</v>
+        <v>-0.05342736058644815</v>
       </c>
       <c r="L160">
         <v>-0.002914197087932622</v>
@@ -12571,13 +12571,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U160">
-        <v>0.9999685801363624</v>
+        <v>-3.141986363763838E-05</v>
       </c>
       <c r="V160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12612,7 +12612,7 @@
         <v>0.7468935389410354</v>
       </c>
       <c r="K161">
-        <v>42.75552701361534</v>
+        <v>-0.07244472986384659</v>
       </c>
       <c r="L161">
         <v>-0.002879731054586256</v>
@@ -12642,13 +12642,13 @@
         <v>1.4210854715202E-14</v>
       </c>
       <c r="U161">
-        <v>0.9999371582982466</v>
+        <v>-6.28417017534133E-05</v>
       </c>
       <c r="V161">
-        <v>0.9999842863652791</v>
+        <v>-1.571363472085974E-05</v>
       </c>
       <c r="W161">
-        <v>0.9997642621404996</v>
+        <v>-0.0002357378595003734</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12683,7 +12683,7 @@
         <v>0.8252006427197885</v>
       </c>
       <c r="K162">
-        <v>45.21150296605919</v>
+        <v>-0.04788497033940808</v>
       </c>
       <c r="L162">
         <v>-0.002824749604954584</v>
@@ -12713,13 +12713,13 @@
         <v>-0.005000000000009663</v>
       </c>
       <c r="U162">
-        <v>0.9999685771744595</v>
+        <v>-3.142282554047249E-05</v>
       </c>
       <c r="V162">
-        <v>0.999984286118357</v>
+        <v>-1.571388164300913E-05</v>
       </c>
       <c r="W162">
-        <v>1.000235793444942</v>
+        <v>0.0002357934449424004</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12754,7 +12754,7 @@
         <v>0.8252006427197885</v>
       </c>
       <c r="K163">
-        <v>45.21150296605919</v>
+        <v>-0.04788497033940808</v>
       </c>
       <c r="L163">
         <v>-0.002750558997184101</v>
@@ -12784,13 +12784,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U163">
-        <v>0.9999685761870347</v>
+        <v>-3.142381296528107E-05</v>
       </c>
       <c r="V163">
-        <v>1.000015714128573</v>
+        <v>1.571412857304111E-05</v>
       </c>
       <c r="W163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12825,7 +12825,7 @@
         <v>0.8252006427197885</v>
       </c>
       <c r="K164">
-        <v>45.21150296605919</v>
+        <v>-0.04788497033940808</v>
       </c>
       <c r="L164">
         <v>-0.00265944423894979</v>
@@ -12855,13 +12855,13 @@
         <v>-0.007499999999993179</v>
       </c>
       <c r="U164">
-        <v>0.9999842875997735</v>
+        <v>-1.571240022646414E-05</v>
       </c>
       <c r="V164">
-        <v>0.9999842861183571</v>
+        <v>-1.571388164289811E-05</v>
       </c>
       <c r="W164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12896,7 +12896,7 @@
         <v>0.8252006427197885</v>
       </c>
       <c r="K165">
-        <v>45.21150296605919</v>
+        <v>-0.04788497033940808</v>
       </c>
       <c r="L165">
         <v>-0.002554199440360754</v>
@@ -12926,13 +12926,13 @@
         <v>-0.008749999999992042</v>
       </c>
       <c r="U165">
-        <v>0.9999921436764451</v>
+        <v>-7.856323554933375E-06</v>
       </c>
       <c r="V165">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12967,7 +12967,7 @@
         <v>0.8252006427197885</v>
       </c>
       <c r="K166">
-        <v>45.21150296605919</v>
+        <v>-0.04788497033940808</v>
       </c>
       <c r="L166">
         <v>-0.002437800655686107</v>
@@ -12997,13 +12997,13 @@
         <v>-0.01124999999998977</v>
       </c>
       <c r="U166">
-        <v>0.9999842872294461</v>
+        <v>-1.571277055389952E-05</v>
       </c>
       <c r="V166">
-        <v>0.999984285871427</v>
+        <v>-1.571412857304111E-05</v>
       </c>
       <c r="W166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13038,7 +13038,7 @@
         <v>0.9264012538794523</v>
       </c>
       <c r="K167">
-        <v>48.08973478468383</v>
+        <v>-0.0191026521531617</v>
       </c>
       <c r="L167">
         <v>-0.002227369183423122</v>
@@ -13068,13 +13068,13 @@
         <v>-0.008750000000006253</v>
       </c>
       <c r="U167">
-        <v>1.000007856508724</v>
+        <v>7.856508724479738E-06</v>
       </c>
       <c r="V167">
-        <v>0.9999842856244893</v>
+        <v>-1.571437551073362E-05</v>
       </c>
       <c r="W167">
-        <v>1.0002357378595</v>
+        <v>0.0002357378595001514</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13109,7 +13109,7 @@
         <v>1.032928212994888</v>
       </c>
       <c r="K168">
-        <v>50.80987151401619</v>
+        <v>0.008098715140161916</v>
       </c>
       <c r="L168">
         <v>-0.001879444458595241</v>
@@ -13139,13 +13139,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U168">
-        <v>1.000007856447</v>
+        <v>7.856447000298417E-06</v>
       </c>
       <c r="V168">
-        <v>1.000031429244912</v>
+        <v>3.14292449123954E-05</v>
       </c>
       <c r="W168">
-        <v>1.000235682300259</v>
+        <v>0.0002356823002591657</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13180,7 +13180,7 @@
         <v>0.8437113593476198</v>
       </c>
       <c r="K169">
-        <v>45.76157515491791</v>
+        <v>-0.04238424845082084</v>
       </c>
       <c r="L169">
         <v>-0.001635178939006372</v>
@@ -13210,13 +13210,13 @@
         <v>-0.001250000000013074</v>
       </c>
       <c r="U169">
-        <v>0.9999842872294461</v>
+        <v>-1.571277055389952E-05</v>
       </c>
       <c r="V169">
-        <v>0.9999685717428539</v>
+        <v>-3.142825714608222E-05</v>
       </c>
       <c r="W169">
-        <v>0.9995287464655986</v>
+        <v>-0.0004712535344013613</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13251,7 +13251,7 @@
         <v>0.7073212763817331</v>
       </c>
       <c r="K170">
-        <v>41.42871562408773</v>
+        <v>-0.08571284375912269</v>
       </c>
       <c r="L170">
         <v>-0.001634969470369244</v>
@@ -13281,13 +13281,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U170">
-        <v>0.9999607174563766</v>
+        <v>-3.928254362339789E-05</v>
       </c>
       <c r="V170">
-        <v>0.9999685707550877</v>
+        <v>-3.142924491228438E-05</v>
       </c>
       <c r="W170">
-        <v>0.9995285242809995</v>
+        <v>-0.0004714757190005248</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13322,7 +13322,7 @@
         <v>0.7073212763817331</v>
       </c>
       <c r="K171">
-        <v>41.42871562408773</v>
+        <v>-0.08571284375912269</v>
       </c>
       <c r="L171">
         <v>-0.001776687054820859</v>
@@ -13352,13 +13352,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U171">
-        <v>0.9999528590958374</v>
+        <v>-4.714090416257921E-05</v>
       </c>
       <c r="V171">
-        <v>0.9999528546508887</v>
+        <v>-4.714534911132162E-05</v>
       </c>
       <c r="W171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13393,7 +13393,7 @@
         <v>0.7968807827189315</v>
       </c>
       <c r="K172">
-        <v>44.34800518669578</v>
+        <v>-0.05651994813304223</v>
       </c>
       <c r="L172">
         <v>-0.001903073958367211</v>
@@ -13423,13 +13423,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U172">
-        <v>0.9999607140612232</v>
+        <v>-3.928593877677855E-05</v>
       </c>
       <c r="V172">
-        <v>0.9999685682853999</v>
+        <v>-3.143171460007199E-05</v>
       </c>
       <c r="W172">
-        <v>1.000235849056604</v>
+        <v>0.0002358490566036764</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13464,7 +13464,7 @@
         <v>0.6704667400736535</v>
       </c>
       <c r="K173">
-        <v>40.13649143616541</v>
+        <v>-0.09863508563834583</v>
       </c>
       <c r="L173">
         <v>-0.002176844856121429</v>
@@ -13494,13 +13494,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U173">
-        <v>0.9999607125177774</v>
+        <v>-3.928748222259415E-05</v>
       </c>
       <c r="V173">
-        <v>0.9999371345948326</v>
+        <v>-6.286540516742267E-05</v>
       </c>
       <c r="W173">
-        <v>0.9995284131101156</v>
+        <v>-0.0004715868898843567</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13535,7 +13535,7 @@
         <v>0.7539594131287103</v>
       </c>
       <c r="K174">
-        <v>42.98613796221194</v>
+        <v>-0.0701386203778806</v>
       </c>
       <c r="L174">
         <v>-0.002428721794112827</v>
@@ -13565,13 +13565,13 @@
         <v>-0.0075000000000216</v>
       </c>
       <c r="U174">
-        <v>0.9999921421948423</v>
+        <v>-7.857805157662767E-06</v>
       </c>
       <c r="V174">
-        <v>0.9999685653212623</v>
+        <v>-3.143467873767403E-05</v>
       </c>
       <c r="W174">
-        <v>1.000235904694503</v>
+        <v>0.0002359046945032972</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13606,7 +13606,7 @@
         <v>0.6930493666248931</v>
       </c>
       <c r="K175">
-        <v>40.93497686995934</v>
+        <v>-0.09065023130040656</v>
       </c>
       <c r="L175">
         <v>-0.002728279527449728</v>
@@ -13636,13 +13636,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U175">
-        <v>0.9999764263992895</v>
+        <v>-2.357360071048031E-05</v>
       </c>
       <c r="V175">
-        <v>0.9999528464996386</v>
+        <v>-4.715350036144095E-05</v>
       </c>
       <c r="W175">
-        <v>0.9997641509433963</v>
+        <v>-0.0002358490566036764</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13677,7 +13677,7 @@
         <v>0.6387323082287096</v>
       </c>
       <c r="K176">
-        <v>38.97722068585499</v>
+        <v>-0.11022779314145</v>
       </c>
       <c r="L176">
         <v>-0.00311354864721161</v>
@@ -13707,13 +13707,13 @@
         <v>-0.02375000000000682</v>
       </c>
       <c r="U176">
-        <v>0.9999685677914159</v>
+        <v>-3.143220858414786E-05</v>
       </c>
       <c r="V176">
-        <v>0.999952844276081</v>
+        <v>-4.715572391900125E-05</v>
       </c>
       <c r="W176">
-        <v>0.9997640953054966</v>
+        <v>-0.0002359046945034082</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13748,7 +13748,7 @@
         <v>0.6387323082287097</v>
       </c>
       <c r="K177">
-        <v>38.97722068585499</v>
+        <v>-0.11022779314145</v>
       </c>
       <c r="L177">
         <v>-0.003514881339156303</v>
@@ -13778,13 +13778,13 @@
         <v>-0.03000000000001535</v>
       </c>
       <c r="U177">
-        <v>0.9999607085042513</v>
+        <v>-3.92914957486612E-05</v>
       </c>
       <c r="V177">
-        <v>0.9999371227364184</v>
+        <v>-6.28772635815622E-05</v>
       </c>
       <c r="W177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13819,7 +13819,7 @@
         <v>0.7255733171877926</v>
       </c>
       <c r="K178">
-        <v>42.0482462240594</v>
+        <v>-0.07951753775940595</v>
       </c>
       <c r="L178">
         <v>-0.003801760150048194</v>
@@ -13849,13 +13849,13 @@
         <v>-0.02874999999998806</v>
       </c>
       <c r="U178">
-        <v>0.9999842827841476</v>
+        <v>-1.571721585236219E-05</v>
       </c>
       <c r="V178">
-        <v>0.9999528390869646</v>
+        <v>-4.716091303536007E-05</v>
       </c>
       <c r="W178">
-        <v>1.00023596035866</v>
+        <v>0.0002359603586596926</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13890,7 +13890,7 @@
         <v>0.7255733171877925</v>
       </c>
       <c r="K179">
-        <v>42.0482462240594</v>
+        <v>-0.07951753775940601</v>
       </c>
       <c r="L179">
         <v>-0.003987186743641942</v>
@@ -13920,13 +13920,13 @@
         <v>-0.02750000000000341</v>
       </c>
       <c r="U179">
-        <v>0.9999685650742255</v>
+        <v>-3.143492577450946E-05</v>
       </c>
       <c r="V179">
-        <v>0.9999528368627082</v>
+        <v>-4.716313729180577E-05</v>
       </c>
       <c r="W179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13961,7 +13961,7 @@
         <v>0.7255733171877925</v>
       </c>
       <c r="K180">
-        <v>42.0482462240594</v>
+        <v>-0.07951753775940601</v>
       </c>
       <c r="L180">
         <v>-0.004084824506481525</v>
@@ -13991,13 +13991,13 @@
         <v>-0.02874999999998806</v>
       </c>
       <c r="U180">
-        <v>0.9999764230645303</v>
+        <v>-2.357693546972683E-05</v>
       </c>
       <c r="V180">
-        <v>0.9999528346382416</v>
+        <v>-4.716536175841668E-05</v>
       </c>
       <c r="W180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14032,7 +14032,7 @@
         <v>0.7255733171877925</v>
       </c>
       <c r="K181">
-        <v>42.0482462240594</v>
+        <v>-0.07951753775940601</v>
       </c>
       <c r="L181">
         <v>-0.004108187249548853</v>
@@ -14062,13 +14062,13 @@
         <v>-0.02499999999999147</v>
       </c>
       <c r="U181">
-        <v>0.9999685633448603</v>
+        <v>-3.143665513971605E-05</v>
       </c>
       <c r="V181">
-        <v>0.9999528324135654</v>
+        <v>-4.71675864346377E-05</v>
       </c>
       <c r="W181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14103,7 +14103,7 @@
         <v>0.8321912945932244</v>
       </c>
       <c r="K182">
-        <v>45.4205462633193</v>
+        <v>-0.045794537366807</v>
       </c>
       <c r="L182">
         <v>-0.003984256780560498</v>
@@ -14133,13 +14133,13 @@
         <v>-0.02249999999999375</v>
       </c>
       <c r="U182">
-        <v>0.9999685623565655</v>
+        <v>-3.14376434344954E-05</v>
       </c>
       <c r="V182">
-        <v>0.9999528301886792</v>
+        <v>-4.716981132080189E-05</v>
       </c>
       <c r="W182">
-        <v>1.000235904694503</v>
+        <v>0.0002359046945032972</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14174,7 +14174,7 @@
         <v>0.9444207444936789</v>
       </c>
       <c r="K183">
-        <v>48.57080172427408</v>
+        <v>-0.01429198275725918</v>
       </c>
       <c r="L183">
         <v>-0.003678617062129051</v>
@@ -14204,13 +14204,13 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="U183">
-        <v>0.9999921403420524</v>
+        <v>-7.859657947584253E-06</v>
       </c>
       <c r="V183">
-        <v>0.9999528279635833</v>
+        <v>-4.717203641668721E-05</v>
       </c>
       <c r="W183">
-        <v>1.000235849056604</v>
+        <v>0.0002358490566036764</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14245,7 +14245,7 @@
         <v>0.944420744493679</v>
       </c>
       <c r="K184">
-        <v>48.57080172427409</v>
+        <v>-0.01429198275725907</v>
       </c>
       <c r="L184">
         <v>-0.00326895512740276</v>
@@ -14275,13 +14275,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U184">
-        <v>0.9999764208408327</v>
+        <v>-2.357915916728626E-05</v>
       </c>
       <c r="V184">
-        <v>0.9999842752460923</v>
+        <v>-1.572475390765327E-05</v>
       </c>
       <c r="W184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14316,7 +14316,7 @@
         <v>0.9444207444936789</v>
       </c>
       <c r="K185">
-        <v>48.57080172427408</v>
+        <v>-0.01429198275725918</v>
       </c>
       <c r="L185">
         <v>-0.002810461642525741</v>
@@ -14346,13 +14346,13 @@
         <v>0.004999999999995453</v>
       </c>
       <c r="U185">
-        <v>0.9999921400949477</v>
+        <v>-7.859905052254312E-06</v>
       </c>
       <c r="V185">
-        <v>1.000015725001179</v>
+        <v>1.572500117918985E-05</v>
       </c>
       <c r="W185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14387,7 +14387,7 @@
         <v>0.8351062496602598</v>
       </c>
       <c r="K186">
-        <v>45.50724241797259</v>
+        <v>-0.04492757582027407</v>
       </c>
       <c r="L186">
         <v>-0.002427221760543121</v>
@@ -14417,13 +14417,13 @@
         <v>0.00750000000000739</v>
       </c>
       <c r="U186">
-        <v>0.9999764200995073</v>
+        <v>-2.357990049273173E-05</v>
       </c>
       <c r="V186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W186">
-        <v>0.9997642065550578</v>
+        <v>-0.0002357934449421784</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14458,7 +14458,7 @@
         <v>0.8351062496602598</v>
       </c>
       <c r="K187">
-        <v>45.50724241797259</v>
+        <v>-0.04492757582027407</v>
       </c>
       <c r="L187">
         <v>-0.002105157295493238</v>
@@ -14488,13 +14488,13 @@
         <v>0.009999999999990905</v>
       </c>
       <c r="U187">
-        <v>0.9999764195434824</v>
+        <v>-2.358045651762453E-05</v>
       </c>
       <c r="V187">
-        <v>0.9999842752460927</v>
+        <v>-1.57247539073202E-05</v>
       </c>
       <c r="W187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14529,7 +14529,7 @@
         <v>1.219863026884209</v>
       </c>
       <c r="K188">
-        <v>54.95217552212687</v>
+        <v>0.04952175522126867</v>
       </c>
       <c r="L188">
         <v>-0.001575412351536034</v>
@@ -14559,13 +14559,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V188">
-        <v>1.000062900004717</v>
+        <v>6.290000471742552E-05</v>
       </c>
       <c r="W188">
-        <v>1.000707547169811</v>
+        <v>0.0007075471698112512</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14600,7 +14600,7 @@
         <v>1.759872538777439</v>
       </c>
       <c r="K189">
-        <v>63.76644261828927</v>
+        <v>0.1376644261828927</v>
       </c>
       <c r="L189">
         <v>-0.0006043828786532455</v>
@@ -14630,13 +14630,13 @@
         <v>0.02750000000000341</v>
       </c>
       <c r="U189">
-        <v>1.000039301687614</v>
+        <v>3.930168761434594E-05</v>
       </c>
       <c r="V189">
-        <v>1.000110068084972</v>
+        <v>0.0001100680849723812</v>
       </c>
       <c r="W189">
-        <v>1.000942729201037</v>
+        <v>0.0009427292010368848</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14671,7 +14671,7 @@
         <v>1.540898845734819</v>
       </c>
       <c r="K190">
-        <v>60.64384846808794</v>
+        <v>0.1064384846808794</v>
       </c>
       <c r="L190">
         <v>0.0004884529218429214</v>
@@ -14701,13 +14701,13 @@
         <v>0.0350000000000108</v>
       </c>
       <c r="U190">
-        <v>1.000031440114442</v>
+        <v>3.14401144418941E-05</v>
       </c>
       <c r="V190">
-        <v>1.000110055971323</v>
+        <v>0.0001100559713225202</v>
       </c>
       <c r="W190">
-        <v>0.9997645396750648</v>
+        <v>-0.000235460324935155</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14742,7 +14742,7 @@
         <v>1.671873458484623</v>
       </c>
       <c r="K191">
-        <v>62.57307782206277</v>
+        <v>0.1257307782206277</v>
       </c>
       <c r="L191">
         <v>0.001669512191462541</v>
@@ -14772,13 +14772,13 @@
         <v>0.04000000000000625</v>
       </c>
       <c r="U191">
-        <v>1.000047158688989</v>
+        <v>4.715868898874653E-05</v>
       </c>
       <c r="V191">
-        <v>1.000141484963293</v>
+        <v>0.0001414849632925819</v>
       </c>
       <c r="W191">
-        <v>1.000235515779557</v>
+        <v>0.0002355157795572715</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14813,7 +14813,7 @@
         <v>1.310516770952718</v>
       </c>
       <c r="K192">
-        <v>56.71963897549809</v>
+        <v>0.06719638975498088</v>
       </c>
       <c r="L192">
         <v>0.002650903028919864</v>
@@ -14843,13 +14843,13 @@
         <v>0.04125000000000512</v>
       </c>
       <c r="U192">
-        <v>1.000023578232575</v>
+        <v>2.357823257548297E-05</v>
       </c>
       <c r="V192">
-        <v>1.00011002829299</v>
+        <v>0.0001100282929897833</v>
       </c>
       <c r="W192">
-        <v>0.9995290793501296</v>
+        <v>-0.000470920649870421</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14884,7 +14884,7 @@
         <v>1.067618155830122</v>
       </c>
       <c r="K193">
-        <v>51.63517029581737</v>
+        <v>0.01635170295817368</v>
       </c>
       <c r="L193">
         <v>0.003267372246201878</v>
@@ -14914,13 +14914,13 @@
         <v>0.04000000000000625</v>
       </c>
       <c r="U193">
-        <v>1.000007859225552</v>
+        <v>7.859225551909432E-06</v>
       </c>
       <c r="V193">
-        <v>1.000062866393198</v>
+        <v>6.286639319785792E-05</v>
       </c>
       <c r="W193">
-        <v>0.9995288574793875</v>
+        <v>-0.000471142520612533</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14955,7 +14955,7 @@
         <v>1.067618155830122</v>
       </c>
       <c r="K194">
-        <v>51.63517029581738</v>
+        <v>0.01635170295817379</v>
       </c>
       <c r="L194">
         <v>0.003611570643573568</v>
@@ -14985,13 +14985,13 @@
         <v>0.04249999999998977</v>
       </c>
       <c r="U194">
-        <v>1.000007859163785</v>
+        <v>7.859163785317591E-06</v>
       </c>
       <c r="V194">
-        <v>1.000062862441263</v>
+        <v>6.286244126307849E-05</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15026,7 +15026,7 @@
         <v>1.478356493123313</v>
       </c>
       <c r="K195">
-        <v>59.65067968330236</v>
+        <v>0.09650679683302366</v>
       </c>
       <c r="L195">
         <v>0.004099169593213295</v>
@@ -15056,13 +15056,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U195">
-        <v>1.000039295510095</v>
+        <v>3.929551009496102E-05</v>
       </c>
       <c r="V195">
-        <v>1.00012571697965</v>
+        <v>0.0001257169796495816</v>
       </c>
       <c r="W195">
-        <v>1.000942729201037</v>
+        <v>0.0009427292010368848</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15097,7 +15097,7 @@
         <v>1.3341495538001</v>
       </c>
       <c r="K196">
-        <v>57.15784370491792</v>
+        <v>0.07157843704917921</v>
       </c>
       <c r="L196">
         <v>0.004541745577094238</v>
@@ -15127,13 +15127,13 @@
         <v>0.04874999999999829</v>
       </c>
       <c r="U196">
-        <v>1.000031435172815</v>
+        <v>3.143517281478658E-05</v>
       </c>
       <c r="V196">
-        <v>1.000109988529768</v>
+        <v>0.0001099885297675129</v>
       </c>
       <c r="W196">
-        <v>0.9997645396750648</v>
+        <v>-0.000235460324935155</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15168,7 +15168,7 @@
         <v>1.209916079863185</v>
       </c>
       <c r="K197">
-        <v>54.74941292513199</v>
+        <v>0.04749412925131991</v>
       </c>
       <c r="L197">
         <v>0.004826422850723869</v>
@@ -15198,13 +15198,13 @@
         <v>0.03624999999999545</v>
       </c>
       <c r="U197">
-        <v>1.000015717092338</v>
+        <v>1.571709233783025E-05</v>
       </c>
       <c r="V197">
-        <v>1.000078554595444</v>
+        <v>7.855459544403587E-05</v>
       </c>
       <c r="W197">
-        <v>0.9997644842204428</v>
+        <v>-0.0002355157795571605</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15239,7 +15239,7 @@
         <v>1.209916079863185</v>
       </c>
       <c r="K198">
-        <v>54.74941292513199</v>
+        <v>0.04749412925131991</v>
       </c>
       <c r="L198">
         <v>0.004979713930494534</v>
@@ -15269,13 +15269,13 @@
         <v>0.02750000000000341</v>
       </c>
       <c r="U198">
-        <v>1.000007858422657</v>
+        <v>7.858422657491815E-06</v>
       </c>
       <c r="V198">
-        <v>1.000062838740083</v>
+        <v>6.283874008294887E-05</v>
       </c>
       <c r="W198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15310,7 +15310,7 @@
         <v>0.9239288270560326</v>
       </c>
       <c r="K199">
-        <v>48.02302528362314</v>
+        <v>-0.01976974716376856</v>
       </c>
       <c r="L199">
         <v>0.004767970360544452</v>
@@ -15340,13 +15340,13 @@
         <v>0.01375000000001592</v>
       </c>
       <c r="U199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V199">
-        <v>1.000015708697906</v>
+        <v>1.570869790623597E-05</v>
       </c>
       <c r="W199">
-        <v>0.9992932862190812</v>
+        <v>-0.0007067137809187996</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15381,7 +15381,7 @@
         <v>0.8531697715918649</v>
       </c>
       <c r="K200">
-        <v>46.03840320895132</v>
+        <v>-0.03961596791048683</v>
       </c>
       <c r="L200">
         <v>0.004245411051813904</v>
@@ -15411,13 +15411,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U200">
-        <v>1.000007858360903</v>
+        <v>7.858360903112427E-06</v>
       </c>
       <c r="V200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W200">
-        <v>0.9997642621404996</v>
+        <v>-0.0002357378595003734</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15452,7 +15452,7 @@
         <v>1.014401273622979</v>
       </c>
       <c r="K201">
-        <v>50.35745791594636</v>
+        <v>0.003574579159463576</v>
       </c>
       <c r="L201">
         <v>0.003724105492189554</v>
@@ -15482,13 +15482,13 @@
         <v>0.001250000000013074</v>
       </c>
       <c r="U201">
-        <v>1.000023574897449</v>
+        <v>2.35748974490857E-05</v>
       </c>
       <c r="V201">
-        <v>1.00004712535344</v>
+        <v>4.71253534399807E-05</v>
       </c>
       <c r="W201">
-        <v>1.000471586889885</v>
+        <v>0.0004715868898845788</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15523,7 +15523,7 @@
         <v>0.9350538345569204</v>
       </c>
       <c r="K202">
-        <v>48.32185119909207</v>
+        <v>-0.01678148800907925</v>
       </c>
       <c r="L202">
         <v>0.003137392823813387</v>
@@ -15553,13 +15553,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U202">
-        <v>1.000007858113896</v>
+        <v>7.858113895586882E-06</v>
       </c>
       <c r="V202">
-        <v>1.000031415421831</v>
+        <v>3.141542183060508E-05</v>
       </c>
       <c r="W202">
-        <v>0.9997643176997408</v>
+        <v>-0.0002356823002591657</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15594,7 +15594,7 @@
         <v>1.017391684716776</v>
       </c>
       <c r="K203">
-        <v>50.43104382873516</v>
+        <v>0.004310438287351559</v>
       </c>
       <c r="L203">
         <v>0.002622860414859646</v>
@@ -15624,13 +15624,13 @@
         <v>-0.01749999999998408</v>
       </c>
       <c r="U203">
-        <v>1.000031432208584</v>
+        <v>3.143220858414786E-05</v>
       </c>
       <c r="V203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W203">
-        <v>1.0002357378595</v>
+        <v>0.0002357378595001514</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15665,7 +15665,7 @@
         <v>1.190734527158639</v>
       </c>
       <c r="K204">
-        <v>54.35320950106217</v>
+        <v>0.04353209501062172</v>
       </c>
       <c r="L204">
         <v>0.002346947351664102</v>
@@ -15695,13 +15695,13 @@
         <v>-0.02249999999999375</v>
       </c>
       <c r="U204">
-        <v>1.000039289025789</v>
+        <v>3.928902578920201E-05</v>
       </c>
       <c r="V204">
-        <v>0.9999685855650671</v>
+        <v>-3.141443493293039E-05</v>
       </c>
       <c r="W204">
-        <v>1.000471364600519</v>
+        <v>0.0004713646005185534</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15736,7 +15736,7 @@
         <v>1.281967602128008</v>
       </c>
       <c r="K205">
-        <v>56.1781683899689</v>
+        <v>0.06178168389968908</v>
       </c>
       <c r="L205">
         <v>0.002310443303466303</v>
@@ -15766,13 +15766,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U205">
-        <v>1.000055002475112</v>
+        <v>5.50024751115874E-05</v>
       </c>
       <c r="V205">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W205">
-        <v>1.000235571260306</v>
+        <v>0.0002355712603061555</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15807,7 +15807,7 @@
         <v>0.9952357550222339</v>
       </c>
       <c r="K206">
-        <v>49.8806094726958</v>
+        <v>-0.001193905273042029</v>
       </c>
       <c r="L206">
         <v>0.002155406985239662</v>
@@ -15837,13 +15837,13 @@
         <v>-0.02000000000001023</v>
       </c>
       <c r="U206">
-        <v>1.000039285321432</v>
+        <v>3.928532143238073E-05</v>
       </c>
       <c r="V206">
-        <v>0.9999371691563388</v>
+        <v>-6.283084366121017E-05</v>
       </c>
       <c r="W206">
-        <v>0.9992934526613283</v>
+        <v>-0.0007065473386717036</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15878,7 +15878,7 @@
         <v>0.995235755022234</v>
       </c>
       <c r="K207">
-        <v>49.8806094726958</v>
+        <v>-0.001193905273041973</v>
       </c>
       <c r="L207">
         <v>0.001930598420598717</v>
@@ -15908,13 +15908,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U207">
-        <v>1.000039283778157</v>
+        <v>3.928377815687334E-05</v>
       </c>
       <c r="V207">
-        <v>0.9999685826041878</v>
+        <v>-3.141739581224989E-05</v>
       </c>
       <c r="W207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15949,7 +15949,7 @@
         <v>0.9192933194577699</v>
       </c>
       <c r="K208">
-        <v>47.89748967174462</v>
+        <v>-0.02102510328255375</v>
       </c>
       <c r="L208">
         <v>0.001585001067097375</v>
@@ -15979,13 +15979,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U208">
-        <v>1.000023569341001</v>
+        <v>2.356934100089525E-05</v>
       </c>
       <c r="V208">
-        <v>0.9999842908085522</v>
+        <v>-1.570919144777694E-05</v>
       </c>
       <c r="W208">
-        <v>0.9997643176997408</v>
+        <v>-0.0002356823002591657</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16020,7 +16020,7 @@
         <v>0.9192933194577698</v>
       </c>
       <c r="K209">
-        <v>47.89748967174462</v>
+        <v>-0.02102510328255375</v>
       </c>
       <c r="L209">
         <v>0.001182485749069334</v>
@@ -16050,13 +16050,13 @@
         <v>-0.00750000000000739</v>
       </c>
       <c r="U209">
-        <v>1.000023568785501</v>
+        <v>2.356878550058283E-05</v>
       </c>
       <c r="V209">
-        <v>0.9999842905617693</v>
+        <v>-1.570943823070436E-05</v>
       </c>
       <c r="W209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16091,7 +16091,7 @@
         <v>0.8476268445590561</v>
       </c>
       <c r="K210">
-        <v>45.87651706052938</v>
+        <v>-0.04123482939470619</v>
       </c>
       <c r="L210">
         <v>0.000681018408121216</v>
@@ -16121,13 +16121,13 @@
         <v>-0.007499999999993179</v>
       </c>
       <c r="U210">
-        <v>1.000015712153351</v>
+        <v>1.571215335061105E-05</v>
       </c>
       <c r="V210">
-        <v>0.9999057418898754</v>
+        <v>-9.425811012464536E-05</v>
       </c>
       <c r="W210">
-        <v>0.9997642621404996</v>
+        <v>-0.0002357378595003734</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16162,7 +16162,7 @@
         <v>0.9296881334137613</v>
       </c>
       <c r="K211">
-        <v>48.17815466217716</v>
+        <v>-0.01821845337822842</v>
       </c>
       <c r="L211">
         <v>0.0002348977032833029</v>
@@ -16192,13 +16192,13 @@
         <v>-0.0037500000000108</v>
       </c>
       <c r="U211">
-        <v>1.000023567859724</v>
+        <v>2.356785972379427E-05</v>
       </c>
       <c r="V211">
-        <v>0.9999371553362975</v>
+        <v>-6.284466370254371E-05</v>
       </c>
       <c r="W211">
-        <v>1.000235793444942</v>
+        <v>0.0002357934449424004</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16233,7 +16233,7 @@
         <v>0.8557667420344565</v>
       </c>
       <c r="K212">
-        <v>46.11391737176456</v>
+        <v>-0.03886082628235438</v>
       </c>
       <c r="L212">
         <v>-0.0002359390629554822</v>
@@ -16263,13 +16263,13 @@
         <v>-0.00750000000000739</v>
       </c>
       <c r="U212">
-        <v>1.000007855768098</v>
+        <v>7.85576809803068E-06</v>
       </c>
       <c r="V212">
-        <v>0.9999371513865974</v>
+        <v>-6.284861340255521E-05</v>
       </c>
       <c r="W212">
-        <v>0.9997642621404996</v>
+        <v>-0.0002357378595003734</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16304,7 +16304,7 @@
         <v>1.023160490817363</v>
       </c>
       <c r="K213">
-        <v>50.57238392412474</v>
+        <v>0.005723839241247308</v>
       </c>
       <c r="L213">
         <v>-0.0005192581193408758</v>
@@ -16334,13 +16334,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U213">
-        <v>1.00001571141277</v>
+        <v>1.571141277034727E-05</v>
       </c>
       <c r="V213">
-        <v>0.9999685737182008</v>
+        <v>-3.142628179919615E-05</v>
       </c>
       <c r="W213">
-        <v>1.000471586889885</v>
+        <v>0.0004715868898845788</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16375,7 +16375,7 @@
         <v>1.023160490817363</v>
       </c>
       <c r="K214">
-        <v>50.57238392412473</v>
+        <v>0.005723839241247308</v>
       </c>
       <c r="L214">
         <v>-0.0006690315214382215</v>
@@ -16405,13 +16405,13 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="U214">
-        <v>1.000015711165926</v>
+        <v>1.571116592558042E-05</v>
       </c>
       <c r="V214">
-        <v>1.000015713634721</v>
+        <v>1.571363472052667E-05</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16446,7 +16446,7 @@
         <v>1.023160490817363</v>
       </c>
       <c r="K215">
-        <v>50.57238392412473</v>
+        <v>0.005723839241247308</v>
       </c>
       <c r="L215">
         <v>-0.0007259194084881054</v>
@@ -16476,13 +16476,13 @@
         <v>-0.01124999999998977</v>
       </c>
       <c r="U215">
-        <v>1.000015710919089</v>
+        <v>1.571091908880717E-05</v>
       </c>
       <c r="V215">
-        <v>1.000031426775613</v>
+        <v>3.142677561296381E-05</v>
       </c>
       <c r="W215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16517,7 +16517,7 @@
         <v>1.023160490817363</v>
       </c>
       <c r="K216">
-        <v>50.57238392412473</v>
+        <v>0.005723839241247308</v>
       </c>
       <c r="L216">
         <v>-0.000720265783154427</v>
@@ -16547,13 +16547,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U216">
-        <v>1.000023566008389</v>
+        <v>2.356600838937517E-05</v>
       </c>
       <c r="V216">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16588,7 +16588,7 @@
         <v>1.125918295796053</v>
       </c>
       <c r="K217">
-        <v>52.96150364868332</v>
+        <v>0.02961503648683317</v>
       </c>
       <c r="L217">
         <v>-0.0005886407583941774</v>
@@ -16618,13 +16618,13 @@
         <v>-0.007499999999993179</v>
       </c>
       <c r="U217">
-        <v>1.000031420604061</v>
+        <v>3.142060406124969E-05</v>
       </c>
       <c r="V217">
-        <v>1.000031425788001</v>
+        <v>3.142578800141571E-05</v>
       </c>
       <c r="W217">
-        <v>1.000235682300259</v>
+        <v>0.0002356823002591657</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16659,7 +16659,7 @@
         <v>0.9256667515254968</v>
       </c>
       <c r="K218">
-        <v>48.06993477932729</v>
+        <v>-0.01930065220672711</v>
       </c>
       <c r="L218">
         <v>-0.0005585793206260072</v>
@@ -16689,13 +16689,13 @@
         <v>-0.005000000000009663</v>
       </c>
       <c r="U218">
-        <v>0.9999921450957905</v>
+        <v>-7.854904209514402E-06</v>
       </c>
       <c r="V218">
-        <v>0.9999842875997739</v>
+        <v>-1.571240022613107E-05</v>
       </c>
       <c r="W218">
-        <v>0.9995287464655986</v>
+        <v>-0.0004712535344013613</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16730,7 +16730,7 @@
         <v>0.9256667515254968</v>
       </c>
       <c r="K219">
-        <v>48.06993477932729</v>
+        <v>-0.01930065220672711</v>
       </c>
       <c r="L219">
         <v>-0.0005899309631835615</v>
@@ -16760,13 +16760,13 @@
         <v>-0.0037500000000108</v>
       </c>
       <c r="U219">
-        <v>0.9999607251704528</v>
+        <v>-3.927482954724226E-05</v>
       </c>
       <c r="V219">
-        <v>0.9999528620586708</v>
+        <v>-4.713794132915616E-05</v>
       </c>
       <c r="W219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16801,7 +16801,7 @@
         <v>0.9256667515254968</v>
       </c>
       <c r="K220">
-        <v>48.06993477932729</v>
+        <v>-0.01930065220672711</v>
       </c>
       <c r="L220">
         <v>-0.0006543435422600407</v>
@@ -16831,13 +16831,13 @@
         <v>0.002500000000011937</v>
       </c>
       <c r="U220">
-        <v>0.999968578902304</v>
+        <v>-3.142109769604939E-05</v>
       </c>
       <c r="V220">
-        <v>0.9999371464487743</v>
+        <v>-6.285355122570557E-05</v>
       </c>
       <c r="W220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16872,7 +16872,7 @@
         <v>1.029388107563347</v>
       </c>
       <c r="K221">
-        <v>50.72406326453328</v>
+        <v>0.007240632645332812</v>
       </c>
       <c r="L221">
         <v>-0.0006464783384934024</v>
@@ -16902,13 +16902,13 @@
         <v>0.006250000000008527</v>
       </c>
       <c r="U221">
-        <v>0.9999685779149874</v>
+        <v>-3.142208501261123E-05</v>
       </c>
       <c r="V221">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W221">
-        <v>1.0002357378595</v>
+        <v>0.0002357378595001514</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16943,7 +16943,7 @@
         <v>1.138568482340031</v>
       </c>
       <c r="K222">
-        <v>53.23974853936893</v>
+        <v>0.03239748539368936</v>
       </c>
       <c r="L222">
         <v>-0.0005071501450390553</v>
@@ -16973,13 +16973,13 @@
         <v>0.00750000000000739</v>
       </c>
       <c r="U222">
-        <v>0.9999921442319025</v>
+        <v>-7.855768097475568E-06</v>
       </c>
       <c r="V222">
-        <v>1.000015714375511</v>
+        <v>1.571437551084465E-05</v>
       </c>
       <c r="W222">
-        <v>1.000235682300259</v>
+        <v>0.0002356823002591657</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17014,7 +17014,7 @@
         <v>1.253495192631359</v>
       </c>
       <c r="K223">
-        <v>55.62448931464899</v>
+        <v>0.05624489314648995</v>
       </c>
       <c r="L223">
         <v>-0.0002093857650987255</v>
@@ -17044,13 +17044,13 @@
         <v>0.009999999999990905</v>
       </c>
       <c r="U223">
-        <v>1.000015711659623</v>
+        <v>1.571165962266363E-05</v>
       </c>
       <c r="V223">
-        <v>1.000047142385719</v>
+        <v>4.714238571890128E-05</v>
       </c>
       <c r="W223">
-        <v>1.000235626767201</v>
+        <v>0.0002356267672007917</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17085,7 +17085,7 @@
         <v>1.374470677148461</v>
       </c>
       <c r="K224">
-        <v>57.88535063313918</v>
+        <v>0.07885350633139177</v>
       </c>
       <c r="L224">
         <v>0.0002519747511369857</v>
@@ -17115,13 +17115,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U224">
-        <v>1.000023567119155</v>
+        <v>2.356711915529885E-05</v>
       </c>
       <c r="V224">
-        <v>1.000062853551226</v>
+        <v>6.285355122592762E-05</v>
       </c>
       <c r="W224">
-        <v>1.000235571260306</v>
+        <v>0.0002355712603061555</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17156,7 +17156,7 @@
         <v>1.095470516164726</v>
       </c>
       <c r="K225">
-        <v>52.27802098450572</v>
+        <v>0.02278020984505724</v>
       </c>
       <c r="L225">
         <v>0.0006104822137880745</v>
@@ -17186,13 +17186,13 @@
         <v>0.009999999999990905</v>
       </c>
       <c r="U225">
-        <v>0.9999764334362408</v>
+        <v>-2.356656375923638E-05</v>
       </c>
       <c r="V225">
-        <v>1.000047137200679</v>
+        <v>4.713720067872629E-05</v>
       </c>
       <c r="W225">
-        <v>0.9995289684408855</v>
+        <v>-0.0004710315591145431</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17227,7 +17227,7 @@
         <v>1.095470516164726</v>
       </c>
       <c r="K226">
-        <v>52.27802098450572</v>
+        <v>0.02278020984505724</v>
       </c>
       <c r="L226">
         <v>0.0008816064145531141</v>
@@ -17257,13 +17257,13 @@
         <v>0.01124999999998977</v>
       </c>
       <c r="U226">
-        <v>0.9999842885872295</v>
+        <v>-1.571141277045829E-05</v>
       </c>
       <c r="V226">
-        <v>1.000031423319245</v>
+        <v>3.142331924532726E-05</v>
       </c>
       <c r="W226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17298,7 +17298,7 @@
         <v>0.8191198700271182</v>
       </c>
       <c r="K227">
-        <v>45.02836143584685</v>
+        <v>-0.04971638564153152</v>
       </c>
       <c r="L227">
         <v>0.0008218398535039658</v>
@@ -17328,13 +17328,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U227">
-        <v>0.9999685766807549</v>
+        <v>-3.142331924510522E-05</v>
       </c>
       <c r="V227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W227">
-        <v>0.9992931196983977</v>
+        <v>-0.000706880301602264</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17369,7 +17369,7 @@
         <v>0.8191198700271181</v>
       </c>
       <c r="K228">
-        <v>45.02836143584685</v>
+        <v>-0.04971638564153152</v>
       </c>
       <c r="L228">
         <v>0.0005624335081538804</v>
@@ -17399,13 +17399,13 @@
         <v>0.007499999999993179</v>
       </c>
       <c r="U228">
-        <v>0.9999685756932989</v>
+        <v>-3.142430670111107E-05</v>
       </c>
       <c r="V228">
-        <v>0.9999685776681485</v>
+        <v>-3.14223318514939E-05</v>
       </c>
       <c r="W228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17440,7 +17440,7 @@
         <v>0.6904558204187635</v>
       </c>
       <c r="K229">
-        <v>40.84435760336655</v>
+        <v>-0.09155642396633451</v>
       </c>
       <c r="L229">
         <v>2.492790076687116E-05</v>
@@ -17470,13 +17470,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U229">
-        <v>0.9999764310293354</v>
+        <v>-2.356897066457808E-05</v>
       </c>
       <c r="V229">
-        <v>0.9999371533615097</v>
+        <v>-6.284663849032146E-05</v>
       </c>
       <c r="W229">
-        <v>0.9995284131101156</v>
+        <v>-0.0004715868898843567</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17511,7 +17511,7 @@
         <v>0.5924914333828649</v>
       </c>
       <c r="K230">
-        <v>37.2053136966809</v>
+        <v>-0.127946863033191</v>
       </c>
       <c r="L230">
         <v>-0.0008185353414148564</v>
@@ -17541,13 +17541,13 @@
         <v>-0.007499999999993179</v>
       </c>
       <c r="U230">
-        <v>0.9999685739651015</v>
+        <v>-3.142603489847406E-05</v>
       </c>
       <c r="V230">
-        <v>0.9999057241173421</v>
+        <v>-9.427588265786824E-05</v>
       </c>
       <c r="W230">
-        <v>0.9995281906109931</v>
+        <v>-0.0004718093890069275</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17582,7 +17582,7 @@
         <v>0.7418426363949076</v>
       </c>
       <c r="K231">
-        <v>42.58953253838703</v>
+        <v>-0.07410467461612974</v>
       </c>
       <c r="L231">
         <v>-0.00161900343120726</v>
@@ -17612,13 +17612,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U231">
-        <v>0.9999685729774744</v>
+        <v>-3.142702252556528E-05</v>
       </c>
       <c r="V231">
-        <v>0.9999371434857079</v>
+        <v>-6.285651429205341E-05</v>
       </c>
       <c r="W231">
-        <v>1.000472032098183</v>
+        <v>0.0004720320981828063</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17653,7 +17653,7 @@
         <v>0.7418426363949076</v>
       </c>
       <c r="K232">
-        <v>42.58953253838703</v>
+        <v>-0.07410467461612974</v>
       </c>
       <c r="L232">
         <v>-0.00233654349227878</v>
@@ -17683,13 +17683,13 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="U232">
-        <v>0.9999764289923395</v>
+        <v>-2.357100766048337E-05</v>
       </c>
       <c r="V232">
-        <v>0.9999214244181479</v>
+        <v>-7.857558185209168E-05</v>
       </c>
       <c r="W232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17724,7 +17724,7 @@
         <v>0.9073287339151177</v>
       </c>
       <c r="K233">
-        <v>47.57065301756717</v>
+        <v>-0.02429346982432823</v>
       </c>
       <c r="L233">
         <v>-0.002777989244918375</v>
@@ -17754,13 +17754,13 @@
         <v>-0.03374999999999773</v>
       </c>
       <c r="U233">
-        <v>0.999984285624489</v>
+        <v>-1.571437551095567E-05</v>
       </c>
       <c r="V233">
-        <v>0.9999842836487081</v>
+        <v>-1.571635129193893E-05</v>
       </c>
       <c r="W233">
-        <v>1.000471809389007</v>
+        <v>0.0004718093890068165</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17795,7 +17795,7 @@
         <v>0.7193634872721694</v>
       </c>
       <c r="K234">
-        <v>41.83894171286985</v>
+        <v>-0.08161058287130152</v>
       </c>
       <c r="L234">
         <v>-0.003271406726190729</v>
@@ -17825,13 +17825,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U234">
-        <v>0.9999449988214036</v>
+        <v>-5.500117859635889E-05</v>
       </c>
       <c r="V234">
-        <v>0.9999371336068023</v>
+        <v>-6.286639319774689E-05</v>
       </c>
       <c r="W234">
-        <v>0.9992926196651735</v>
+        <v>-0.0007073803348265351</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17866,7 +17866,7 @@
         <v>0.6280578341968402</v>
       </c>
       <c r="K235">
-        <v>38.57712060374539</v>
+        <v>-0.1142287939625461</v>
       </c>
       <c r="L235">
         <v>-0.003924642328081957</v>
@@ -17896,13 +17896,13 @@
         <v>-0.04875000000001251</v>
       </c>
       <c r="U235">
-        <v>0.9999214225658675</v>
+        <v>-7.857743413253182E-05</v>
       </c>
       <c r="V235">
-        <v>0.9999056944815554</v>
+        <v>-9.430551844458179E-05</v>
       </c>
       <c r="W235">
-        <v>0.9995280792826804</v>
+        <v>-0.0004719207173196072</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17937,7 +17937,7 @@
         <v>0.5887289973082648</v>
       </c>
       <c r="K236">
-        <v>37.05660300187952</v>
+        <v>-0.1294339699812048</v>
       </c>
       <c r="L236">
         <v>-0.004704667940518123</v>
@@ -17967,13 +17967,13 @@
         <v>-0.05499999999999261</v>
       </c>
       <c r="U236">
-        <v>0.9999371331127752</v>
+        <v>-6.286688722478839E-05</v>
       </c>
       <c r="V236">
-        <v>0.9998742474495808</v>
+        <v>-0.0001257525504192447</v>
       </c>
       <c r="W236">
-        <v>0.9997639282341833</v>
+        <v>-0.0002360717658167477</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18008,7 +18008,7 @@
         <v>0.6546445442819373</v>
       </c>
       <c r="K237">
-        <v>39.56405903275329</v>
+        <v>-0.1043594096724671</v>
       </c>
       <c r="L237">
         <v>-0.005408903451552267</v>
@@ -18038,13 +18038,13 @@
         <v>-0.05374999999999375</v>
       </c>
       <c r="U237">
-        <v>0.999944988015246</v>
+        <v>-5.501198475399427E-05</v>
       </c>
       <c r="V237">
-        <v>0.9998742316338884</v>
+        <v>-0.0001257683661115561</v>
       </c>
       <c r="W237">
-        <v>1.000236127508855</v>
+        <v>0.000236127508854711</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18079,7 +18079,7 @@
         <v>0.862798903146215</v>
       </c>
       <c r="K238">
-        <v>46.31734008909775</v>
+        <v>-0.03682659910902253</v>
       </c>
       <c r="L238">
         <v>-0.005745183860804454</v>
@@ -18109,13 +18109,13 @@
         <v>-0.04250000000001819</v>
       </c>
       <c r="U238">
-        <v>0.9999764221380407</v>
+        <v>-2.357786195927858E-05</v>
       </c>
       <c r="V238">
-        <v>0.9999056618606627</v>
+        <v>-9.433813933734658E-05</v>
       </c>
       <c r="W238">
-        <v>1.00070821529745</v>
+        <v>0.0007082152974504652</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18150,7 +18150,7 @@
         <v>1.227981988872983</v>
       </c>
       <c r="K239">
-        <v>55.11633374981427</v>
+        <v>0.05116333749814261</v>
       </c>
       <c r="L239">
         <v>-0.005386964259856116</v>
@@ -18180,13 +18180,13 @@
         <v>-0.02875000000000227</v>
       </c>
       <c r="U239">
-        <v>1.000015718945259</v>
+        <v>1.571894525853601E-05</v>
       </c>
       <c r="V239">
-        <v>0.9999685509867128</v>
+        <v>-3.144901328722138E-05</v>
       </c>
       <c r="W239">
-        <v>1.001179523472517</v>
+        <v>0.00117952347251693</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18221,7 +18221,7 @@
         <v>1.06432932849079</v>
       </c>
       <c r="K240">
-        <v>51.5581169051602</v>
+        <v>0.01558116905160201</v>
       </c>
       <c r="L240">
         <v>-0.004782815070897477</v>
@@ -18251,13 +18251,13 @@
         <v>-0.01624999999998522</v>
       </c>
       <c r="U240">
-        <v>1.000007859349089</v>
+        <v>7.859349088645828E-06</v>
       </c>
       <c r="V240">
-        <v>0.9999685499976412</v>
+        <v>-3.145000235882378E-05</v>
       </c>
       <c r="W240">
-        <v>0.9995287464655986</v>
+        <v>-0.0004712535344013613</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18292,7 +18292,7 @@
         <v>0.8311387524600052</v>
       </c>
       <c r="K241">
-        <v>45.38917388665546</v>
+        <v>-0.04610826113344546</v>
       </c>
       <c r="L241">
         <v>-0.004394133233603217</v>
@@ -18322,13 +18322,13 @@
         <v>-0.01624999999998522</v>
       </c>
       <c r="U241">
-        <v>0.999968562850721</v>
+        <v>-3.14371492790011E-05</v>
       </c>
       <c r="V241">
-        <v>0.9999056470255223</v>
+        <v>-9.435297447768498E-05</v>
       </c>
       <c r="W241">
-        <v>0.9990570485619991</v>
+        <v>-0.0009429514380009385</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18363,7 +18363,7 @@
         <v>0.8311387524600052</v>
       </c>
       <c r="K242">
-        <v>45.38917388665546</v>
+        <v>-0.04610826113344546</v>
       </c>
       <c r="L242">
         <v>-0.004144777416096405</v>
@@ -18393,13 +18393,13 @@
         <v>-0.008750000000006253</v>
       </c>
       <c r="U242">
-        <v>0.9999764213967963</v>
+        <v>-2.357860320367777E-05</v>
       </c>
       <c r="V242">
-        <v>0.9999528190610995</v>
+        <v>-4.718093890054842E-05</v>
       </c>
       <c r="W242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18434,7 +18434,7 @@
         <v>0.8311387524600051</v>
       </c>
       <c r="K243">
-        <v>45.38917388665546</v>
+        <v>-0.04610826113344546</v>
       </c>
       <c r="L243">
         <v>-0.003980642373334896</v>
@@ -18464,13 +18464,13 @@
         <v>0</v>
       </c>
       <c r="U243">
-        <v>0.999960701401388</v>
+        <v>-3.929859861195872E-05</v>
       </c>
       <c r="V243">
-        <v>0.9999528168349534</v>
+        <v>-4.71831650465937E-05</v>
       </c>
       <c r="W243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18505,7 +18505,7 @@
         <v>0.781229313382809</v>
       </c>
       <c r="K244">
-        <v>43.85899712705395</v>
+        <v>-0.06141002872946055</v>
       </c>
       <c r="L244">
         <v>-0.00394997794602106</v>
@@ -18535,13 +18535,13 @@
         <v>0.009999999999990905</v>
       </c>
       <c r="U244">
-        <v>0.9999528398283369</v>
+        <v>-4.716017166306319E-05</v>
       </c>
       <c r="V244">
-        <v>0.9999685430723981</v>
+        <v>-3.145692760186947E-05</v>
       </c>
       <c r="W244">
-        <v>0.9997640396413401</v>
+        <v>-0.0002359603586599146</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18576,7 +18576,7 @@
         <v>1.09727913962835</v>
       </c>
       <c r="K245">
-        <v>52.31917482490167</v>
+        <v>0.02319174824901671</v>
       </c>
       <c r="L245">
         <v>-0.003558423004627357</v>
@@ -18606,13 +18606,13 @@
         <v>0.02124999999999488</v>
       </c>
       <c r="U245">
-        <v>0.9999921396006918</v>
+        <v>-7.860399308223798E-06</v>
       </c>
       <c r="V245">
-        <v>1.000078644792928</v>
+        <v>7.86447929284062E-05</v>
       </c>
       <c r="W245">
-        <v>1.001180080245457</v>
+        <v>0.001180080245456683</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18647,7 +18647,7 @@
         <v>1.028824447448675</v>
       </c>
       <c r="K246">
-        <v>50.71037312974326</v>
+        <v>0.007103731297432581</v>
       </c>
       <c r="L246">
         <v>-0.003046057957180706</v>
@@ -18677,13 +18677,13 @@
         <v>0.02124999999999488</v>
       </c>
       <c r="U246">
-        <v>0.9999842790778107</v>
+        <v>-1.572092218926624E-05</v>
       </c>
       <c r="V246">
-        <v>1.000031455443364</v>
+        <v>3.145544336424777E-05</v>
       </c>
       <c r="W246">
-        <v>0.9997642621404996</v>
+        <v>-0.0002357378595003734</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18718,7 +18718,7 @@
         <v>1.225832395872317</v>
       </c>
       <c r="K247">
-        <v>55.07298744261049</v>
+        <v>0.05072987442610488</v>
       </c>
       <c r="L247">
         <v>-0.002224421612646138</v>
@@ -18748,13 +18748,13 @@
         <v>0.01499999999998636</v>
       </c>
       <c r="U247">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V247">
-        <v>1.000078636134877</v>
+        <v>7.863613487679721E-05</v>
       </c>
       <c r="W247">
-        <v>1.000707380334827</v>
+        <v>0.0007073803348267571</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18789,7 +18789,7 @@
         <v>1.29495799181047</v>
       </c>
       <c r="K248">
-        <v>56.4262176663587</v>
+        <v>0.06426217666358691</v>
       </c>
       <c r="L248">
         <v>-0.001173773140836202</v>
@@ -18819,13 +18819,13 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="U248">
-        <v>1.000023581754011</v>
+        <v>2.358175401107054E-05</v>
       </c>
       <c r="V248">
-        <v>1.000062903961377</v>
+        <v>6.290396137687004E-05</v>
       </c>
       <c r="W248">
-        <v>1.000235626767201</v>
+        <v>0.0002356267672007917</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18860,7 +18860,7 @@
         <v>1.062929639830714</v>
       </c>
       <c r="K249">
-        <v>51.5252493011802</v>
+        <v>0.01525249301180198</v>
       </c>
       <c r="L249">
         <v>-0.0003046826296251339</v>
@@ -18890,13 +18890,13 @@
         <v>0.02374999999999261</v>
       </c>
       <c r="U249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V249">
-        <v>1.000062900004718</v>
+        <v>6.290000471764756E-05</v>
       </c>
       <c r="W249">
-        <v>0.9992932862190812</v>
+        <v>-0.0007067137809187996</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18931,7 +18931,7 @@
         <v>1.000056513222193</v>
       </c>
       <c r="K250">
-        <v>50.00141279063414</v>
+        <v>1.412790634136574E-05</v>
       </c>
       <c r="L250">
         <v>0.0003142511484478514</v>
@@ -18961,13 +18961,13 @@
         <v>0.02750000000000341</v>
       </c>
       <c r="U250">
-        <v>0.9999921396006917</v>
+        <v>-7.86039930833482E-06</v>
       </c>
       <c r="V250">
-        <v>1.000078620060695</v>
+        <v>7.862006069458971E-05</v>
       </c>
       <c r="W250">
-        <v>0.9997642621404996</v>
+        <v>-0.0002357378595003734</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19002,7 +19002,7 @@
         <v>1.000056513222193</v>
       </c>
       <c r="K251">
-        <v>50.00141279063414</v>
+        <v>1.412790634136574E-05</v>
       </c>
       <c r="L251">
         <v>0.0007410378242855607</v>
@@ -19032,13 +19032,13 @@
         <v>0.02875000000000227</v>
       </c>
       <c r="U251">
-        <v>0.9999842790778108</v>
+        <v>-1.572092218915522E-05</v>
       </c>
       <c r="V251">
-        <v>1.00009433665608</v>
+        <v>9.433665608016284E-05</v>
       </c>
       <c r="W251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19073,7 +19073,7 @@
         <v>1.000056513222192</v>
       </c>
       <c r="K252">
-        <v>50.00141279063414</v>
+        <v>1.412790634136574E-05</v>
       </c>
       <c r="L252">
         <v>0.001021516734012721</v>
@@ -19103,13 +19103,13 @@
         <v>0.03125000000001421</v>
       </c>
       <c r="U252">
-        <v>0.9999764182459892</v>
+        <v>-2.35817540108485E-05</v>
       </c>
       <c r="V252">
-        <v>1.000078606464596</v>
+        <v>7.860646459567633E-05</v>
       </c>
       <c r="W252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19144,7 +19144,7 @@
         <v>1.345009356349007</v>
       </c>
       <c r="K253">
-        <v>57.35624690398163</v>
+        <v>0.07356246903981623</v>
       </c>
       <c r="L253">
         <v>0.001621141381434612</v>
@@ -19174,13 +19174,13 @@
         <v>0.02874999999998806</v>
       </c>
       <c r="U253">
-        <v>1.000007860770041</v>
+        <v>7.860770040890586E-06</v>
       </c>
       <c r="V253">
-        <v>1.000110040400547</v>
+        <v>0.0001100404005469624</v>
       </c>
       <c r="W253">
-        <v>1.001178967224711</v>
+        <v>0.001178967224711336</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19215,7 +19215,7 @@
         <v>1.104399426573717</v>
       </c>
       <c r="K254">
-        <v>52.48050406342524</v>
+        <v>0.02480504063425237</v>
       </c>
       <c r="L254">
         <v>0.002112353224253476</v>
@@ -19245,13 +19245,13 @@
         <v>0.02874999999998806</v>
       </c>
       <c r="U254">
-        <v>0.9999764178752505</v>
+        <v>-2.358212474951049E-05</v>
       </c>
       <c r="V254">
-        <v>0.9999842816724303</v>
+        <v>-1.5718327569747E-05</v>
       </c>
       <c r="W254">
-        <v>0.9992934526613283</v>
+        <v>-0.0007065473386717036</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19286,7 +19286,7 @@
         <v>1.104399426573717</v>
       </c>
       <c r="K255">
-        <v>52.48050406342524</v>
+        <v>0.02480504063425237</v>
       </c>
       <c r="L255">
         <v>0.002498879674430601</v>
@@ -19316,13 +19316,13 @@
         <v>0.02750000000000341</v>
       </c>
       <c r="U255">
-        <v>0.9999921391063736</v>
+        <v>-7.860893626365772E-06</v>
       </c>
       <c r="V255">
-        <v>1.000015718574639</v>
+        <v>1.571857463944504E-05</v>
       </c>
       <c r="W255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19357,7 +19357,7 @@
         <v>1.104399426573717</v>
       </c>
       <c r="K256">
-        <v>52.48050406342524</v>
+        <v>0.02480504063425248</v>
       </c>
       <c r="L256">
         <v>0.002788244508070134</v>
@@ -19387,13 +19387,13 @@
         <v>0.02125000000000909</v>
       </c>
       <c r="U256">
-        <v>0.9999921390445795</v>
+        <v>-7.860955420491145E-06</v>
       </c>
       <c r="V256">
-        <v>1.00007859163785</v>
+        <v>7.85916378496232E-05</v>
       </c>
       <c r="W256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19428,7 +19428,7 @@
         <v>1.032583409831734</v>
       </c>
       <c r="K257">
-        <v>50.80152700435627</v>
+        <v>0.008015270043562728</v>
       </c>
       <c r="L257">
         <v>0.002904278016156569</v>
@@ -19458,13 +19458,13 @@
         <v>0.01624999999998522</v>
       </c>
       <c r="U257">
-        <v>1.000007861017216</v>
+        <v>7.861017215615718E-06</v>
       </c>
       <c r="V257">
-        <v>1.000062868369352</v>
+        <v>6.28683693517651E-05</v>
       </c>
       <c r="W257">
-        <v>0.9997643176997408</v>
+        <v>-0.0002356823002591657</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19499,7 +19499,7 @@
         <v>1.169482805608048</v>
       </c>
       <c r="K258">
-        <v>53.90606473510506</v>
+        <v>0.03906064735105064</v>
       </c>
       <c r="L258">
         <v>0.003069066891791938</v>
@@ -19529,13 +19529,13 @@
         <v>0.01624999999999943</v>
       </c>
       <c r="U258">
-        <v>1.000023582866262</v>
+        <v>2.358286626158446E-05</v>
       </c>
       <c r="V258">
-        <v>1.000094296625752</v>
+        <v>9.429662575222153E-05</v>
       </c>
       <c r="W258">
-        <v>1.000471475719</v>
+        <v>0.0004714757190003027</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19570,7 +19570,7 @@
         <v>1.24153511917458</v>
       </c>
       <c r="K259">
-        <v>55.38771659449893</v>
+        <v>0.05387716594498926</v>
       </c>
       <c r="L259">
         <v>0.003327564906918263</v>
@@ -19600,13 +19600,13 @@
         <v>0.01750000000001251</v>
       </c>
       <c r="U259">
-        <v>1.000047164620246</v>
+        <v>4.716462024623169E-05</v>
       </c>
       <c r="V259">
-        <v>1.00012571697965</v>
+        <v>0.0001257169796498037</v>
       </c>
       <c r="W259">
-        <v>1.000235626767201</v>
+        <v>0.0002356267672007917</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Orkla 15.12.2020.xlsx
+++ b/data_clean/Orkla 15.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1214,13 +1217,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W259"/>
+  <dimension ref="A1:X259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1290,10 +1293,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>85.04000000000001</v>
@@ -1350,7 +1356,7 @@
         <v>85.04000000000001</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>85.04000000000001</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1361,10 +1367,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>85.02</v>
@@ -1421,7 +1430,7 @@
         <v>85.03</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>85.03</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1432,10 +1441,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>85.09999999999999</v>
@@ -1492,21 +1504,24 @@
         <v>85.05333333333333</v>
       </c>
       <c r="T4">
+        <v>85.05333333333333</v>
+      </c>
+      <c r="U4">
         <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.0002744129522913585</v>
       </c>
       <c r="V4">
         <v>0.0002744129522913585</v>
       </c>
       <c r="W4">
+        <v>0.0002744129522913585</v>
+      </c>
+      <c r="X4">
         <v>0.0009409550693955104</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>85.08</v>
@@ -1563,21 +1578,24 @@
         <v>85.06</v>
       </c>
       <c r="T5">
+        <v>85.06666666666666</v>
+      </c>
+      <c r="U5">
         <v>0</v>
-      </c>
-      <c r="U5">
-        <v>7.83821915661953E-05</v>
       </c>
       <c r="V5">
         <v>7.83821915661953E-05</v>
       </c>
       <c r="W5">
+        <v>7.83821915661953E-05</v>
+      </c>
+      <c r="X5">
         <v>-0.0002350176263219428</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>85</v>
@@ -1634,21 +1652,24 @@
         <v>85.048</v>
       </c>
       <c r="T6">
+        <v>85.06</v>
+      </c>
+      <c r="U6">
         <v>0</v>
-      </c>
-      <c r="U6">
-        <v>-0.0001410768869033463</v>
       </c>
       <c r="V6">
         <v>-0.0001410768869033463</v>
       </c>
       <c r="W6">
+        <v>-0.0001410768869033463</v>
+      </c>
+      <c r="X6">
         <v>-0.0009402914903620108</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>84.73999999999999</v>
@@ -1705,21 +1726,24 @@
         <v>84.99666666666667</v>
       </c>
       <c r="T7">
+        <v>84.94</v>
+      </c>
+      <c r="U7">
         <v>0</v>
-      </c>
-      <c r="U7">
-        <v>-0.0006035807230426737</v>
       </c>
       <c r="V7">
         <v>-0.0006035807230426737</v>
       </c>
       <c r="W7">
+        <v>-0.0006035807230426737</v>
+      </c>
+      <c r="X7">
         <v>-0.00305882352941178</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>84.90000000000001</v>
@@ -1776,21 +1800,24 @@
         <v>84.98285714285714</v>
       </c>
       <c r="T8">
+        <v>84.88000000000001</v>
+      </c>
+      <c r="U8">
         <v>0</v>
-      </c>
-      <c r="U8">
-        <v>-0.0001624713574202019</v>
       </c>
       <c r="V8">
         <v>-0.0001624713574202019</v>
       </c>
       <c r="W8">
+        <v>-0.0001624713574202019</v>
+      </c>
+      <c r="X8">
         <v>0.001888128392730781</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>85</v>
@@ -1847,21 +1874,24 @@
         <v>84.985</v>
       </c>
       <c r="T9">
+        <v>84.88</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>2.521516944598012E-05</v>
       </c>
       <c r="V9">
         <v>2.521516944598012E-05</v>
       </c>
       <c r="W9">
+        <v>2.521516944598012E-05</v>
+      </c>
+      <c r="X9">
         <v>0.001177856301531222</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>85.04000000000001</v>
@@ -1918,21 +1948,24 @@
         <v>84.99111111111111</v>
       </c>
       <c r="T10">
+        <v>84.98</v>
+      </c>
+      <c r="U10">
         <v>-0.00611111111111029</v>
-      </c>
-      <c r="U10">
-        <v>7.190811450374923E-05</v>
       </c>
       <c r="V10">
         <v>7.190811450374923E-05</v>
       </c>
       <c r="W10">
+        <v>7.190811450374923E-05</v>
+      </c>
+      <c r="X10">
         <v>0.0004705882352942226</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>85</v>
@@ -1989,21 +2022,24 @@
         <v>84.99199999999999</v>
       </c>
       <c r="T11">
+        <v>85.01333333333334</v>
+      </c>
+      <c r="U11">
         <v>-0.009500000000002728</v>
-      </c>
-      <c r="U11">
-        <v>1.045861005066762E-05</v>
       </c>
       <c r="V11">
         <v>1.045861005066762E-05</v>
       </c>
       <c r="W11">
+        <v>1.045861005066762E-05</v>
+      </c>
+      <c r="X11">
         <v>-0.0004703668861713028</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>85.06</v>
@@ -2060,21 +2096,24 @@
         <v>84.99818181818182</v>
       </c>
       <c r="T12">
+        <v>85.03333333333335</v>
+      </c>
+      <c r="U12">
         <v>-0.02068181818181358</v>
-      </c>
-      <c r="U12">
-        <v>7.273411829156196E-05</v>
       </c>
       <c r="V12">
         <v>7.273411829156196E-05</v>
       </c>
       <c r="W12">
+        <v>7.273411829156196E-05</v>
+      </c>
+      <c r="X12">
         <v>0.0007058823529411118</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>85.06</v>
@@ -2131,21 +2170,24 @@
         <v>85.00333333333333</v>
       </c>
       <c r="T13">
+        <v>85.04000000000001</v>
+      </c>
+      <c r="U13">
         <v>-0.02833333333333599</v>
-      </c>
-      <c r="U13">
-        <v>6.060735701995945E-05</v>
       </c>
       <c r="V13">
         <v>6.060735701995945E-05</v>
       </c>
       <c r="W13">
+        <v>6.060735701995945E-05</v>
+      </c>
+      <c r="X13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>85</v>
@@ -2202,21 +2244,24 @@
         <v>85.00307692307692</v>
       </c>
       <c r="T14">
+        <v>85.04000000000001</v>
+      </c>
+      <c r="U14">
         <v>-0.02807692307692378</v>
-      </c>
-      <c r="U14">
-        <v>-3.016472958861094E-06</v>
       </c>
       <c r="V14">
         <v>-3.016472958861094E-06</v>
       </c>
       <c r="W14">
+        <v>-3.016472958861094E-06</v>
+      </c>
+      <c r="X14">
         <v>-0.0007053844345168425</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>84.81999999999999</v>
@@ -2273,21 +2318,24 @@
         <v>84.98999999999999</v>
       </c>
       <c r="T15">
+        <v>84.95999999999999</v>
+      </c>
+      <c r="U15">
         <v>-0.004999999999995453</v>
-      </c>
-      <c r="U15">
-        <v>-0.0001538405849561553</v>
       </c>
       <c r="V15">
         <v>-0.0001538405849561553</v>
       </c>
       <c r="W15">
+        <v>-0.0001538405849561553</v>
+      </c>
+      <c r="X15">
         <v>-0.002117647058823557</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>84.84</v>
@@ -2344,21 +2392,24 @@
         <v>84.98</v>
       </c>
       <c r="T16">
+        <v>84.88666666666666</v>
+      </c>
+      <c r="U16">
         <v>-0.002499999999997726</v>
-      </c>
-      <c r="U16">
-        <v>-0.0001176609012824015</v>
       </c>
       <c r="V16">
         <v>-0.0001176609012824015</v>
       </c>
       <c r="W16">
+        <v>-0.0001176609012824015</v>
+      </c>
+      <c r="X16">
         <v>0.0002357934449424004</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>85.06</v>
@@ -2415,21 +2466,24 @@
         <v>84.98133333333334</v>
       </c>
       <c r="T17">
+        <v>84.90666666666665</v>
+      </c>
+      <c r="U17">
         <v>0</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>5.883737349954288E-05</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1.568996626666319E-05</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.002593116454502553</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>84.90000000000001</v>
@@ -2486,21 +2540,24 @@
         <v>84.97333333333334</v>
       </c>
       <c r="T18">
+        <v>84.93333333333334</v>
+      </c>
+      <c r="U18">
         <v>-0.008750000000006253</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-5.883391186678466E-05</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-9.41383205722568E-05</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-0.001881025158711469</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>85.04000000000001</v>
@@ -2557,21 +2614,24 @@
         <v>84.96933333333332</v>
       </c>
       <c r="T19">
+        <v>85.00000000000001</v>
+      </c>
+      <c r="U19">
         <v>-0.004999999999995453</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>3.922491566643593E-05</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-4.707359171529646E-05</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.001648998822143755</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>85.04000000000001</v>
@@ -2628,21 +2688,24 @@
         <v>84.96666666666667</v>
       </c>
       <c r="T20">
+        <v>84.99333333333334</v>
+      </c>
+      <c r="U20">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>3.509460059247793E-05</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-3.138387182810565E-05</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>84.90000000000001</v>
@@ -2699,21 +2762,24 @@
         <v>84.96000000000001</v>
       </c>
       <c r="T21">
+        <v>84.99333333333334</v>
+      </c>
+      <c r="U21">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-5.0782169265573E-05</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-7.846214201645552E-05</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-0.001646284101599282</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>85.06</v>
@@ -2770,21 +2836,24 @@
         <v>84.98133333333334</v>
       </c>
       <c r="T22">
+        <v>85</v>
+      </c>
+      <c r="U22">
         <v>-0.008749999999992042</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>4.370673453557572E-05</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.0002510985561832157</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.00188457008244991</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>85.09999999999999</v>
@@ -2841,21 +2910,24 @@
         <v>84.99466666666667</v>
       </c>
       <c r="T23">
+        <v>85.02</v>
+      </c>
+      <c r="U23">
         <v>0.0037500000000108</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>6.11256284477335E-05</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.0001568972009540204</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.000470256289677673</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>85.12</v>
@@ -2912,21 +2984,24 @@
         <v>85.00266666666668</v>
       </c>
       <c r="T24">
+        <v>85.09333333333335</v>
+      </c>
+      <c r="U24">
         <v>0.02499999999999147</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>6.603821845652114E-05</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>9.412355285043361E-05</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.0002350176263221648</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>85.02</v>
@@ -2983,21 +3058,24 @@
         <v>85.00133333333333</v>
       </c>
       <c r="T25">
+        <v>85.08</v>
+      </c>
+      <c r="U25">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1.150942238048458E-05</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-1.568578240696006E-05</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-0.001174812030075301</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>85</v>
@@ -3054,21 +3132,24 @@
         <v>85.00133333333333</v>
       </c>
       <c r="T26">
+        <v>85.04666666666667</v>
+      </c>
+      <c r="U26">
         <v>0.03375000000001194</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1.176505191269328E-06</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-0.0002352387673487666</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>85</v>
@@ -3125,21 +3206,24 @@
         <v>84.99733333333333</v>
       </c>
       <c r="T27">
+        <v>85.00666666666666</v>
+      </c>
+      <c r="U27">
         <v>0.02875000000000227</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>1.08600351422794E-06</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-4.705808536342726E-05</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>85.04000000000001</v>
@@ -3196,21 +3280,24 @@
         <v>84.99600000000001</v>
       </c>
       <c r="T28">
+        <v>85.01333333333334</v>
+      </c>
+      <c r="U28">
         <v>0.03000000000000114</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>1.843522482092297E-05</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-1.568676664354118E-05</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.0004705882352942226</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>85.16</v>
@@ -3267,21 +3354,24 @@
         <v>85.00666666666667</v>
       </c>
       <c r="T29">
+        <v>85.06666666666666</v>
+      </c>
+      <c r="U29">
         <v>0.05624999999999147</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>6.753871493425656E-05</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.000125496101777367</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.001411100658513575</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>85.22</v>
@@ -3338,21 +3428,24 @@
         <v>85.03333333333335</v>
       </c>
       <c r="T30">
+        <v>85.14</v>
+      </c>
+      <c r="U30">
         <v>0.06249999999998579</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>8.721596498384443E-05</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.0003137008862050816</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.0007045561296383784</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>85.2</v>
@@ -3409,21 +3502,24 @@
         <v>85.05733333333333</v>
       </c>
       <c r="T31">
+        <v>85.19333333333333</v>
+      </c>
+      <c r="U31">
         <v>0.05124999999999602</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>7.355247644702523E-05</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.0002822422579378259</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-0.0002346866932644298</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>85.09999999999999</v>
@@ -3480,21 +3576,24 @@
         <v>85.06</v>
       </c>
       <c r="T32">
+        <v>85.17333333333333</v>
+      </c>
+      <c r="U32">
         <v>0.03249999999999886</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>2.352424565588151E-05</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>3.13514021914596E-05</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-0.001173708920187866</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>85.14</v>
@@ -3551,21 +3650,24 @@
         <v>85.07599999999999</v>
       </c>
       <c r="T33">
+        <v>85.14666666666666</v>
+      </c>
+      <c r="U33">
         <v>0.04250000000000398</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>4.704738455774127E-05</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.0001881025158709804</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.0004700352526441076</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>85.16</v>
@@ -3622,21 +3724,24 @@
         <v>85.084</v>
       </c>
       <c r="T34">
+        <v>85.13333333333333</v>
+      </c>
+      <c r="U34">
         <v>0.04625000000000057</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>2.352258560245346E-05</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>9.403356998460843E-05</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.000234907211651425</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>85.12</v>
@@ -3693,21 +3798,24 @@
         <v>85.08933333333333</v>
       </c>
       <c r="T35">
+        <v>85.14</v>
+      </c>
+      <c r="U35">
         <v>0.05625000000000568</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>1.568135486906819E-05</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>6.26831523355964E-05</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.0004697040864254376</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>85.2</v>
@@ -3764,21 +3872,24 @@
         <v>85.10933333333332</v>
       </c>
       <c r="T36">
+        <v>85.16000000000001</v>
+      </c>
+      <c r="U36">
         <v>0.06624999999999659</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>7.840554484017659E-05</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.00023504708776656</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.0009398496240602405</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>85.16</v>
@@ -3835,21 +3946,24 @@
         <v>85.116</v>
       </c>
       <c r="T37">
+        <v>85.16</v>
+      </c>
+      <c r="U37">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.0001646387355742629</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>7.833061787199114E-05</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>-0.0004694835680751908</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>85.16</v>
@@ -3906,21 +4020,24 @@
         <v>85.12000000000002</v>
       </c>
       <c r="T38">
+        <v>85.17333333333333</v>
+      </c>
+      <c r="U38">
         <v>0.03624999999999545</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.0001019024401716084</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>4.699468960023268E-05</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>85.16</v>
@@ -3977,21 +4094,24 @@
         <v>85.12266666666666</v>
       </c>
       <c r="T39">
+        <v>85.16</v>
+      </c>
+      <c r="U39">
         <v>0.0274999999999892</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>6.27028043829192E-05</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>3.132832080177117E-05</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>85.14</v>
@@ -4048,21 +4168,24 @@
         <v>85.13066666666667</v>
       </c>
       <c r="T40">
+        <v>85.15333333333332</v>
+      </c>
+      <c r="U40">
         <v>0.03124999999998579</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>3.918679561731864E-05</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>9.398201810739693E-05</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>-0.0002348520432127188</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>85.16</v>
@@ -4119,21 +4242,24 @@
         <v>85.14133333333332</v>
       </c>
       <c r="T41">
+        <v>85.15333333333332</v>
+      </c>
+      <c r="U41">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>6.269641611611476E-05</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0.0001252975817565005</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>0.000234907211651425</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>85.16</v>
@@ -4190,21 +4316,24 @@
         <v>85.152</v>
       </c>
       <c r="T42">
+        <v>85.15333333333332</v>
+      </c>
+      <c r="U42">
         <v>0.01500000000000057</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>3.918280345116543E-05</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>0.0001252818842396586</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>85.16</v>
@@ -4261,21 +4390,24 @@
         <v>85.16000000000001</v>
       </c>
       <c r="T43">
+        <v>85.16000000000001</v>
+      </c>
+      <c r="U43">
         <v>0.009999999999990905</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>3.91812682194459E-05</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>9.394964299147546E-05</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>85.12</v>
@@ -4332,21 +4464,24 @@
         <v>85.15733333333333</v>
       </c>
       <c r="T44">
+        <v>85.14666666666666</v>
+      </c>
+      <c r="U44">
         <v>-0.005000000000009663</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>4.701567972920095E-05</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>-3.131360576191788E-05</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>-0.0004697040864254376</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>85.04000000000001</v>
@@ -4403,21 +4538,24 @@
         <v>85.14533333333333</v>
       </c>
       <c r="T45">
+        <v>85.10666666666667</v>
+      </c>
+      <c r="U45">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>8.619136049126119E-05</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>-0.0001409156385043797</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>-0.0009398496240601295</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>85.12</v>
@@ -4474,21 +4612,24 @@
         <v>85.14000000000001</v>
       </c>
       <c r="T46">
+        <v>85.09333333333335</v>
+      </c>
+      <c r="U46">
         <v>-0.01125000000000398</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>0.0001096886409579501</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>-6.263799934203007E-05</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>0.0009407337723423836</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>85.09999999999999</v>
@@ -4545,21 +4686,24 @@
         <v>85.14</v>
       </c>
       <c r="T47">
+        <v>85.08666666666667</v>
+      </c>
+      <c r="U47">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>1.566808723985069E-05</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>-0.0002349624060151712</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>85.12</v>
@@ -4616,21 +4760,24 @@
         <v>85.13866666666668</v>
       </c>
       <c r="T48">
+        <v>85.11333333333333</v>
+      </c>
+      <c r="U48">
         <v>-0.01624999999999943</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>8.617312965153445E-05</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>-1.566048077661364E-05</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>0.0002350176263221648</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>85.06</v>
@@ -4687,21 +4834,24 @@
         <v>85.13200000000001</v>
       </c>
       <c r="T49">
+        <v>85.09333333333333</v>
+      </c>
+      <c r="U49">
         <v>-0.02375000000000682</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>7.833245861954552E-06</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>-7.830363015637332E-05</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>-0.0007048872180451804</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>85.06</v>
@@ -4758,21 +4908,24 @@
         <v>85.128</v>
       </c>
       <c r="T50">
+        <v>85.08</v>
+      </c>
+      <c r="U50">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>7.833184502814561E-06</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>-4.698585725704252E-05</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>84.98</v>
@@ -4829,21 +4982,24 @@
         <v>85.11333333333333</v>
       </c>
       <c r="T51">
+        <v>85.03333333333335</v>
+      </c>
+      <c r="U51">
         <v>-0.04375000000000284</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>3.133249257825099E-05</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>-0.0001722895717821693</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>-0.000940512579355679</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>85.04000000000001</v>
@@ -4900,21 +5056,24 @@
         <v>85.10533333333333</v>
       </c>
       <c r="T52">
+        <v>85.02666666666667</v>
+      </c>
+      <c r="U52">
         <v>-0.04375000000000284</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>-7.83287772088137E-06</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>-9.399232396012369E-05</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0.0007060484819958468</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>85.02</v>
@@ -4971,21 +5130,24 @@
         <v>85.096</v>
       </c>
       <c r="T53">
+        <v>85.01333333333334</v>
+      </c>
+      <c r="U53">
         <v>-0.0374999999999801</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>-3.133175630176677E-05</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>-0.00010966801923884</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>-0.0002351834430857069</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>85.02</v>
@@ -5042,21 +5204,24 @@
         <v>85.08666666666666</v>
       </c>
       <c r="T54">
+        <v>85.02666666666666</v>
+      </c>
+      <c r="U54">
         <v>-0.04124999999999091</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>-3.91659225140728E-05</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>-0.0001096800476325654</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>85.04000000000001</v>
@@ -5113,21 +5278,24 @@
         <v>85.08</v>
       </c>
       <c r="T55">
+        <v>85.02666666666666</v>
+      </c>
+      <c r="U55">
         <v>-0.04125000000000512</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>7.833491308728568E-06</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>-7.835148476054155E-05</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0.0002352387673489886</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>85.02</v>
@@ -5184,21 +5352,24 @@
         <v>85.07066666666668</v>
       </c>
       <c r="T56">
+        <v>85.02666666666667</v>
+      </c>
+      <c r="U56">
         <v>-0.04625000000000057</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>7.833429945591774E-06</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>-0.0001097006738753903</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>-0.0002351834430857069</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>85.02</v>
@@ -5255,21 +5426,24 @@
         <v>85.06133333333334</v>
       </c>
       <c r="T57">
+        <v>85.02666666666666</v>
+      </c>
+      <c r="U57">
         <v>-0.04250000000001819</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>7.833368583343159E-06</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>-0.000109712709433829</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>85.02</v>
@@ -5326,21 +5500,24 @@
         <v>85.05199999999999</v>
       </c>
       <c r="T58">
+        <v>85.02</v>
+      </c>
+      <c r="U58">
         <v>-0.03874999999999318</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>-7.833307222204766E-06</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>-0.0001097247476332663</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>85.02</v>
@@ -5397,21 +5574,24 @@
         <v>85.04533333333333</v>
       </c>
       <c r="T59">
+        <v>85.02</v>
+      </c>
+      <c r="U59">
         <v>-0.02499999999999147</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>-5.483358008440131E-05</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>-7.83834203388345E-05</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>85.04000000000001</v>
@@ -5468,21 +5648,24 @@
         <v>85.04533333333333</v>
       </c>
       <c r="T60">
+        <v>85.02666666666667</v>
+      </c>
+      <c r="U60">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>-7.050418324816565E-05</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>0</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>0.0002352387673489886</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>85.02</v>
@@ -5539,21 +5722,24 @@
         <v>85.03866666666666</v>
       </c>
       <c r="T61">
+        <v>85.02666666666666</v>
+      </c>
+      <c r="U61">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>-7.050915443840289E-05</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>-7.838956478123382E-05</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>-0.0002351834430857069</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>85.02</v>
@@ -5610,21 +5796,24 @@
         <v>85.03333333333333</v>
       </c>
       <c r="T62">
+        <v>85.02666666666667</v>
+      </c>
+      <c r="U62">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>-3.1339611702208E-05</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>-6.271656814926807E-05</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>85</v>
@@ -5681,21 +5870,24 @@
         <v>85.02533333333332</v>
       </c>
       <c r="T63">
+        <v>85.01333333333334</v>
+      </c>
+      <c r="U63">
         <v>-0.01125000000000398</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>-5.4846039332479E-05</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>-9.4080752646164E-05</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>-0.0002352387673487666</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>85.02</v>
@@ -5752,21 +5944,24 @@
         <v>85.02266666666667</v>
       </c>
       <c r="T64">
+        <v>85.01333333333332</v>
+      </c>
+      <c r="U64">
         <v>-0.004999999999995453</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>-5.484904758545905E-05</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>-3.136320155550099E-05</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>0.0002352941176471113</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>85.06</v>
@@ -5823,21 +6018,24 @@
         <v>85.02266666666667</v>
       </c>
       <c r="T65">
+        <v>85.02666666666666</v>
+      </c>
+      <c r="U65">
         <v>1.4210854715202E-14</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>-2.350802407213859E-05</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>0</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>0.0004704775346977552</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>85.02</v>
@@ -5894,21 +6092,24 @@
         <v>85.02533333333334</v>
       </c>
       <c r="T66">
+        <v>85.03333333333333</v>
+      </c>
+      <c r="U66">
         <v>0.002499999999997726</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>-7.052573013732744E-05</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>3.13641852369706E-05</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>-0.000470256289677895</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>85.06</v>
@@ -5965,21 +6166,24 @@
         <v>85.02666666666667</v>
       </c>
       <c r="T67">
+        <v>85.04666666666667</v>
+      </c>
+      <c r="U67">
         <v>0.002499999999997726</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>-3.918372464806197E-05</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>1.568160077791703E-05</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>0.0004704775346977552</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>85.08</v>
@@ -6036,21 +6240,24 @@
         <v>85.03066666666668</v>
       </c>
       <c r="T68">
+        <v>85.05333333333333</v>
+      </c>
+      <c r="U68">
         <v>0.004999999999995453</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>-3.134820805805738E-05</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>4.704406460720456E-05</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>0.0002351281448389475</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>85.12</v>
@@ -6107,21 +6314,24 @@
         <v>85.03733333333335</v>
       </c>
       <c r="T69">
+        <v>85.08666666666666</v>
+      </c>
+      <c r="U69">
         <v>0.01124999999998977</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>-1.567459539963956E-05</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>7.840308594553314E-05</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>0.0004701457451810054</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>85.16</v>
@@ -6178,21 +6388,24 @@
         <v>85.04533333333332</v>
       </c>
       <c r="T70">
+        <v>85.12</v>
+      </c>
+      <c r="U70">
         <v>0.01999999999999602</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>7.837420548328922E-06</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>9.407632725988435E-05</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>0.0004699248120298982</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>85.2</v>
@@ -6249,21 +6462,24 @@
         <v>85.05733333333333</v>
       </c>
       <c r="T71">
+        <v>85.16000000000001</v>
+      </c>
+      <c r="U71">
         <v>0.0350000000000108</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>1.567471824692745E-05</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>0.0001411012166061543</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>0.0004697040864256596</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>85.16</v>
@@ -6320,21 +6536,24 @@
         <v>85.06666666666666</v>
       </c>
       <c r="T72">
+        <v>85.17333333333333</v>
+      </c>
+      <c r="U72">
         <v>0.04375000000000284</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>0</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>0.0001097299076699976</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>-0.0004694835680751908</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>85.16</v>
@@ -6391,21 +6610,24 @@
         <v>85.07599999999999</v>
       </c>
       <c r="T73">
+        <v>85.17333333333333</v>
+      </c>
+      <c r="U73">
         <v>0.04750000000001364</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>0</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>0.0001097178683384659</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>85.16</v>
@@ -6462,21 +6684,24 @@
         <v>85.08533333333334</v>
       </c>
       <c r="T74">
+        <v>85.16</v>
+      </c>
+      <c r="U74">
         <v>0.05625000000000568</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>1.567447255390597E-05</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>0.0001097058316485988</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>85.14</v>
@@ -6533,21 +6758,24 @@
         <v>85.092</v>
       </c>
       <c r="T75">
+        <v>85.15333333333332</v>
+      </c>
+      <c r="U75">
         <v>0.05875000000000341</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>3.918556717197319E-05</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>7.83527125707284E-05</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>-0.0002348520432127188</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>85.14</v>
@@ -6604,21 +6832,24 @@
         <v>85.09999999999999</v>
       </c>
       <c r="T76">
+        <v>85.14666666666666</v>
+      </c>
+      <c r="U76">
         <v>0.06000000000000227</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>7.836806344752034E-06</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>9.401588868507282E-05</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>85.09999999999999</v>
@@ -6675,21 +6906,24 @@
         <v>85.10533333333333</v>
       </c>
       <c r="T77">
+        <v>85.12666666666667</v>
+      </c>
+      <c r="U77">
         <v>0.05250000000000909</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>0</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>6.267136701931797E-05</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>-0.0004698144233028501</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>85.14</v>
@@ -6746,21 +6980,24 @@
         <v>85.11466666666666</v>
       </c>
       <c r="T78">
+        <v>85.12666666666667</v>
+      </c>
+      <c r="U78">
         <v>0.04250000000000398</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>7.836744929656803E-06</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>0.000109668019238951</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>0.0004700352526441076</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>85.12</v>
@@ -6817,21 +7054,24 @@
         <v>85.12133333333333</v>
       </c>
       <c r="T79">
+        <v>85.12</v>
+      </c>
+      <c r="U79">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>2.351005054657129E-05</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>7.832570963084429E-05</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>-0.000234907211651314</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>85.18000000000001</v>
@@ -6888,21 +7128,24 @@
         <v>85.12933333333334</v>
       </c>
       <c r="T80">
+        <v>85.14666666666666</v>
+      </c>
+      <c r="U80">
         <v>0.01749999999999829</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>4.701899567449708E-05</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>9.398349023359565E-05</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>0.0007048872180450694</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>85.18000000000001</v>
@@ -6959,21 +7202,24 @@
         <v>85.14000000000001</v>
       </c>
       <c r="T81">
+        <v>85.16000000000001</v>
+      </c>
+      <c r="U81">
         <v>0.01250000000000284</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>7.836130832039601E-05</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>0.0001252995442231342</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>85.16</v>
@@ -7030,21 +7276,24 @@
         <v>85.14666666666668</v>
       </c>
       <c r="T82">
+        <v>85.17333333333335</v>
+      </c>
+      <c r="U82">
         <v>0.003749999999996589</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>4.701310098398359E-05</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>7.830240388373433E-05</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>-0.0002347969006810668</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>85.14</v>
@@ -7101,21 +7350,24 @@
         <v>85.15066666666667</v>
       </c>
       <c r="T83">
+        <v>85.16000000000001</v>
+      </c>
+      <c r="U83">
         <v>-0.001249999999998863</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>4.701089085656918E-05</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>4.697776385831354E-05</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>-0.0002348520432127188</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>84.98</v>
@@ -7172,21 +7424,24 @@
         <v>85.14133333333332</v>
       </c>
       <c r="T84">
+        <v>85.09333333333335</v>
+      </c>
+      <c r="U84">
         <v>-0.01500000000000057</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>-1.566956031218147E-05</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>-0.0001096096331210106</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>-0.001879257693211178</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>84.98</v>
@@ -7243,21 +7498,24 @@
         <v>85.12933333333334</v>
       </c>
       <c r="T85">
+        <v>85.03333333333333</v>
+      </c>
+      <c r="U85">
         <v>-0.02124999999999488</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>-2.350470877676702E-05</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>-0.0001409421197693383</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -7314,21 +7572,24 @@
         <v>85.116</v>
       </c>
       <c r="T86">
+        <v>84.98666666666666</v>
+      </c>
+      <c r="U86">
         <v>-0.02875000000000227</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>-7.835087086904835E-06</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>-0.0001566244302786401</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0.0002353494939986156</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>85</v>
@@ -7385,21 +7646,24 @@
         <v>85.10533333333333</v>
       </c>
       <c r="T87">
+        <v>84.99333333333334</v>
+      </c>
+      <c r="U87">
         <v>-0.03125</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>-7.83514847613187E-06</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>-0.0001253191722668801</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>85.02</v>
@@ -7456,21 +7720,24 @@
         <v>85.096</v>
       </c>
       <c r="T88">
+        <v>85.00666666666666</v>
+      </c>
+      <c r="U88">
         <v>-0.04249999999998977</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>-0.00010966801923884</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>0.0002352941176471113</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>85.06</v>
@@ -7527,21 +7794,24 @@
         <v>85.08933333333333</v>
       </c>
       <c r="T89">
+        <v>85.02666666666666</v>
+      </c>
+      <c r="U89">
         <v>-0.05124999999999602</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>1.567041973227212E-05</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>-7.83428911661499E-05</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>0.0004704775346977552</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>85</v>
@@ -7598,21 +7868,24 @@
         <v>85.08</v>
       </c>
       <c r="T90">
+        <v>85.02666666666666</v>
+      </c>
+      <c r="U90">
         <v>-0.06124999999998693</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>-1.567017417414274E-05</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>-0.000109688640957728</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>-0.0007053844345168425</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>85</v>
@@ -7669,21 +7942,24 @@
         <v>85.07066666666667</v>
       </c>
       <c r="T91">
+        <v>85.02</v>
+      </c>
+      <c r="U91">
         <v>-0.06999999999999318</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>-7.835209866025039E-06</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>-0.0001097006738755013</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>85</v>
@@ -7740,21 +8016,24 @@
         <v>85.06400000000001</v>
       </c>
       <c r="T92">
+        <v>85</v>
+      </c>
+      <c r="U92">
         <v>-0.0587499999999892</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>-7.835271257139453E-06</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>-7.836622102397328E-05</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>84.98</v>
@@ -7811,21 +8090,24 @@
         <v>85.05333333333333</v>
       </c>
       <c r="T93">
+        <v>84.99333333333334</v>
+      </c>
+      <c r="U93">
         <v>-0.05125000000001023</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>-7.835332648920001E-06</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>-0.000125395780432136</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>-0.0002352941176470003</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>84.94</v>
@@ -7882,21 +8164,24 @@
         <v>85.04133333333334</v>
       </c>
       <c r="T94">
+        <v>84.97333333333334</v>
+      </c>
+      <c r="U94">
         <v>-0.04625000000000057</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>-3.134157616802025E-05</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>-0.0001410879448188185</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>-0.0004706989879972312</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>84.81999999999999</v>
@@ -7953,21 +8238,24 @@
         <v>85.01733333333333</v>
       </c>
       <c r="T95">
+        <v>84.91333333333334</v>
+      </c>
+      <c r="U95">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>-9.40276754790581E-05</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>-0.0002822157068721465</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>-0.001412761949611596</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>84.81999999999999</v>
@@ -8024,21 +8312,24 @@
         <v>84.99333333333334</v>
       </c>
       <c r="T96">
+        <v>84.86</v>
+      </c>
+      <c r="U96">
         <v>-0.05249999999999488</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>-7.836376459513517E-05</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>-0.0002822953750606372</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>84.92</v>
@@ -8095,21 +8386,24 @@
         <v>84.97733333333332</v>
       </c>
       <c r="T97">
+        <v>84.85333333333334</v>
+      </c>
+      <c r="U97">
         <v>-0.05375000000000796</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>-5.485893416923293E-05</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>-0.0001882500588283875</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>0.001178967224711336</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>84.92</v>
@@ -8166,21 +8460,24 @@
         <v>84.96266666666666</v>
       </c>
       <c r="T98">
+        <v>84.88666666666667</v>
+      </c>
+      <c r="U98">
         <v>-0.04874999999999829</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>-6.269936438529911E-05</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>-0.0001725950449530389</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>84.94</v>
@@ -8237,21 +8534,24 @@
         <v>84.96000000000001</v>
       </c>
       <c r="T99">
+        <v>84.92666666666666</v>
+      </c>
+      <c r="U99">
         <v>-0.04375000000001705</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>-7.054120782201689E-05</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>-3.138633438992677E-05</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>0.0002355157795572715</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>84.92</v>
@@ -8308,21 +8608,24 @@
         <v>84.95599999999999</v>
       </c>
       <c r="T100">
+        <v>84.92666666666668</v>
+      </c>
+      <c r="U100">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>-9.406157898050882E-05</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>-4.708097928463051E-05</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>-0.000235460324935155</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>84.86</v>
@@ -8379,21 +8682,24 @@
         <v>84.94666666666667</v>
       </c>
       <c r="T101">
+        <v>84.90666666666667</v>
+      </c>
+      <c r="U101">
         <v>-0.05750000000001876</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>-0.000133266438807067</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>-0.0001098607906836468</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.0007065473386717036</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>84.90000000000001</v>
@@ -8450,21 +8756,24 @@
         <v>84.94</v>
       </c>
       <c r="T102">
+        <v>84.89333333333333</v>
+      </c>
+      <c r="U102">
         <v>-0.05624999999999147</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>-0.0001019232126194813</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>-7.848061528814565E-05</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>0.0004713646005185534</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>84.90000000000001</v>
@@ -8521,21 +8830,24 @@
         <v>84.932</v>
       </c>
       <c r="T103">
+        <v>84.88666666666667</v>
+      </c>
+      <c r="U103">
         <v>-0.04000000000000625</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>-0.0001019336020200434</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>-9.418412997408421E-05</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>84.95999999999999</v>
@@ -8592,21 +8904,24 @@
         <v>84.92533333333334</v>
       </c>
       <c r="T104">
+        <v>84.92</v>
+      </c>
+      <c r="U104">
         <v>-0.01874999999999716</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>-7.841845656808566E-05</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>-7.849416788330288E-05</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>0.0007067137809186885</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>84.98</v>
@@ -8663,21 +8978,24 @@
         <v>84.92400000000001</v>
       </c>
       <c r="T105">
+        <v>84.94666666666667</v>
+      </c>
+      <c r="U105">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>-6.27396852035389E-05</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>-1.570006594031614E-05</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>0.0002354048964219313</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>84.98</v>
@@ -8734,21 +9052,24 @@
         <v>84.92266666666667</v>
       </c>
       <c r="T106">
+        <v>84.97333333333334</v>
+      </c>
+      <c r="U106">
         <v>0.002499999999983515</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>-6.274362171865278E-05</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>-1.570031243625092E-05</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>84.95999999999999</v>
@@ -8805,21 +9126,24 @@
         <v>84.92000000000002</v>
       </c>
       <c r="T107">
+        <v>84.97333333333334</v>
+      </c>
+      <c r="U107">
         <v>0.007499999999993179</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>-5.490411388697769E-05</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>-3.140111787969246E-05</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>-0.0002353494939987266</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>84.95999999999999</v>
@@ -8876,21 +9200,24 @@
         <v>84.91866666666667</v>
       </c>
       <c r="T108">
+        <v>84.96666666666665</v>
+      </c>
+      <c r="U108">
         <v>0.01500000000000057</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>-7.059487951788235E-05</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>-1.570105197068461E-05</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>84.92</v>
@@ -8947,21 +9274,24 @@
         <v>84.91733333333333</v>
       </c>
       <c r="T109">
+        <v>84.94666666666666</v>
+      </c>
+      <c r="U109">
         <v>0.02625000000000455</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>-7.844429278536236E-05</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>-1.570129849737256E-05</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>-0.0004708097928436406</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>85</v>
@@ -9018,21 +9348,24 @@
         <v>84.92933333333333</v>
       </c>
       <c r="T110">
+        <v>84.95999999999999</v>
+      </c>
+      <c r="U110">
         <v>0.03499999999999659</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>-7.060540209791188E-05</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>0.0001413139052883761</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>0.0009420631182288641</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>85</v>
@@ -9089,21 +9422,24 @@
         <v>84.94133333333333</v>
       </c>
       <c r="T111">
+        <v>84.97333333333334</v>
+      </c>
+      <c r="U111">
         <v>0.03624999999999545</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>-7.061038757261162E-05</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>0.0001412939384899392</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>85</v>
@@ -9160,21 +9496,24 @@
         <v>84.94666666666667</v>
       </c>
       <c r="T112">
+        <v>85</v>
+      </c>
+      <c r="U112">
         <v>0.03000000000000114</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>-6.276922111236871E-05</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>6.278843437046433E-05</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>85</v>
@@ -9231,21 +9570,24 @@
         <v>84.952</v>
       </c>
       <c r="T113">
+        <v>85</v>
+      </c>
+      <c r="U113">
         <v>0.0274999999999892</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>-5.492651616811894E-05</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>6.278449223029448E-05</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>84.98</v>
@@ -9302,21 +9644,24 @@
         <v>84.95466666666667</v>
       </c>
       <c r="T114">
+        <v>84.99333333333334</v>
+      </c>
+      <c r="U114">
         <v>0.02375000000000682</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>0</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>3.139027529264204E-05</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>-0.0002352941176470003</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>84.94</v>
@@ -9373,21 +9718,24 @@
         <v>84.956</v>
       </c>
       <c r="T115">
+        <v>84.97333333333334</v>
+      </c>
+      <c r="U115">
         <v>0.02124999999999488</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>-1.569415235880278E-05</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>1.569464498718531E-05</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>-0.0004706989879972312</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>84.95999999999999</v>
@@ -9444,21 +9792,24 @@
         <v>84.96266666666666</v>
       </c>
       <c r="T116">
+        <v>84.95999999999999</v>
+      </c>
+      <c r="U116">
         <v>0.01874999999998295</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>-1.56943986687752E-05</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>7.847199334554134E-05</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>0.000235460324935266</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>85</v>
@@ -9515,21 +9866,24 @@
         <v>84.96933333333332</v>
       </c>
       <c r="T117">
+        <v>84.96666666666665</v>
+      </c>
+      <c r="U117">
         <v>0.01999999999999602</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>0</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>7.846583597492796E-05</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>0.0004708097928438626</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>85.02</v>
@@ -9586,21 +9940,24 @@
         <v>84.97733333333333</v>
       </c>
       <c r="T118">
+        <v>84.99333333333333</v>
+      </c>
+      <c r="U118">
         <v>0.01499999999998636</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>9.415161548487205E-05</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>0.0002352941176471113</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>85.04000000000001</v>
@@ -9657,21 +10014,24 @@
         <v>84.98266666666667</v>
       </c>
       <c r="T119">
+        <v>85.02</v>
+      </c>
+      <c r="U119">
         <v>0.01125000000000398</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>-7.847322493703679E-06</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>6.276183452857964E-05</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>0.0002352387673489886</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>84.98</v>
@@ -9728,21 +10088,24 @@
         <v>84.98266666666667</v>
       </c>
       <c r="T120">
+        <v>85.01333333333334</v>
+      </c>
+      <c r="U120">
         <v>0.007499999999993179</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>-7.847384074444186E-06</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>0</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>-0.0007055503292568988</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>85</v>
@@ -9799,21 +10162,24 @@
         <v>84.98399999999999</v>
       </c>
       <c r="T121">
+        <v>85.00666666666667</v>
+      </c>
+      <c r="U121">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>0</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>1.568947393182363E-05</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>0.0002353494939986156</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>84.98</v>
@@ -9870,21 +10236,24 @@
         <v>84.98533333333334</v>
       </c>
       <c r="T122">
+        <v>84.98666666666666</v>
+      </c>
+      <c r="U122">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>-7.84744565651696E-06</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>1.568922777650528E-05</v>
       </c>
-      <c r="W122">
+      <c r="X122">
         <v>-0.0002352941176470003</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>84.95999999999999</v>
@@ -9941,21 +10310,24 @@
         <v>84.98533333333333</v>
       </c>
       <c r="T123">
+        <v>84.98</v>
+      </c>
+      <c r="U123">
         <v>0.008750000000006253</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>-7.847507239255869E-06</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>-0.0002353494939987266</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>84.95999999999999</v>
@@ -10012,21 +10384,24 @@
         <v>84.988</v>
       </c>
       <c r="T124">
+        <v>84.96666666666667</v>
+      </c>
+      <c r="U124">
         <v>0.008750000000006253</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>7.847568822993978E-06</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>3.137796325636266E-05</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>84.98</v>
@@ -10083,21 +10458,24 @@
         <v>84.98666666666666</v>
       </c>
       <c r="T125">
+        <v>84.96666666666665</v>
+      </c>
+      <c r="U125">
         <v>0.002499999999997726</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>6.278005791493513E-05</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>-1.568848935540323E-05</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>0.0002354048964219313</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>85</v>
@@ -10154,21 +10532,24 @@
         <v>84.98666666666666</v>
       </c>
       <c r="T126">
+        <v>84.98</v>
+      </c>
+      <c r="U126">
         <v>0</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>7.062313142958132E-05</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>0</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>0.0002353494939986156</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>85</v>
@@ -10225,21 +10606,24 @@
         <v>84.98666666666666</v>
       </c>
       <c r="T127">
+        <v>84.99333333333334</v>
+      </c>
+      <c r="U127">
         <v>-0.005000000000009663</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>3.138584184680937E-05</v>
-      </c>
-      <c r="V127">
-        <v>0</v>
       </c>
       <c r="W127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:23">
+      <c r="X127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>84.98</v>
@@ -10296,21 +10680,24 @@
         <v>84.98533333333333</v>
       </c>
       <c r="T128">
+        <v>84.99333333333333</v>
+      </c>
+      <c r="U128">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>2.353864260506988E-05</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>-1.568873548796201E-05</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>-0.0002352941176470003</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>85</v>
@@ -10367,21 +10754,24 @@
         <v>84.98666666666666</v>
       </c>
       <c r="T129">
+        <v>84.99333333333334</v>
+      </c>
+      <c r="U129">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>2.353808855026784E-05</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>1.568898162829235E-05</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>0.0002353494939986156</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>84.92</v>
@@ -10438,21 +10828,24 @@
         <v>84.98533333333333</v>
       </c>
       <c r="T130">
+        <v>84.96666666666668</v>
+      </c>
+      <c r="U130">
         <v>-0.007499999999993179</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>-1.568873548796201E-05</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>-0.0009411764705882231</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>84.98</v>
@@ -10509,21 +10902,24 @@
         <v>84.98666666666668</v>
       </c>
       <c r="T131">
+        <v>84.96666666666667</v>
+      </c>
+      <c r="U131">
         <v>-0.00750000000000739</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>4.707506904355618E-05</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>1.568898162829235E-05</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>0.0007065473386718146</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>84.92</v>
@@ -10580,21 +10976,24 @@
         <v>84.98133333333334</v>
       </c>
       <c r="T132">
+        <v>84.94</v>
+      </c>
+      <c r="U132">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>7.845475514134392E-06</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>-6.275494195173703E-05</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>-0.0007060484819957358</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>84.92</v>
@@ -10651,21 +11050,24 @@
         <v>84.97466666666666</v>
       </c>
       <c r="T133">
+        <v>84.94</v>
+      </c>
+      <c r="U133">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>7.845413963147863E-06</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>-7.844860047701019E-05</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>84.88</v>
@@ -10722,21 +11124,24 @@
         <v>84.964</v>
       </c>
       <c r="T134">
+        <v>84.90666666666667</v>
+      </c>
+      <c r="U134">
         <v>-0.01874999999999716</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>-3.138140965264213E-05</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>-0.0001255276082283707</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>-0.0004710315591145431</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>84.86</v>
@@ -10793,21 +11198,24 @@
         <v>84.95599999999999</v>
       </c>
       <c r="T135">
+        <v>84.88666666666667</v>
+      </c>
+      <c r="U135">
         <v>-0.02499999999999147</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>-4.707359171496339E-05</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>-9.415752554031709E-05</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>-0.0002356267672006807</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>84.88</v>
@@ -10864,21 +11272,24 @@
         <v>84.94800000000001</v>
       </c>
       <c r="T136">
+        <v>84.87333333333333</v>
+      </c>
+      <c r="U136">
         <v>-0.03125</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>-3.922983978565941E-05</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>-9.416639201442756E-05</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>0.0002356823002591657</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>84.84</v>
@@ -10935,21 +11346,24 @@
         <v>84.93866666666666</v>
       </c>
       <c r="T137">
+        <v>84.86</v>
+      </c>
+      <c r="U137">
         <v>-0.04124999999999091</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>-4.707765459111002E-05</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>-0.0001098711368524574</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>-0.0004712535344013613</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>84.86</v>
@@ -11006,21 +11420,24 @@
         <v>84.932</v>
       </c>
       <c r="T138">
+        <v>84.86</v>
+      </c>
+      <c r="U138">
         <v>-0.04124999999999091</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>-3.923322583421207E-05</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>-7.848800703247338E-05</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>0.0002357378595001514</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>84.88</v>
@@ -11077,21 +11494,24 @@
         <v>84.92666666666668</v>
       </c>
       <c r="T139">
+        <v>84.86</v>
+      </c>
+      <c r="U139">
         <v>-0.04874999999999829</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>-1.56939060564909E-05</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>-6.279533430653128E-05</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>0.0002356823002591657</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>84.90000000000001</v>
@@ -11148,21 +11568,24 @@
         <v>84.92133333333335</v>
       </c>
       <c r="T140">
+        <v>84.88000000000001</v>
+      </c>
+      <c r="U140">
         <v>-0.04750000000001364</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>-3.923538089700696E-05</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>-6.279927780816763E-05</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>0.0002356267672007917</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>84.92</v>
@@ -11219,21 +11642,24 @@
         <v>84.916</v>
       </c>
       <c r="T141">
+        <v>84.89999999999999</v>
+      </c>
+      <c r="U141">
         <v>-0.04375000000000284</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>-3.138953629799879E-05</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>-6.280322180551856E-05</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>0.0002355712603061555</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>84.92</v>
@@ -11290,21 +11716,24 @@
         <v>84.91066666666667</v>
       </c>
       <c r="T142">
+        <v>84.91333333333334</v>
+      </c>
+      <c r="U142">
         <v>-0.03374999999999773</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>-3.139052163203537E-05</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>-6.280716629758487E-05</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>84.88</v>
@@ -11361,21 +11790,24 @@
         <v>84.904</v>
       </c>
       <c r="T143">
+        <v>84.90666666666667</v>
+      </c>
+      <c r="U143">
         <v>-0.02374999999999261</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>-4.708726054158952E-05</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>-7.851388910706802E-05</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>-0.0004710315591145431</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>84.81999999999999</v>
@@ -11432,21 +11864,24 @@
         <v>84.89200000000001</v>
       </c>
       <c r="T144">
+        <v>84.87333333333333</v>
+      </c>
+      <c r="U144">
         <v>-0.02125000000000909</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>-6.278597047515433E-05</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>-0.0001413360972390976</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>-0.000706880301602264</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>84.84</v>
@@ -11503,21 +11938,24 @@
         <v>84.88666666666667</v>
       </c>
       <c r="T145">
+        <v>84.84666666666666</v>
+      </c>
+      <c r="U145">
         <v>-0.01125000000000398</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>-3.92436955002351E-05</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>-6.282492264686468E-05</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>0.0002357934449424004</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>84.84</v>
@@ -11574,21 +12012,24 @@
         <v>84.87733333333333</v>
       </c>
       <c r="T146">
+        <v>84.83333333333333</v>
+      </c>
+      <c r="U146">
         <v>-0.008749999999992042</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>-4.709428275395666E-05</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>-0.0001099505222651453</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>84.86</v>
@@ -11645,21 +12086,24 @@
         <v>84.87333333333335</v>
       </c>
       <c r="T147">
+        <v>84.84666666666668</v>
+      </c>
+      <c r="U147">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>-5.494591751853406E-05</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>-4.712683401897344E-05</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>0.0002357378595001514</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>84.81999999999999</v>
@@ -11716,21 +12160,24 @@
         <v>84.86666666666666</v>
       </c>
       <c r="T148">
+        <v>84.83999999999999</v>
+      </c>
+      <c r="U148">
         <v>-0.00750000000000739</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>-7.849848105434543E-05</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>-7.854842510435223E-05</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>-0.0004713646005185534</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>84.86</v>
@@ -11787,21 +12234,24 @@
         <v>84.86533333333334</v>
       </c>
       <c r="T149">
+        <v>84.84666666666666</v>
+      </c>
+      <c r="U149">
         <v>-0.01125000000000398</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>-7.065417919471795E-05</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>-1.571091908858513E-05</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>0.0004715868898845788</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>84.84</v>
@@ -11858,21 +12308,24 @@
         <v>84.864</v>
       </c>
       <c r="T150">
+        <v>84.84</v>
+      </c>
+      <c r="U150">
         <v>-0.01874999999999716</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>-5.49571334359511E-05</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>-1.571116592569144E-05</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>-0.0002356823002591657</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>84.86</v>
@@ -11929,21 +12382,24 @@
         <v>84.86266666666666</v>
       </c>
       <c r="T151">
+        <v>84.85333333333334</v>
+      </c>
+      <c r="U151">
         <v>-0.02124999999999488</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>-5.496015388839481E-05</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>-1.571141277045829E-05</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>0.0002357378595001514</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>84.88</v>
@@ -12000,21 +12456,24 @@
         <v>84.86533333333334</v>
       </c>
       <c r="T152">
+        <v>84.86</v>
+      </c>
+      <c r="U152">
         <v>-0.01374999999998749</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>-3.925941048066317E-05</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>3.142331924532726E-05</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>0.0002356823002591657</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>84.84</v>
@@ -12071,21 +12530,24 @@
         <v>84.864</v>
       </c>
       <c r="T153">
+        <v>84.86</v>
+      </c>
+      <c r="U153">
         <v>-0.01375000000000171</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>-4.711314221106377E-05</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>-1.571116592569144E-05</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>-0.0004712535344013613</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>84.88</v>
@@ -12142,21 +12604,24 @@
         <v>84.864</v>
       </c>
       <c r="T154">
+        <v>84.86666666666666</v>
+      </c>
+      <c r="U154">
         <v>-0.01000000000001933</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>-3.141024130925985E-05</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>0</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>0.0004714757190003027</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>84.84</v>
@@ -12213,21 +12678,24 @@
         <v>84.85999999999999</v>
       </c>
       <c r="T155">
+        <v>84.85333333333334</v>
+      </c>
+      <c r="U155">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>-5.49696489009488E-05</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>-4.713423831093078E-05</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>-0.0004712535344013613</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>84.86</v>
@@ -12284,21 +12752,24 @@
         <v>84.85600000000001</v>
       </c>
       <c r="T156">
+        <v>84.86</v>
+      </c>
+      <c r="U156">
         <v>-0.002500000000011937</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>-5.497267072940293E-05</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>-4.71364600516111E-05</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>0.0002357378595001514</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>84.86</v>
@@ -12355,21 +12826,24 @@
         <v>84.852</v>
       </c>
       <c r="T157">
+        <v>84.85333333333334</v>
+      </c>
+      <c r="U157">
         <v>0.001249999999998863</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>-5.497569289025783E-05</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>-4.713868200245663E-05</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>84.86</v>
@@ -12426,21 +12900,24 @@
         <v>84.85066666666667</v>
       </c>
       <c r="T158">
+        <v>84.86</v>
+      </c>
+      <c r="U158">
         <v>0.00750000000000739</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>-4.712461318534533E-05</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>-1.571363472085974E-05</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>84.84</v>
@@ -12497,21 +12974,24 @@
         <v>84.852</v>
       </c>
       <c r="T159">
+        <v>84.85333333333334</v>
+      </c>
+      <c r="U159">
         <v>0.007499999999978968</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>-6.283577869226065E-05</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>1.571388164300913E-05</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>-0.0002356823002591657</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>84.84</v>
@@ -12568,21 +13048,24 @@
         <v>84.852</v>
       </c>
       <c r="T160">
+        <v>84.84666666666666</v>
+      </c>
+      <c r="U160">
         <v>0.001249999999998863</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>-3.141986363763838E-05</v>
-      </c>
-      <c r="V160">
-        <v>0</v>
       </c>
       <c r="W160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:23">
+      <c r="X160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>84.81999999999999</v>
@@ -12639,21 +13122,24 @@
         <v>84.85066666666667</v>
       </c>
       <c r="T161">
+        <v>84.83333333333333</v>
+      </c>
+      <c r="U161">
         <v>1.4210854715202E-14</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>-6.28417017534133E-05</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>-1.571363472085974E-05</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>-0.0002357378595003734</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>84.84</v>
@@ -12710,21 +13196,24 @@
         <v>84.84933333333333</v>
       </c>
       <c r="T162">
+        <v>84.83333333333333</v>
+      </c>
+      <c r="U162">
         <v>-0.005000000000009663</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>-3.142282554047249E-05</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>-1.571388164300913E-05</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>0.0002357934449424004</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>84.84</v>
@@ -12781,21 +13270,24 @@
         <v>84.85066666666667</v>
       </c>
       <c r="T163">
+        <v>84.83333333333333</v>
+      </c>
+      <c r="U163">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>-3.142381296528107E-05</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>1.571412857304111E-05</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>84.84</v>
@@ -12852,21 +13344,24 @@
         <v>84.84933333333335</v>
       </c>
       <c r="T164">
+        <v>84.84</v>
+      </c>
+      <c r="U164">
         <v>-0.007499999999993179</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>-1.571240022646414E-05</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>-1.571388164289811E-05</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>84.84</v>
@@ -12923,21 +13418,24 @@
         <v>84.84933333333333</v>
       </c>
       <c r="T165">
+        <v>84.84</v>
+      </c>
+      <c r="U165">
         <v>-0.008749999999992042</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>-7.856323554933375E-06</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>84.84</v>
@@ -12994,21 +13492,24 @@
         <v>84.848</v>
       </c>
       <c r="T166">
+        <v>84.84</v>
+      </c>
+      <c r="U166">
         <v>-0.01124999999998977</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>-1.571277055389952E-05</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>-1.571412857304111E-05</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>84.86</v>
@@ -13065,21 +13566,24 @@
         <v>84.84666666666666</v>
       </c>
       <c r="T167">
+        <v>84.84666666666668</v>
+      </c>
+      <c r="U167">
         <v>-0.008750000000006253</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>7.856508724479738E-06</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>-1.571437551073362E-05</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>0.0002357378595001514</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>84.88</v>
@@ -13136,21 +13640,24 @@
         <v>84.84933333333333</v>
       </c>
       <c r="T168">
+        <v>84.86</v>
+      </c>
+      <c r="U168">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>7.856447000298417E-06</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>3.14292449123954E-05</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>0.0002356823002591657</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>84.84</v>
@@ -13207,21 +13714,24 @@
         <v>84.84666666666666</v>
       </c>
       <c r="T169">
+        <v>84.86</v>
+      </c>
+      <c r="U169">
         <v>-0.001250000000013074</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>-1.571277055389952E-05</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>-3.142825714608222E-05</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>-0.0004712535344013613</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>84.8</v>
@@ -13278,21 +13788,24 @@
         <v>84.84400000000001</v>
       </c>
       <c r="T170">
+        <v>84.83999999999999</v>
+      </c>
+      <c r="U170">
         <v>-0.001249999999998863</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>-3.928254362339789E-05</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>-3.142924491228438E-05</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>-0.0004714757190005248</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>84.8</v>
@@ -13349,21 +13862,24 @@
         <v>84.84</v>
       </c>
       <c r="T171">
+        <v>84.81333333333333</v>
+      </c>
+      <c r="U171">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>-4.714090416257921E-05</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>-4.714534911132162E-05</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>84.81999999999999</v>
@@ -13420,21 +13936,24 @@
         <v>84.83733333333333</v>
       </c>
       <c r="T172">
+        <v>84.80666666666667</v>
+      </c>
+      <c r="U172">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>-3.928593877677855E-05</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>-3.143171460007199E-05</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>0.0002358490566036764</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>84.78</v>
@@ -13491,21 +14010,24 @@
         <v>84.83200000000001</v>
       </c>
       <c r="T173">
+        <v>84.8</v>
+      </c>
+      <c r="U173">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>-3.928748222259415E-05</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>-6.286540516742267E-05</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>-0.0004715868898843567</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>84.8</v>
@@ -13562,21 +14084,24 @@
         <v>84.82933333333334</v>
       </c>
       <c r="T174">
+        <v>84.8</v>
+      </c>
+      <c r="U174">
         <v>-0.0075000000000216</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>-7.857805157662767E-06</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>-3.143467873767403E-05</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>0.0002359046945032972</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>84.78</v>
@@ -13633,21 +14158,24 @@
         <v>84.82533333333335</v>
       </c>
       <c r="T175">
+        <v>84.78666666666666</v>
+      </c>
+      <c r="U175">
         <v>-0.01375000000000171</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>-2.357360071048031E-05</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>-4.715350036144095E-05</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>-0.0002358490566036764</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>84.76000000000001</v>
@@ -13704,21 +14232,24 @@
         <v>84.82133333333334</v>
       </c>
       <c r="T176">
+        <v>84.77999999999999</v>
+      </c>
+      <c r="U176">
         <v>-0.02375000000000682</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>-3.143220858414786E-05</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>-4.715572391900125E-05</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>-0.0002359046945034082</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>84.76000000000001</v>
@@ -13775,21 +14306,24 @@
         <v>84.816</v>
       </c>
       <c r="T177">
+        <v>84.76666666666667</v>
+      </c>
+      <c r="U177">
         <v>-0.03000000000001535</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>-3.92914957486612E-05</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>-6.28772635815622E-05</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>84.78</v>
@@ -13846,21 +14380,24 @@
         <v>84.812</v>
       </c>
       <c r="T178">
+        <v>84.76666666666667</v>
+      </c>
+      <c r="U178">
         <v>-0.02874999999998806</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>-1.571721585236219E-05</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>-4.716091303536007E-05</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>0.0002359603586596926</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>84.78</v>
@@ -13917,21 +14454,24 @@
         <v>84.80800000000001</v>
       </c>
       <c r="T179">
+        <v>84.77333333333334</v>
+      </c>
+      <c r="U179">
         <v>-0.02750000000000341</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>-3.143492577450946E-05</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>-4.716313729180577E-05</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>84.78</v>
@@ -13988,21 +14528,24 @@
         <v>84.804</v>
       </c>
       <c r="T180">
+        <v>84.78</v>
+      </c>
+      <c r="U180">
         <v>-0.02874999999998806</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>-2.357693546972683E-05</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>-4.716536175841668E-05</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>84.78</v>
@@ -14059,21 +14602,24 @@
         <v>84.8</v>
       </c>
       <c r="T181">
+        <v>84.78</v>
+      </c>
+      <c r="U181">
         <v>-0.02499999999999147</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>-3.143665513971605E-05</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>-4.71675864346377E-05</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>84.8</v>
@@ -14130,21 +14676,24 @@
         <v>84.79599999999999</v>
       </c>
       <c r="T182">
+        <v>84.78666666666668</v>
+      </c>
+      <c r="U182">
         <v>-0.02249999999999375</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>-3.14376434344954E-05</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>-4.716981132080189E-05</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>0.0002359046945032972</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>84.81999999999999</v>
@@ -14201,21 +14750,24 @@
         <v>84.792</v>
       </c>
       <c r="T183">
+        <v>84.8</v>
+      </c>
+      <c r="U183">
         <v>-0.01500000000000057</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>-7.859657947584253E-06</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>-4.717203641668721E-05</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>0.0002358490566036764</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>84.81999999999999</v>
@@ -14272,21 +14824,24 @@
         <v>84.79066666666667</v>
       </c>
       <c r="T184">
+        <v>84.81333333333333</v>
+      </c>
+      <c r="U184">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>-2.357915916728626E-05</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>-1.572475390765327E-05</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>84.81999999999999</v>
@@ -14343,21 +14898,24 @@
         <v>84.79199999999999</v>
       </c>
       <c r="T185">
+        <v>84.81999999999999</v>
+      </c>
+      <c r="U185">
         <v>0.004999999999995453</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>-7.859905052254312E-06</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>1.572500117918985E-05</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>84.8</v>
@@ -14414,21 +14972,24 @@
         <v>84.79199999999999</v>
       </c>
       <c r="T186">
+        <v>84.81333333333332</v>
+      </c>
+      <c r="U186">
         <v>0.00750000000000739</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>-2.357990049273173E-05</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>0</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>-0.0002357934449421784</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>84.8</v>
@@ -14485,21 +15046,24 @@
         <v>84.79066666666668</v>
       </c>
       <c r="T187">
+        <v>84.80666666666667</v>
+      </c>
+      <c r="U187">
         <v>0.009999999999990905</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>-2.358045651762453E-05</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>-1.57247539073202E-05</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>84.86</v>
@@ -14556,21 +15120,24 @@
         <v>84.79600000000001</v>
       </c>
       <c r="T188">
+        <v>84.82000000000001</v>
+      </c>
+      <c r="U188">
         <v>0.01749999999999829</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>0</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>6.290000471742552E-05</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>0.0007075471698112512</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>84.94</v>
@@ -14627,21 +15194,24 @@
         <v>84.80533333333332</v>
       </c>
       <c r="T189">
+        <v>84.86666666666666</v>
+      </c>
+      <c r="U189">
         <v>0.02750000000000341</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>3.930168761434594E-05</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>0.0001100680849723812</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>0.0009427292010368848</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>84.92</v>
@@ -14698,21 +15268,24 @@
         <v>84.81466666666665</v>
       </c>
       <c r="T190">
+        <v>84.90666666666668</v>
+      </c>
+      <c r="U190">
         <v>0.0350000000000108</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>3.14401144418941E-05</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>0.0001100559713225202</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>-0.000235460324935155</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>84.94</v>
@@ -14769,21 +15342,24 @@
         <v>84.82666666666665</v>
       </c>
       <c r="T191">
+        <v>84.93333333333334</v>
+      </c>
+      <c r="U191">
         <v>0.04000000000000625</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>4.715868898874653E-05</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>0.0001414849632925819</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>0.0002355157795572715</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>84.90000000000001</v>
@@ -14840,21 +15416,24 @@
         <v>84.836</v>
       </c>
       <c r="T192">
+        <v>84.92</v>
+      </c>
+      <c r="U192">
         <v>0.04125000000000512</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>2.357823257548297E-05</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>0.0001100282929897833</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>-0.000470920649870421</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>84.86</v>
@@ -14911,21 +15490,24 @@
         <v>84.84133333333332</v>
       </c>
       <c r="T193">
+        <v>84.89999999999999</v>
+      </c>
+      <c r="U193">
         <v>0.04000000000000625</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>7.859225551909432E-06</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>6.286639319785792E-05</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>-0.000471142520612533</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>84.86</v>
@@ -14982,21 +15564,24 @@
         <v>84.84666666666666</v>
       </c>
       <c r="T194">
+        <v>84.87333333333333</v>
+      </c>
+      <c r="U194">
         <v>0.04249999999998977</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>7.859163785317591E-06</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>6.286244126307849E-05</v>
       </c>
-      <c r="W194">
+      <c r="X194">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>84.94</v>
@@ -15053,21 +15638,24 @@
         <v>84.85733333333333</v>
       </c>
       <c r="T195">
+        <v>84.88666666666667</v>
+      </c>
+      <c r="U195">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>3.929551009496102E-05</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>0.0001257169796495816</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>0.0009427292010368848</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>84.92</v>
@@ -15124,21 +15712,24 @@
         <v>84.86666666666666</v>
       </c>
       <c r="T196">
+        <v>84.90666666666667</v>
+      </c>
+      <c r="U196">
         <v>0.04874999999999829</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>3.143517281478658E-05</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>0.0001099885297675129</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>-0.000235460324935155</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>84.90000000000001</v>
@@ -15195,21 +15786,24 @@
         <v>84.87333333333335</v>
       </c>
       <c r="T197">
+        <v>84.92</v>
+      </c>
+      <c r="U197">
         <v>0.03624999999999545</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>1.571709233783025E-05</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>7.855459544403587E-05</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>-0.0002355157795571605</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>84.90000000000001</v>
@@ -15266,21 +15860,24 @@
         <v>84.87866666666666</v>
       </c>
       <c r="T198">
+        <v>84.90666666666667</v>
+      </c>
+      <c r="U198">
         <v>0.02750000000000341</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>7.858422657491815E-06</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>6.283874008294887E-05</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>84.84</v>
@@ -15337,21 +15934,24 @@
         <v>84.88000000000001</v>
       </c>
       <c r="T199">
+        <v>84.88000000000001</v>
+      </c>
+      <c r="U199">
         <v>0.01375000000001592</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>0</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>1.570869790623597E-05</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>-0.0007067137809187996</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>84.81999999999999</v>
@@ -15408,21 +16008,24 @@
         <v>84.88000000000001</v>
       </c>
       <c r="T200">
+        <v>84.85333333333334</v>
+      </c>
+      <c r="U200">
         <v>0.003749999999996589</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>7.858360903112427E-06</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>0</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>-0.0002357378595003734</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>84.86</v>
@@ -15479,21 +16082,24 @@
         <v>84.884</v>
       </c>
       <c r="T201">
+        <v>84.83999999999999</v>
+      </c>
+      <c r="U201">
         <v>0.001250000000013074</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>2.35748974490857E-05</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>4.71253534399807E-05</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>0.0004715868898845788</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>84.84</v>
@@ -15550,21 +16156,24 @@
         <v>84.88666666666667</v>
       </c>
       <c r="T202">
+        <v>84.83999999999999</v>
+      </c>
+      <c r="U202">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>7.858113895586882E-06</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>3.141542183060508E-05</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>-0.0002356823002591657</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>84.86</v>
@@ -15621,21 +16230,24 @@
         <v>84.88666666666667</v>
       </c>
       <c r="T203">
+        <v>84.85333333333334</v>
+      </c>
+      <c r="U203">
         <v>-0.01749999999998408</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>3.143220858414786E-05</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>0</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>0.0002357378595001514</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>84.90000000000001</v>
@@ -15692,21 +16304,24 @@
         <v>84.884</v>
       </c>
       <c r="T204">
+        <v>84.86666666666666</v>
+      </c>
+      <c r="U204">
         <v>-0.02249999999999375</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>3.928902578920201E-05</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>-3.141443493293039E-05</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>0.0004713646005185534</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>84.92</v>
@@ -15763,21 +16378,24 @@
         <v>84.88400000000001</v>
       </c>
       <c r="T205">
+        <v>84.89333333333333</v>
+      </c>
+      <c r="U205">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>5.50024751115874E-05</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>0.0002355712603061555</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>84.86</v>
@@ -15834,21 +16452,24 @@
         <v>84.87866666666667</v>
       </c>
       <c r="T206">
+        <v>84.89333333333333</v>
+      </c>
+      <c r="U206">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>3.928532143238073E-05</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>-6.283084366121017E-05</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>-0.0007065473386717036</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>84.86</v>
@@ -15905,21 +16526,24 @@
         <v>84.87599999999999</v>
       </c>
       <c r="T207">
+        <v>84.88</v>
+      </c>
+      <c r="U207">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>3.928377815687334E-05</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>-3.141739581224989E-05</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>84.84</v>
@@ -15976,21 +16600,24 @@
         <v>84.87466666666667</v>
       </c>
       <c r="T208">
+        <v>84.85333333333334</v>
+      </c>
+      <c r="U208">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>2.356934100089525E-05</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>-1.570919144777694E-05</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>-0.0002356823002591657</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>84.84</v>
@@ -16047,21 +16674,24 @@
         <v>84.87333333333332</v>
       </c>
       <c r="T209">
+        <v>84.84666666666668</v>
+      </c>
+      <c r="U209">
         <v>-0.00750000000000739</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>2.356878550058283E-05</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>-1.570943823070436E-05</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>84.81999999999999</v>
@@ -16118,21 +16748,24 @@
         <v>84.86533333333334</v>
       </c>
       <c r="T210">
+        <v>84.83333333333333</v>
+      </c>
+      <c r="U210">
         <v>-0.007499999999993179</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>1.571215335061105E-05</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>-9.425811012464536E-05</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>-0.0002357378595003734</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>84.84</v>
@@ -16189,21 +16822,24 @@
         <v>84.86</v>
       </c>
       <c r="T211">
+        <v>84.83333333333333</v>
+      </c>
+      <c r="U211">
         <v>-0.0037500000000108</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>2.356785972379427E-05</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>-6.284466370254371E-05</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>0.0002357934449424004</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>84.81999999999999</v>
@@ -16260,21 +16896,24 @@
         <v>84.85466666666666</v>
       </c>
       <c r="T212">
+        <v>84.82666666666665</v>
+      </c>
+      <c r="U212">
         <v>-0.00750000000000739</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>7.85576809803068E-06</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>-6.284861340255521E-05</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>-0.0002357378595003734</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>84.86</v>
@@ -16331,21 +16970,24 @@
         <v>84.85200000000002</v>
       </c>
       <c r="T213">
+        <v>84.83999999999999</v>
+      </c>
+      <c r="U213">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>1.571141277034727E-05</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>-3.142628179919615E-05</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>0.0004715868898845788</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>84.86</v>
@@ -16402,21 +17044,24 @@
         <v>84.85333333333332</v>
       </c>
       <c r="T214">
+        <v>84.84666666666668</v>
+      </c>
+      <c r="U214">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>1.571116592558042E-05</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>1.571363472052667E-05</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>84.86</v>
@@ -16473,21 +17118,24 @@
         <v>84.85599999999999</v>
       </c>
       <c r="T215">
+        <v>84.86</v>
+      </c>
+      <c r="U215">
         <v>-0.01124999999998977</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>1.571091908880717E-05</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>3.142677561296381E-05</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>84.86</v>
@@ -16544,21 +17192,24 @@
         <v>84.85600000000001</v>
       </c>
       <c r="T216">
+        <v>84.86</v>
+      </c>
+      <c r="U216">
         <v>-0.01125000000000398</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>2.356600838937517E-05</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>84.88</v>
@@ -16615,21 +17266,24 @@
         <v>84.85866666666666</v>
       </c>
       <c r="T217">
+        <v>84.86666666666666</v>
+      </c>
+      <c r="U217">
         <v>-0.007499999999993179</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>3.142060406124969E-05</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>3.142578800141571E-05</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>0.0002356823002591657</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>84.84</v>
@@ -16686,21 +17340,24 @@
         <v>84.85733333333334</v>
       </c>
       <c r="T218">
+        <v>84.86</v>
+      </c>
+      <c r="U218">
         <v>-0.005000000000009663</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>-7.854904209514402E-06</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>-1.571240022613107E-05</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>-0.0004712535344013613</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>84.84</v>
@@ -16757,21 +17414,24 @@
         <v>84.85333333333332</v>
       </c>
       <c r="T219">
+        <v>84.85333333333334</v>
+      </c>
+      <c r="U219">
         <v>-0.0037500000000108</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>-3.927482954724226E-05</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>-4.713794132915616E-05</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>84.84</v>
@@ -16828,21 +17488,24 @@
         <v>84.84799999999998</v>
       </c>
       <c r="T220">
+        <v>84.83999999999999</v>
+      </c>
+      <c r="U220">
         <v>0.002500000000011937</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>-3.142109769604939E-05</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>-6.285355122570557E-05</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>84.86</v>
@@ -16899,21 +17562,24 @@
         <v>84.848</v>
       </c>
       <c r="T221">
+        <v>84.84666666666668</v>
+      </c>
+      <c r="U221">
         <v>0.006250000000008527</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>-3.142208501261123E-05</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>0.0002357378595001514</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>84.88</v>
@@ -16970,21 +17636,24 @@
         <v>84.84933333333333</v>
       </c>
       <c r="T222">
+        <v>84.86</v>
+      </c>
+      <c r="U222">
         <v>0.00750000000000739</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>-7.855768097475568E-06</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>1.571437551084465E-05</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>0.0002356823002591657</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>84.90000000000001</v>
@@ -17041,21 +17710,24 @@
         <v>84.85333333333332</v>
       </c>
       <c r="T223">
+        <v>84.88000000000001</v>
+      </c>
+      <c r="U223">
         <v>0.009999999999990905</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>1.571165962266363E-05</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>4.714238571890128E-05</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>0.0002356267672007917</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>84.92</v>
@@ -17112,21 +17784,24 @@
         <v>84.85866666666668</v>
       </c>
       <c r="T224">
+        <v>84.89999999999999</v>
+      </c>
+      <c r="U224">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>2.356711915529885E-05</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>6.285355122592762E-05</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>0.0002355712603061555</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>84.88</v>
@@ -17183,21 +17858,24 @@
         <v>84.86266666666667</v>
       </c>
       <c r="T225">
+        <v>84.89999999999999</v>
+      </c>
+      <c r="U225">
         <v>0.009999999999990905</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>-2.356656375923638E-05</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>4.713720067872629E-05</v>
       </c>
-      <c r="W225">
+      <c r="X225">
         <v>-0.0004710315591145431</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>84.88</v>
@@ -17254,21 +17932,24 @@
         <v>84.86533333333334</v>
       </c>
       <c r="T226">
+        <v>84.89333333333333</v>
+      </c>
+      <c r="U226">
         <v>0.01124999999998977</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>-1.571141277045829E-05</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>3.142331924532726E-05</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>84.81999999999999</v>
@@ -17325,21 +18006,24 @@
         <v>84.86533333333334</v>
       </c>
       <c r="T227">
+        <v>84.86</v>
+      </c>
+      <c r="U227">
         <v>0.01000000000000512</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>-3.142331924510522E-05</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>0</v>
       </c>
-      <c r="W227">
+      <c r="X227">
         <v>-0.000706880301602264</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>84.81999999999999</v>
@@ -17396,21 +18080,24 @@
         <v>84.86266666666666</v>
       </c>
       <c r="T228">
+        <v>84.83999999999999</v>
+      </c>
+      <c r="U228">
         <v>0.007499999999993179</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>-3.142430670111107E-05</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>-3.14223318514939E-05</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>84.78</v>
@@ -17467,21 +18154,24 @@
         <v>84.85733333333333</v>
       </c>
       <c r="T229">
+        <v>84.80666666666666</v>
+      </c>
+      <c r="U229">
         <v>0.002499999999997726</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>-2.356897066457808E-05</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>-6.284663849032146E-05</v>
       </c>
-      <c r="W229">
+      <c r="X229">
         <v>-0.0004715868898843567</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>84.73999999999999</v>
@@ -17538,21 +18228,24 @@
         <v>84.84933333333333</v>
       </c>
       <c r="T230">
+        <v>84.77999999999999</v>
+      </c>
+      <c r="U230">
         <v>-0.007499999999993179</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>-3.142603489847406E-05</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>-9.427588265786824E-05</v>
       </c>
-      <c r="W230">
+      <c r="X230">
         <v>-0.0004718093890069275</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>84.78</v>
@@ -17609,21 +18302,24 @@
         <v>84.84399999999999</v>
       </c>
       <c r="T231">
+        <v>84.76666666666667</v>
+      </c>
+      <c r="U231">
         <v>-0.01749999999999829</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>-3.142702252556528E-05</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>-6.285651429205341E-05</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>0.0004720320981828063</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>84.78</v>
@@ -17680,21 +18376,24 @@
         <v>84.83733333333333</v>
       </c>
       <c r="T232">
+        <v>84.76666666666667</v>
+      </c>
+      <c r="U232">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>-2.357100766048337E-05</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>-7.857558185209168E-05</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233">
         <v>84.81999999999999</v>
@@ -17751,21 +18450,24 @@
         <v>84.836</v>
       </c>
       <c r="T233">
+        <v>84.79333333333334</v>
+      </c>
+      <c r="U233">
         <v>-0.03374999999999773</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>-1.571437551095567E-05</v>
       </c>
-      <c r="V233">
+      <c r="W233">
         <v>-1.571635129193893E-05</v>
       </c>
-      <c r="W233">
+      <c r="X233">
         <v>0.0004718093890068165</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234">
         <v>84.76000000000001</v>
@@ -17822,21 +18524,24 @@
         <v>84.83066666666667</v>
       </c>
       <c r="T234">
+        <v>84.78666666666668</v>
+      </c>
+      <c r="U234">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>-5.500117859635889E-05</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>-6.286639319774689E-05</v>
       </c>
-      <c r="W234">
+      <c r="X234">
         <v>-0.0007073803348265351</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235">
         <v>84.72</v>
@@ -17893,21 +18598,24 @@
         <v>84.82266666666668</v>
       </c>
       <c r="T235">
+        <v>84.76666666666667</v>
+      </c>
+      <c r="U235">
         <v>-0.04875000000001251</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>-7.857743413253182E-05</v>
       </c>
-      <c r="V235">
+      <c r="W235">
         <v>-9.430551844458179E-05</v>
       </c>
-      <c r="W235">
+      <c r="X235">
         <v>-0.0004719207173196072</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236">
         <v>84.7</v>
@@ -17964,21 +18672,24 @@
         <v>84.81199999999998</v>
       </c>
       <c r="T236">
+        <v>84.72666666666667</v>
+      </c>
+      <c r="U236">
         <v>-0.05499999999999261</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>-6.286688722478839E-05</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>-0.0001257525504192447</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>-0.0002360717658167477</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237">
         <v>84.72</v>
@@ -18035,21 +18746,24 @@
         <v>84.80133333333333</v>
       </c>
       <c r="T237">
+        <v>84.71333333333334</v>
+      </c>
+      <c r="U237">
         <v>-0.05374999999999375</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>-5.501198475399427E-05</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>-0.0001257683661115561</v>
       </c>
-      <c r="W237">
+      <c r="X237">
         <v>0.000236127508854711</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>84.78</v>
@@ -18106,21 +18820,24 @@
         <v>84.79333333333334</v>
       </c>
       <c r="T238">
+        <v>84.73333333333333</v>
+      </c>
+      <c r="U238">
         <v>-0.04250000000001819</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <v>-2.357786195927858E-05</v>
       </c>
-      <c r="V238">
+      <c r="W238">
         <v>-9.433813933734658E-05</v>
       </c>
-      <c r="W238">
+      <c r="X238">
         <v>0.0007082152974504652</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239">
         <v>84.88</v>
@@ -18177,21 +18894,24 @@
         <v>84.79066666666667</v>
       </c>
       <c r="T239">
+        <v>84.79333333333334</v>
+      </c>
+      <c r="U239">
         <v>-0.02875000000000227</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>1.571894525853601E-05</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>-3.144901328722138E-05</v>
       </c>
-      <c r="W239">
+      <c r="X239">
         <v>0.00117952347251693</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240">
         <v>84.84</v>
@@ -18248,21 +18968,24 @@
         <v>84.788</v>
       </c>
       <c r="T240">
+        <v>84.83333333333333</v>
+      </c>
+      <c r="U240">
         <v>-0.01624999999998522</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>7.859349088645828E-06</v>
       </c>
-      <c r="V240">
+      <c r="W240">
         <v>-3.145000235882378E-05</v>
       </c>
-      <c r="W240">
+      <c r="X240">
         <v>-0.0004712535344013613</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241">
         <v>84.76000000000001</v>
@@ -18319,21 +19042,24 @@
         <v>84.77999999999999</v>
       </c>
       <c r="T241">
+        <v>84.82666666666667</v>
+      </c>
+      <c r="U241">
         <v>-0.01624999999998522</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <v>-3.14371492790011E-05</v>
       </c>
-      <c r="V241">
+      <c r="W241">
         <v>-9.435297447768498E-05</v>
       </c>
-      <c r="W241">
+      <c r="X241">
         <v>-0.0009429514380009385</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242">
         <v>84.76000000000001</v>
@@ -18390,21 +19116,24 @@
         <v>84.776</v>
       </c>
       <c r="T242">
+        <v>84.78666666666668</v>
+      </c>
+      <c r="U242">
         <v>-0.008750000000006253</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>-2.357860320367777E-05</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>-4.718093890054842E-05</v>
       </c>
-      <c r="W242">
+      <c r="X242">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243">
         <v>84.76000000000001</v>
@@ -18461,21 +19190,24 @@
         <v>84.77200000000001</v>
       </c>
       <c r="T243">
+        <v>84.76000000000001</v>
+      </c>
+      <c r="U243">
         <v>0</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>-3.929859861195872E-05</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>-4.71831650465937E-05</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244">
         <v>84.73999999999999</v>
@@ -18532,21 +19264,24 @@
         <v>84.76933333333334</v>
       </c>
       <c r="T244">
+        <v>84.75333333333334</v>
+      </c>
+      <c r="U244">
         <v>0.009999999999990905</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>-4.716017166306319E-05</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>-3.145692760186947E-05</v>
       </c>
-      <c r="W244">
+      <c r="X244">
         <v>-0.0002359603586599146</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245">
         <v>84.84</v>
@@ -18603,21 +19338,24 @@
         <v>84.77600000000001</v>
       </c>
       <c r="T245">
+        <v>84.78</v>
+      </c>
+      <c r="U245">
         <v>0.02124999999999488</v>
       </c>
-      <c r="U245">
+      <c r="V245">
         <v>-7.860399308223798E-06</v>
       </c>
-      <c r="V245">
+      <c r="W245">
         <v>7.86447929284062E-05</v>
       </c>
-      <c r="W245">
+      <c r="X245">
         <v>0.001180080245456683</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B246">
         <v>84.81999999999999</v>
@@ -18674,21 +19412,24 @@
         <v>84.77866666666667</v>
       </c>
       <c r="T246">
+        <v>84.8</v>
+      </c>
+      <c r="U246">
         <v>0.02124999999999488</v>
       </c>
-      <c r="U246">
+      <c r="V246">
         <v>-1.572092218926624E-05</v>
       </c>
-      <c r="V246">
+      <c r="W246">
         <v>3.145544336424777E-05</v>
       </c>
-      <c r="W246">
+      <c r="X246">
         <v>-0.0002357378595003734</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B247">
         <v>84.88</v>
@@ -18745,21 +19486,24 @@
         <v>84.78533333333334</v>
       </c>
       <c r="T247">
+        <v>84.84666666666666</v>
+      </c>
+      <c r="U247">
         <v>0.01499999999998636</v>
       </c>
-      <c r="U247">
+      <c r="V247">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="V247">
+      <c r="W247">
         <v>7.863613487679721E-05</v>
       </c>
-      <c r="W247">
+      <c r="X247">
         <v>0.0007073803348267571</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B248">
         <v>84.90000000000001</v>
@@ -18816,21 +19560,24 @@
         <v>84.79066666666667</v>
       </c>
       <c r="T248">
+        <v>84.86666666666666</v>
+      </c>
+      <c r="U248">
         <v>0.01500000000000057</v>
       </c>
-      <c r="U248">
+      <c r="V248">
         <v>2.358175401107054E-05</v>
       </c>
-      <c r="V248">
+      <c r="W248">
         <v>6.290396137687004E-05</v>
       </c>
-      <c r="W248">
+      <c r="X248">
         <v>0.0002356267672007917</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B249">
         <v>84.84</v>
@@ -18887,21 +19634,24 @@
         <v>84.79600000000001</v>
       </c>
       <c r="T249">
+        <v>84.87333333333333</v>
+      </c>
+      <c r="U249">
         <v>0.02374999999999261</v>
       </c>
-      <c r="U249">
+      <c r="V249">
         <v>0</v>
       </c>
-      <c r="V249">
+      <c r="W249">
         <v>6.290000471764756E-05</v>
       </c>
-      <c r="W249">
+      <c r="X249">
         <v>-0.0007067137809187996</v>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B250">
         <v>84.81999999999999</v>
@@ -18958,21 +19708,24 @@
         <v>84.80266666666667</v>
       </c>
       <c r="T250">
+        <v>84.85333333333334</v>
+      </c>
+      <c r="U250">
         <v>0.02750000000000341</v>
       </c>
-      <c r="U250">
+      <c r="V250">
         <v>-7.86039930833482E-06</v>
       </c>
-      <c r="V250">
+      <c r="W250">
         <v>7.862006069458971E-05</v>
       </c>
-      <c r="W250">
+      <c r="X250">
         <v>-0.0002357378595003734</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B251">
         <v>84.81999999999999</v>
@@ -19029,21 +19782,24 @@
         <v>84.81066666666668</v>
       </c>
       <c r="T251">
+        <v>84.82666666666667</v>
+      </c>
+      <c r="U251">
         <v>0.02875000000000227</v>
       </c>
-      <c r="U251">
+      <c r="V251">
         <v>-1.572092218915522E-05</v>
       </c>
-      <c r="V251">
+      <c r="W251">
         <v>9.433665608016284E-05</v>
       </c>
-      <c r="W251">
+      <c r="X251">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B252">
         <v>84.81999999999999</v>
@@ -19100,21 +19856,24 @@
         <v>84.81733333333334</v>
       </c>
       <c r="T252">
+        <v>84.81999999999999</v>
+      </c>
+      <c r="U252">
         <v>0.03125000000001421</v>
       </c>
-      <c r="U252">
+      <c r="V252">
         <v>-2.35817540108485E-05</v>
       </c>
-      <c r="V252">
+      <c r="W252">
         <v>7.860646459567633E-05</v>
       </c>
-      <c r="W252">
+      <c r="X252">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B253">
         <v>84.92</v>
@@ -19171,21 +19930,24 @@
         <v>84.82666666666667</v>
       </c>
       <c r="T253">
+        <v>84.85333333333334</v>
+      </c>
+      <c r="U253">
         <v>0.02874999999998806</v>
       </c>
-      <c r="U253">
+      <c r="V253">
         <v>7.860770040890586E-06</v>
       </c>
-      <c r="V253">
+      <c r="W253">
         <v>0.0001100404005469624</v>
       </c>
-      <c r="W253">
+      <c r="X253">
         <v>0.001178967224711336</v>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B254">
         <v>84.86</v>
@@ -19242,21 +20004,24 @@
         <v>84.82533333333335</v>
       </c>
       <c r="T254">
+        <v>84.86666666666666</v>
+      </c>
+      <c r="U254">
         <v>0.02874999999998806</v>
       </c>
-      <c r="U254">
+      <c r="V254">
         <v>-2.358212474951049E-05</v>
       </c>
-      <c r="V254">
+      <c r="W254">
         <v>-1.5718327569747E-05</v>
       </c>
-      <c r="W254">
+      <c r="X254">
         <v>-0.0007065473386717036</v>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B255">
         <v>84.86</v>
@@ -19313,21 +20078,24 @@
         <v>84.82666666666667</v>
       </c>
       <c r="T255">
+        <v>84.88</v>
+      </c>
+      <c r="U255">
         <v>0.02750000000000341</v>
       </c>
-      <c r="U255">
+      <c r="V255">
         <v>-7.860893626365772E-06</v>
       </c>
-      <c r="V255">
+      <c r="W255">
         <v>1.571857463944504E-05</v>
       </c>
-      <c r="W255">
+      <c r="X255">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B256">
         <v>84.86</v>
@@ -19384,21 +20152,24 @@
         <v>84.83333333333333</v>
       </c>
       <c r="T256">
+        <v>84.86</v>
+      </c>
+      <c r="U256">
         <v>0.02125000000000909</v>
       </c>
-      <c r="U256">
+      <c r="V256">
         <v>-7.860955420491145E-06</v>
       </c>
-      <c r="V256">
+      <c r="W256">
         <v>7.85916378496232E-05</v>
       </c>
-      <c r="W256">
+      <c r="X256">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B257">
         <v>84.84</v>
@@ -19455,21 +20226,24 @@
         <v>84.83866666666667</v>
       </c>
       <c r="T257">
+        <v>84.85333333333334</v>
+      </c>
+      <c r="U257">
         <v>0.01624999999998522</v>
       </c>
-      <c r="U257">
+      <c r="V257">
         <v>7.861017215615718E-06</v>
       </c>
-      <c r="V257">
+      <c r="W257">
         <v>6.28683693517651E-05</v>
       </c>
-      <c r="W257">
+      <c r="X257">
         <v>-0.0002356823002591657</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>84.88</v>
@@ -19526,21 +20300,24 @@
         <v>84.84666666666665</v>
       </c>
       <c r="T258">
+        <v>84.86</v>
+      </c>
+      <c r="U258">
         <v>0.01624999999999943</v>
       </c>
-      <c r="U258">
+      <c r="V258">
         <v>2.358286626158446E-05</v>
       </c>
-      <c r="V258">
+      <c r="W258">
         <v>9.429662575222153E-05</v>
       </c>
-      <c r="W258">
+      <c r="X258">
         <v>0.0004714757190003027</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B259">
         <v>84.90000000000001</v>
@@ -19597,15 +20374,18 @@
         <v>84.85733333333334</v>
       </c>
       <c r="T259">
+        <v>84.87333333333333</v>
+      </c>
+      <c r="U259">
         <v>0.01750000000001251</v>
       </c>
-      <c r="U259">
+      <c r="V259">
         <v>4.716462024623169E-05</v>
       </c>
-      <c r="V259">
+      <c r="W259">
         <v>0.0001257169796498037</v>
       </c>
-      <c r="W259">
+      <c r="X259">
         <v>0.0002356267672007917</v>
       </c>
     </row>
